--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54385FFB-7BD2-574D-A3CC-F2B25E89C9D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9337DCF-5C9E-994D-A510-3C49F1EE0D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="467">
   <si>
     <t>Wk</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Th</t>
-  </si>
-  <si>
-    <t>Course Overview &amp; Introduction to the Data Science Lifecycle</t>
   </si>
   <si>
     <t>M</t>
@@ -922,9 +919,6 @@
     <t>https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/</t>
   </si>
   <si>
-    <t>https://classroom.github.com/a/EK1NHY88</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -983,12 +977,6 @@
   </si>
   <si>
     <t>Signup for Github</t>
-  </si>
-  <si>
-    <t>https://ebookcentral-proquest-com.libproxy.rpi.edu/lib/rpi/detail.action?docID=4822582</t>
-  </si>
-  <si>
-    <t>Hands-On Machine Learning (Chapter 1. The Machine Learning Landscape)</t>
   </si>
   <si>
     <t xml:space="preserve">Review Git </t>
@@ -1075,9 +1063,6 @@
     <t>https://desktop.github.com</t>
   </si>
   <si>
-    <t>hm.ipynb</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Github Classroom Link </t>
     </r>
@@ -1090,9 +1075,6 @@
       </rPr>
       <t>(if applicable)</t>
     </r>
-  </si>
-  <si>
-    <t>rpi-techfundamentals/hm-01-starter</t>
   </si>
   <si>
     <t>Starter Repository</t>
@@ -1111,18 +1093,6 @@
   </si>
   <si>
     <t>Pittsburgh 1212</t>
-  </si>
-  <si>
-    <t>https://classroom.github.com/a/db-AgYOF</t>
-  </si>
-  <si>
-    <t>Install Anaconda's Python (3.X)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.anaconda.com/distribution/#download-section </t>
-  </si>
-  <si>
-    <t>rpi-techfundamentals/hm-02-starter</t>
   </si>
   <si>
     <t>04-python/01-intro-python-conditionals-loops</t>
@@ -1200,12 +1170,6 @@
     <t>Regex Cheatsheet</t>
   </si>
   <si>
-    <t>rpi-techfundamentals/hm-03-starter</t>
-  </si>
-  <si>
-    <t>https://classroom.github.com/a/MB2XOI_J</t>
-  </si>
-  <si>
     <t>Introduction to visualiation,  APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)</t>
   </si>
   <si>
@@ -1244,15 +1208,6 @@
     <t>Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.</t>
   </si>
   <si>
-    <t xml:space="preserve">The [Schedule](https://rpi.analyticsdojo.com/sessions/index.html) for the course.
-The [Course Materials](https://github.com/RPI-DATA/course-intro-ml-app/tree/master/content), including all data and Jupyter notebooks.
-The [LMS](https://lms.rpi.edu/) will be used for submissions of projects.
-Slack (see link on left tab) will be the primary method of communication. Please download the Slack App for your mobile and desktop.
-This Dropbox Share (see link on left tab) will include all presentations, syllabus, etc.   
-Previous version of the course are available in [here](http://archive.analyticsdojo.com).
-</t>
-  </si>
-  <si>
     <t>https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76</t>
   </si>
   <si>
@@ -1260,12 +1215,6 @@
   </si>
   <si>
     <t xml:space="preserve">This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions. </t>
-  </si>
-  <si>
-    <t>https://classroom.github.com/a/bf9sFwDx</t>
-  </si>
-  <si>
-    <t>rpi-techfundamentals/hm-04-starter</t>
   </si>
   <si>
     <t>https://notebooks.azure.com/anon-jhavvq/projects/r-jupyter-examples</t>
@@ -1322,9 +1271,6 @@
     <t xml:space="preserve">This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN. </t>
   </si>
   <si>
-    <t>https://classroom.github.com/a/N24-rhTA</t>
-  </si>
-  <si>
     <t>assignment-5-starter</t>
   </si>
   <si>
@@ -1347,9 +1293,6 @@
   </si>
   <si>
     <t>Ridge and Lasso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday 1:00 PM – 3:00 PM </t>
   </si>
   <si>
     <t>14-unsupervised/01-introduction-pca</t>
@@ -1379,9 +1322,6 @@
     <t xml:space="preserve">This will examine some cases and further explore the modeling process. </t>
   </si>
   <si>
-    <t>https://classroom.github.com/a/BXBW59HL</t>
-  </si>
-  <si>
     <t>https://rstudio.cloud/project/232375</t>
   </si>
   <si>
@@ -1394,25 +1334,7 @@
     <t>Cluster Analysis</t>
   </si>
   <si>
-    <t>PCA - Visually</t>
-  </si>
-  <si>
-    <t>http://setosa.io/ev/principal-component-analysis/</t>
-  </si>
-  <si>
-    <t>https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1</t>
-  </si>
-  <si>
-    <t>t-SNE</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is an assignment on unsupervised models. </t>
-  </si>
-  <si>
-    <t>https://classroom.github.com/a/lcyTxTwv</t>
-  </si>
-  <si>
-    <t>https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/assignments/pca.ipynb</t>
   </si>
   <si>
     <t>Starter Notebook</t>
@@ -1617,6 +1539,67 @@
   </si>
   <si>
     <t>New for this semester! [Hands-On Machine Learning with Scikit-Learn, Keras, and TensorFlow: Concepts, Tools, and Techniques to Build Intelligent Systems 2nd Edition by Aurélien Géron](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/dp/1492032646/ref=sr_1_1?keywords=machine+learning&amp;qid=1578363365&amp;sr=8-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday 2:00 PM – 4:00 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofi Arhin </t>
+  </si>
+  <si>
+    <t>arhink@rpi.edu</t>
+  </si>
+  <si>
+    <t>2126 Pittsburgh</t>
+  </si>
+  <si>
+    <t>Thursdays 10:00 AM – 12:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [Schedule](https://rpi.analyticsdojo.com/sessions/index.html) for the course.
+The [Course Materials](https://github.com/RPI-DATA/course-intro-ml-app/tree/master/content), including all data and Jupyter notebooks.
+The [LMS](https://lms.rpi.edu/) will be used for submissions of projects.
+Slack (see link on left tab) will be the primary method of communication. Please download the Slack App for your mobile and desktop.
+This Dropbox Share (see link on left tab) will include all presentations, syllabus, etc.   
+Fall 2019 version of the class available [here](http://rpifall2019.analyticsdojo.com).
+Earlier version of the course are available in [here](http://archive.analyticsdojo.com).
+</t>
+  </si>
+  <si>
+    <t>Course Overview &amp; The Machine Learning Landscape</t>
+  </si>
+  <si>
+    <t>Chapter 1: The Machine Learning Landscape</t>
+  </si>
+  <si>
+    <t>Chapter 2: End to End Machine Learning Project</t>
+  </si>
+  <si>
+    <t>Chapter 3: Classifiication</t>
+  </si>
+  <si>
+    <t>Chapter 4: Training Models</t>
+  </si>
+  <si>
+    <t>Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Chapter 6: Decision Trees</t>
+  </si>
+  <si>
+    <t>Chapter 7: Ensembe Learning and Random Forrests</t>
+  </si>
+  <si>
+    <t>Chapter 10: Introduction to Artifical Neural Networks with Keras</t>
+  </si>
+  <si>
+    <t>Chapter 11: Training Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>Chapter 12: Custom Models and Training with Tensorflow</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/</t>
   </si>
 </sst>
 </file>
@@ -2308,16 +2291,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2327,10 +2319,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2339,33 +2340,35 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2402,30 +2405,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2746,8 +2729,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2759,73 +2742,73 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="19">
       <c r="A1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>470</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+        <v>115</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+        <v>138</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
+        <v>140</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+        <v>139</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+        <v>141</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+        <v>254</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
@@ -2833,76 +2816,76 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="103" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
+        <v>129</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="109" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="107" t="s">
-        <v>307</v>
-      </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
+        <v>130</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
+        <v>131</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="103" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>383</v>
-      </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
+        <v>204</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="103" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="99"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
+        <v>132</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -2910,66 +2893,66 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="100" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
+        <v>133</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" s="99"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>468</v>
-      </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
+        <v>451</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="100" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="100" t="s">
-        <v>468</v>
-      </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
+        <v>204</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
+        <v>132</v>
+      </c>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
@@ -2977,22 +2960,22 @@
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="112" t="s">
-        <v>237</v>
-      </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="1" ht="14.75" customHeight="1">
       <c r="A22" s="21"/>
@@ -3003,34 +2986,34 @@
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>350</v>
-      </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
+        <v>201</v>
+      </c>
+      <c r="B23" s="102" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
     </row>
     <row r="24" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
+        <v>202</v>
+      </c>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="134" t="s">
-        <v>472</v>
-      </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
+        <v>203</v>
+      </c>
+      <c r="B25" s="113" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1"/>
@@ -3038,61 +3021,61 @@
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="19">
       <c r="A27" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
+        <v>118</v>
+      </c>
+      <c r="B28" s="104" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="105" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+        <v>121</v>
+      </c>
+      <c r="B29" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
+        <v>120</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="B31" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="13" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
@@ -3101,64 +3084,64 @@
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="19">
       <c r="A33" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
+        <v>160</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
+        <v>122</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
+        <v>124</v>
+      </c>
+      <c r="B36" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
+        <v>208</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -3168,246 +3151,246 @@
     </row>
     <row r="39" spans="1:6" ht="19">
       <c r="A39" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
+        <v>150</v>
+      </c>
+      <c r="B40" s="106" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
+        <v>161</v>
+      </c>
+      <c r="B41" s="111" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
+        <v>151</v>
+      </c>
+      <c r="B42" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
+        <v>161</v>
+      </c>
+      <c r="B43" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
+        <v>152</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="96" t="s">
-        <v>287</v>
-      </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
+        <v>161</v>
+      </c>
+      <c r="B45" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B46" s="95" t="s">
-        <v>343</v>
-      </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
+        <v>267</v>
+      </c>
+      <c r="B46" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
     </row>
     <row r="47" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+        <v>161</v>
+      </c>
+      <c r="B47" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B48" s="95" t="s">
-        <v>297</v>
-      </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
+        <v>279</v>
+      </c>
+      <c r="B48" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
+        <v>161</v>
+      </c>
+      <c r="B49" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B50" s="95" t="s">
-        <v>298</v>
-      </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
+        <v>279</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="96" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
+        <v>161</v>
+      </c>
+      <c r="B51" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="27" customFormat="1" ht="19">
       <c r="A53" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1">
       <c r="A54" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" s="70" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="70" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1">
       <c r="A65" s="72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1">
@@ -3428,35 +3411,40 @@
     </row>
     <row r="71" spans="1:2" ht="128" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
@@ -3473,31 +3461,26 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3512,9 +3495,10 @@
     <hyperlink ref="B51" r:id="rId10" xr:uid="{924278C6-2548-1843-9746-ADC6754D3F01}"/>
     <hyperlink ref="B41" r:id="rId11" xr:uid="{7794A769-0097-9B49-8A68-237CEDC05E0D}"/>
     <hyperlink ref="B25" r:id="rId12" display="https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/dp/1492032646/ref=sr_1_1?keywords=machine+learning&amp;qid=1578363365&amp;sr=8-1" xr:uid="{3F418434-832F-1542-BC3F-728923ED9C95}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{48B6394D-2269-5445-BF1D-D3E930BB3777}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3534,17 +3518,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3574,13 +3558,13 @@
     <row r="8" spans="1:1">
       <c r="A8" s="27" t="str">
         <f>IF(Readings!F6="","",CONCATENATE("| [",Readings!A6,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A6,".html) | ",Readings!F6," |"))</f>
-        <v/>
+        <v>| [2](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session2.html) | [Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[Chapter 1: The Machine Learning Landscape](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="27" t="str">
         <f>IF(Readings!F7="","",CONCATENATE("| [",Readings!A7,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A7,".html) | ",Readings!F7," |"))</f>
-        <v>| [2](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session2.html) | [Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/) |</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -3598,19 +3582,19 @@
     <row r="12" spans="1:1">
       <c r="A12" s="27" t="str">
         <f>IF(Readings!F10="","",CONCATENATE("| [",Readings!A10,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A10,".html) | ",Readings!F10," |"))</f>
-        <v>| [4](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session4.html) | [The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )&lt;br&gt;[Install Anaconda's Python (3.X)](https://www.anaconda.com/distribution/#download-section ) |</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="27" t="str">
         <f>IF(Readings!F11="","",CONCATENATE("| [",Readings!A11,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A11,".html) | ",Readings!F11," |"))</f>
-        <v/>
+        <v>| [3](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session3.html) | [The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 ) |</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="27" t="str">
         <f>IF(Readings!F12="","",CONCATENATE("| [",Readings!A12,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A12,".html) | ",Readings!F12," |"))</f>
-        <v/>
+        <v>| [4](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session4.html) | [Chapter 2: End to End Machine Learning Project](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -3634,7 +3618,7 @@
     <row r="18" spans="1:1">
       <c r="A18" s="27" t="str">
         <f>IF(Readings!F16="","",CONCATENATE("| [",Readings!A16,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A16,".html) | ",Readings!F16," |"))</f>
-        <v>| [6](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session6.html) | [What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)&lt;br&gt;[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285) |</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3646,7 +3630,7 @@
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="str">
         <f>IF(Readings!F18="","",CONCATENATE("| [",Readings!A18,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A18,".html) | ",Readings!F18," |"))</f>
-        <v>| [8](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session8.html) | [Hands-On Machine Learning (Chapter 1. The Machine Learning Landscape)](https://ebookcentral-proquest-com.libproxy.rpi.edu/lib/rpi/detail.action?docID=4822582)&lt;br&gt;[Under and Overfitting in Machine Learning](https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76) |</v>
+        <v>| [5](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session5.html) | [What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)&lt;br&gt;[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285) |</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -3658,7 +3642,7 @@
     <row r="22" spans="1:1">
       <c r="A22" s="27" t="str">
         <f>IF(Readings!F20="","",CONCATENATE("| [",Readings!A20,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A20,".html) | ",Readings!F20," |"))</f>
-        <v>| [10](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session10.html) | [R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud/project/232375) |</v>
+        <v>| [8](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session8.html) | [Chapter 3: Classifiication]()&lt;br&gt;[Under and Overfitting in Machine Learning](https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76) |</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3670,49 +3654,49 @@
     <row r="24" spans="1:1">
       <c r="A24" s="27" t="str">
         <f>IF(Readings!F22="","",CONCATENATE("| [",Readings!A22,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A22,".html) | ",Readings!F22," |"))</f>
-        <v>| [14](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session14.html) | [PCA - Visually](http://setosa.io/ev/principal-component-analysis/)&lt;br&gt;[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1) |</v>
+        <v>| [10](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session10.html) | [R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud/project/232375) |</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="27" t="str">
         <f>IF(Readings!F23="","",CONCATENATE("| [",Readings!A23,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A23,".html) | ",Readings!F23," |"))</f>
-        <v/>
+        <v>| [12](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session12.html) | [Chapter 4: Training Models](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="27" t="str">
         <f>IF(Readings!F24="","",CONCATENATE("| [",Readings!A24,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A24,".html) | ",Readings!F24," |"))</f>
-        <v/>
+        <v>| [14](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session14.html) | [Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="27" t="str">
         <f>IF(Readings!F25="","",CONCATENATE("| [",Readings!A25,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A25,".html) | ",Readings!F25," |"))</f>
-        <v/>
+        <v>| [16](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session16.html) | [Chapter 6: Decision Trees](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="27" t="str">
         <f>IF(Readings!F26="","",CONCATENATE("| [",Readings!A26,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A26,".html) | ",Readings!F26," |"))</f>
-        <v/>
+        <v>| [17](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session17.html) | [Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="27" t="str">
         <f>IF(Readings!F27="","",CONCATENATE("| [",Readings!A27,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A27,".html) | ",Readings!F27," |"))</f>
-        <v/>
+        <v>| [22](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session22.html) | [Chapter 10: Introduction to Artifical Neural Networks with Keras](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="27" t="str">
         <f>IF(Readings!F28="","",CONCATENATE("| [",Readings!A28,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A28,".html) | ",Readings!F28," |"))</f>
-        <v/>
+        <v>| [21](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session21.html) | [Chapter 11: Training Deep Neural Networks](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="27" t="str">
         <f>IF(Readings!F29="","",CONCATENATE("| [",Readings!A29,"](",Configuration!B$29,Configuration!B$28,"sessions/session",Readings!A29,".html) | ",Readings!F29," |"))</f>
-        <v/>
+        <v>| [22](/Welcome to Introduction to Machine Learning Applications. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.sessions/session22.html) | [Chapter 12: Custom Models and Training with Tensorflow](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/) |</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3922,17 +3906,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="51">
       <c r="A1" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4463,28 +4447,28 @@
   <sheetData>
     <row r="1" spans="1:1" s="27" customFormat="1" ht="51">
       <c r="A1" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.6">
       <c r="A2" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H3),"",CONCATENATE("| ",Schedule!H3," | [",Schedule!B3,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B3,".html) | ",TEXT(Schedule!D3+Configuration!$B$6, "mm/dd")," | ",Schedule!I3," | ",IF(ISBLANK(Schedule!U3),"*None*",Schedule!U3)," |"))</f>
-        <v>| 1 | [1](https://rpi.analyticsdojo.com/sessions/session1.html) | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/EK1NHY88) |</v>
+        <v>| 1 | [1](https://rpi.analyticsdojo.com/sessions/session1.html) | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  |  |</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4502,7 +4486,7 @@
     <row r="8" spans="1:1">
       <c r="A8" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H6),"",CONCATENATE("| ",Schedule!H6," | [",Schedule!B6,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B6,".html) | ",TEXT(Schedule!D6+Configuration!$B$6, "mm/dd")," | ",Schedule!I6," | ",IF(ISBLANK(Schedule!U6),"*None*",Schedule!U6)," |"))</f>
-        <v>| 2 | [3](https://rpi.analyticsdojo.com/sessions/session3.html) | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-02-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/db-AgYOF) |</v>
+        <v>| 2 | [3](https://rpi.analyticsdojo.com/sessions/session3.html) | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) |  |</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4514,7 +4498,7 @@
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B8,".html) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!U8),"*None*",Schedule!U8)," |"))</f>
-        <v>| 3 | [5](https://rpi.analyticsdojo.com/sessions/session5.html) | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-03-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/MB2XOI_J) |</v>
+        <v>| 3 | [5](https://rpi.analyticsdojo.com/sessions/session5.html) | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. |  |</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4526,7 +4510,7 @@
     <row r="12" spans="1:1">
       <c r="A12" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("| ",Schedule!H10," | [",Schedule!B10,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B10,".html) | ",TEXT(Schedule!D10+Configuration!$B$6, "mm/dd")," | ",Schedule!I10," | ",IF(ISBLANK(Schedule!U10),"*None*",Schedule!U10)," |"))</f>
-        <v>| 4 | [7](https://rpi.analyticsdojo.com/sessions/session7.html) | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-04-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/bf9sFwDx) |</v>
+        <v>| 4 | [7](https://rpi.analyticsdojo.com/sessions/session7.html) | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  |  |</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4538,7 +4522,7 @@
     <row r="14" spans="1:1">
       <c r="A14" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("| ",Schedule!H12," | [",Schedule!B12,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B12,".html) | ",TEXT(Schedule!D12+Configuration!$B$6, "mm/dd")," | ",Schedule!I12," | ",IF(ISBLANK(Schedule!U12),"*None*",Schedule!U12)," |"))</f>
-        <v>| 5 | [9](https://rpi.analyticsdojo.com/sessions/session9.html) | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github](https://classroom.github.com/a/N24-rhTA) |</v>
+        <v>| 5 | [9](https://rpi.analyticsdojo.com/sessions/session9.html) | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github]() |</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4550,7 +4534,7 @@
     <row r="16" spans="1:1">
       <c r="A16" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("| ",Schedule!H14," | [",Schedule!B14,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B14,".html) | ",TEXT(Schedule!D14+Configuration!$B$6, "mm/dd")," | ",Schedule!I14," | ",IF(ISBLANK(Schedule!U14),"*None*",Schedule!U14)," |"))</f>
-        <v>| 6 | [11](https://rpi.analyticsdojo.com/sessions/session11.html) | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](https://classroom.github.com/a/BXBW59HL) |</v>
+        <v>| 6 | [11](https://rpi.analyticsdojo.com/sessions/session11.html) | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  |  |</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4574,7 +4558,7 @@
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("| ",Schedule!H18," | [",Schedule!B18,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B18,".html) | ",TEXT(Schedule!D18+Configuration!$B$6, "mm/dd")," | ",Schedule!I18," | ",IF(ISBLANK(Schedule!U18),"*None*",Schedule!U18)," |"))</f>
-        <v>| 8 | [15](https://rpi.analyticsdojo.com/sessions/session15.html) | 03/12 | This is an assignment on unsupervised models.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github//blob/master/https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/assignments/pca.ipynb) | [Submit to Github](https://classroom.github.com/a/lcyTxTwv) |</v>
+        <v>| 8 | [15](https://rpi.analyticsdojo.com/sessions/session15.html) | 03/12 | This is an assignment on unsupervised models.  |  |</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4704,13 +4688,13 @@
     <row r="1" spans="1:7" ht="17">
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="409.6">
@@ -4720,7 +4704,7 @@
       </c>
       <c r="B2" s="18" t="str">
         <f t="shared" ref="B2:B49" si="0">IF(A2="","",IF(C2,CONCATENATE(D2,E2),CONCATENATE(D2,$F$2)))</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Course Overview &amp; Introduction to the Data Science Lifecycle&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Course Overview &amp; The Machine Learning Landscape&lt;/h1&gt;
 ---
 ### Coming Soon
 Session content is being updated. Please check back.</v>
@@ -4732,7 +4716,7 @@
       <c r="D2" s="3" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E3,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Course Overview &amp; Introduction to the Data Science Lifecycle&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Course Overview &amp; The Machine Learning Landscape&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E2" s="11" t="str">
@@ -4773,14 +4757,14 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/EK1NHY88) |</v>
+| 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  |  |</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:7" ht="356">
+    <row r="3" spans="1:7" ht="409.6">
       <c r="A3" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B4),"",CONCATENATE("session",Schedule!B4))</f>
         <v>session2</v>
@@ -4833,7 +4817,7 @@
 - Be able to save notebooks as gists and as part of github repositories. 
 ### Readings (and Tasks to Be Completed Before Class)
 ---
-[Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)
+[Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[Chapter 1: The Machine Learning Landscape](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
@@ -4841,7 +4825,7 @@
       </c>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="409.6">
+    <row r="4" spans="1:7" ht="356">
       <c r="A4" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B5),"",CONCATENATE("session",Schedule!B5))</f>
         <v/>
@@ -4955,7 +4939,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 2 | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-02-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/db-AgYOF) |</v>
+| 2 | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) |  |</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.6">
@@ -5009,7 +4993,7 @@
 *None*
 ### Readings (and Tasks to Be Completed Before Class)
 ---
-[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )&lt;br&gt;[Install Anaconda's Python (3.X)](https://www.anaconda.com/distribution/#download-section )
+[Chapter 2: End to End Machine Learning Project](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
@@ -5075,7 +5059,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 3 | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-03-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/MB2XOI_J) |</v>
+| 3 | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. |  |</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.6">
@@ -5195,7 +5179,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 4 | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-04-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/bf9sFwDx) |</v>
+| 4 | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  |  |</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="388">
@@ -5315,7 +5299,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github](https://classroom.github.com/a/N24-rhTA) |</v>
+| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github]() |</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="404">
@@ -5435,7 +5419,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 6 | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](https://classroom.github.com/a/BXBW59HL) |</v>
+| 6 | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  |  |</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="372">
@@ -5489,7 +5473,7 @@
 *None*
 ### Readings (and Tasks to Be Completed Before Class)
 ---
-[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud/project/232375)
+[Chapter 4: Training Models](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
@@ -5667,7 +5651,7 @@
 *None*
 ### Readings (and Tasks to Be Completed Before Class)
 ---
-[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)&lt;br&gt;[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1)
+[Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
@@ -5675,7 +5659,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 8 | 03/12 | This is an assignment on unsupervised models.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github//blob/master/https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/assignments/pca.ipynb) | [Submit to Github](https://classroom.github.com/a/lcyTxTwv) |</v>
+| 8 | 03/12 | This is an assignment on unsupervised models.  |  |</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="356">
@@ -5839,7 +5823,7 @@
 *None*
 ### Readings (and Tasks to Be Completed Before Class)
 ---
-[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)&lt;br&gt;[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1)
+[Chapter 6: Decision Trees](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
@@ -5897,7 +5881,7 @@
 *None*
 ### Readings (and Tasks to Be Completed Before Class)
 ---
-[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)&lt;br&gt;[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1)
+[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
@@ -5955,7 +5939,7 @@
 *None*
 ### Readings (and Tasks to Be Completed Before Class)
 ---
-[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)&lt;br&gt;[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1)
+[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
@@ -6013,7 +5997,7 @@
 *None*
 ### Readings (and Tasks to Be Completed Before Class)
 ---
-[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)&lt;br&gt;[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1)
+[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
@@ -7571,7 +7555,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="27" customFormat="1">
@@ -7579,12 +7563,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -7692,12 +7676,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG956"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7728,72 +7712,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="30" customFormat="1" ht="18.25" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="126" t="s">
+      <c r="B1" s="115" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124" t="s">
+      <c r="F1" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="124" t="s">
-        <v>201</v>
-      </c>
       <c r="P1" s="90"/>
-      <c r="Q1" s="130" t="s">
+      <c r="Q1" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="131" t="s">
+      <c r="S1" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="T1" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="V1" s="121" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="V1" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114" t="s">
+      <c r="Y1" s="121" t="s">
         <v>223</v>
       </c>
-      <c r="Y1" s="114" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="2" spans="1:59" s="30" customFormat="1" ht="21" thickBot="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="116"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
@@ -7807,33 +7791,33 @@
         <v>7</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K2" s="85" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="M2" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
+        <v>297</v>
+      </c>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
+        <v>12</v>
+      </c>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
       <c r="Z2" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="85">
@@ -7844,35 +7828,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="42">
         <v>43843</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>11</v>
+      <c r="E3" s="56" t="s">
+        <v>455</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H3" s="39">
         <v>1</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="L3" s="91" t="s">
-        <v>301</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>254</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="L3" s="91"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="36" t="b">
         <v>0</v>
       </c>
@@ -7896,11 +7873,11 @@
       </c>
       <c r="T3" s="52" t="str">
         <f t="shared" ref="T3" si="0">CONCATENATE("**",TRIM(E3),"** &lt;br&gt; ", R3, S3)</f>
-        <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session1.html) &lt;br&gt; *Assignment 1 due 01/20 11:59 PM* &lt;br&gt;</v>
+        <v>**Course Overview &amp; The Machine Learning Landscape** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session1.html) &lt;br&gt; *Assignment 1 due 01/20 11:59 PM* &lt;br&gt;</v>
       </c>
       <c r="U3" s="52" t="str">
         <f>IF(ISBLANK(M3),"",CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/",K3,"/blob/master/",L3,") | [Submit to Github](",M3,")"))</f>
-        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/EK1NHY88)</v>
+        <v/>
       </c>
       <c r="V3" s="52" t="str">
         <f>IF(ISBLANK(B3),"",CONCATENATE("  - title: Session ",B3,"
@@ -7950,13 +7927,13 @@
         <v>43846</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
@@ -8032,14 +8009,14 @@
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="42">
         <f>D3+7</f>
         <v>43850</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="47"/>
@@ -8115,26 +8092,17 @@
         <v>43853</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="39">
         <v>2</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="N6" s="36" t="b">
         <v>0</v>
@@ -8163,7 +8131,7 @@
       </c>
       <c r="U6" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-02-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/db-AgYOF)</v>
+        <v/>
       </c>
       <c r="V6" s="52" t="str">
         <f t="shared" si="4"/>
@@ -8206,21 +8174,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="40">
-        <f t="shared" ref="B6:B34" si="9">B6+1</f>
+        <f t="shared" ref="B7:B34" si="9">B6+1</f>
         <v>4</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="42">
         <f>D5+7</f>
         <v>43857</v>
       </c>
       <c r="E7" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>97</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>98</v>
       </c>
       <c r="G7" s="49"/>
       <c r="N7" s="56" t="b">
@@ -8316,7 +8284,7 @@
     </row>
     <row r="8" spans="1:59" ht="85">
       <c r="A8" s="39">
-        <f t="shared" ref="A8:A13" si="17">A6+1</f>
+        <f t="shared" ref="A8:A12" si="17">A6+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="40">
@@ -8331,27 +8299,19 @@
         <v>43860</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="39">
         <v>3</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="M8" s="62" t="s">
-        <v>340</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M8" s="62"/>
       <c r="N8" s="36" t="b">
         <v>0</v>
       </c>
@@ -8379,7 +8339,7 @@
       </c>
       <c r="U8" s="52" t="str">
         <f t="shared" si="12"/>
-        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-03-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/MB2XOI_J)</v>
+        <v/>
       </c>
       <c r="V8" s="52" t="str">
         <f t="shared" si="13"/>
@@ -8454,17 +8414,17 @@
         <v>6</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="42">
         <f>D7+7</f>
         <v>43864</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G9" s="43"/>
       <c r="N9" s="36" t="b">
@@ -8578,27 +8538,20 @@
         <v>43867</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="39">
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="K10" s="91" t="s">
-        <v>355</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="M10" s="62" t="s">
-        <v>354</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="K10" s="91"/>
+      <c r="M10" s="62"/>
       <c r="N10" s="36" t="b">
         <v>0</v>
       </c>
@@ -8626,7 +8579,7 @@
       </c>
       <c r="U10" s="52" t="str">
         <f>IF(ISBLANK(M10),"",CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/",K10,"/blob/master/",L10,") | [Submit to Github](",M10,")"))</f>
-        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-04-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/bf9sFwDx)</v>
+        <v/>
       </c>
       <c r="V10" s="52" t="str">
         <f t="shared" si="13"/>
@@ -8710,17 +8663,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="42">
         <f>D9+7</f>
         <v>43871</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="43"/>
       <c r="N11" s="36" t="b">
@@ -8865,23 +8818,20 @@
         <v>43874</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="39">
         <v>5</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="N12" s="36" t="b">
         <v>0</v>
@@ -8910,7 +8860,7 @@
       </c>
       <c r="U12" s="52" t="str">
         <f>CONCATENATE(Notebooks!G21, " | [Submit to Github](",M12,")")</f>
-        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github](https://classroom.github.com/a/N24-rhTA)</v>
+        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github]()</v>
       </c>
       <c r="V12" s="52" t="str">
         <f t="shared" si="21"/>
@@ -9018,16 +8968,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="42">
         <v>43879</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="43"/>
       <c r="N13" s="36" t="b">
@@ -9174,20 +9124,17 @@
         <v>43882</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="39">
         <v>6</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="N14" s="36" t="b">
         <v>0</v>
@@ -9216,7 +9163,7 @@
       </c>
       <c r="U14" s="52" t="str">
         <f>IF(ISBLANK(M14),"",CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](",M14,")"))</f>
-        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](https://classroom.github.com/a/BXBW59HL)</v>
+        <v/>
       </c>
       <c r="V14" s="52" t="str">
         <f t="shared" si="21"/>
@@ -9334,16 +9281,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="42">
         <v>43885</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="49"/>
       <c r="N15" s="36" t="b">
@@ -9499,10 +9446,10 @@
         <v>43888</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="43"/>
       <c r="N16" s="36" t="b">
@@ -9655,24 +9602,24 @@
         <v>14</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="42">
-        <f t="shared" ref="D8:D33" si="25">D15+7</f>
+        <f t="shared" ref="D17:D33" si="25">D15+7</f>
         <v>43892</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="39">
         <v>7</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="N17" s="36" t="b">
         <v>0</v>
@@ -9837,24 +9784,19 @@
         <v>43895</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="39">
         <v>8</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="L18" s="93" t="s">
-        <v>404</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>403</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="L18" s="93"/>
       <c r="N18" s="36" t="b">
         <v>1</v>
       </c>
@@ -9882,7 +9824,7 @@
       </c>
       <c r="U18" s="52" t="str">
         <f t="shared" si="20"/>
-        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github//blob/master/https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/assignments/pca.ipynb) | [Submit to Github](https://classroom.github.com/a/lcyTxTwv)</v>
+        <v/>
       </c>
       <c r="V18" s="52" t="str">
         <f t="shared" si="21"/>
@@ -10015,14 +9957,14 @@
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="42">
         <f t="shared" si="25"/>
         <v>43899</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="43"/>
@@ -10185,7 +10127,7 @@
         <v>43902</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="49"/>
@@ -10344,17 +10286,17 @@
         <v>16</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="42">
         <f t="shared" si="25"/>
         <v>43906</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="G21" s="49"/>
       <c r="N21" s="36" t="b">
@@ -10529,10 +10471,10 @@
         <v>43909</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="43"/>
       <c r="N22" s="36" t="b">
@@ -10703,17 +10645,17 @@
         <v>18</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="42">
         <f t="shared" si="25"/>
         <v>43913</v>
       </c>
       <c r="E23" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="43"/>
       <c r="N23" s="36" t="b">
@@ -10894,10 +10836,10 @@
         <v>43916</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="43"/>
       <c r="N24" s="36" t="b">
@@ -11074,17 +11016,17 @@
         <v>20</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="42">
         <f t="shared" si="25"/>
         <v>43920</v>
       </c>
       <c r="E25" s="78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" s="49"/>
       <c r="N25" s="36" t="b">
@@ -11271,10 +11213,10 @@
         <v>43923</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G26" s="50"/>
       <c r="N26" s="36" t="b">
@@ -11457,17 +11399,17 @@
         <v>22</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="42">
         <f t="shared" si="25"/>
         <v>43927</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="49"/>
       <c r="N27" s="36" t="b">
@@ -11660,10 +11602,10 @@
         <v>43930</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" s="43"/>
       <c r="N28" s="36" t="b">
@@ -11852,17 +11794,17 @@
         <v>24</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="42">
         <f t="shared" si="25"/>
         <v>43934</v>
       </c>
       <c r="E29" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="G29" s="43"/>
       <c r="N29" s="36" t="b">
@@ -12061,7 +12003,7 @@
         <v>43937</v>
       </c>
       <c r="E30" s="79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -12257,17 +12199,17 @@
         <v>26</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="42">
         <f t="shared" si="25"/>
         <v>43941</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" s="43"/>
       <c r="N31" s="36" t="b">
@@ -12472,7 +12414,7 @@
         <v>43944</v>
       </c>
       <c r="E32" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
@@ -12673,14 +12615,14 @@
         <v>28</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="42">
         <f t="shared" si="25"/>
         <v>43948</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
@@ -12885,10 +12827,10 @@
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="42" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -32156,11 +32098,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -32168,18 +32111,14 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{95269B71-2970-C548-A631-61EA1ACD63D4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32188,9 +32127,9 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:HAO2"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -32206,7 +32145,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="19">
       <c r="A1" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>6</v>
@@ -32215,13 +32154,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="F1" s="88" t="s">
         <v>215</v>
-      </c>
-      <c r="F1" s="88" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
@@ -32229,10 +32168,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" s="52" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -32252,10 +32191,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D3" s="52" t="str">
         <f t="shared" si="0"/>
@@ -32275,10 +32214,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" si="0"/>
@@ -32298,10 +32237,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -32316,69 +32255,69 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17">
+    <row r="6" spans="1:6" ht="34">
       <c r="A6" s="32">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>282</v>
+        <v>466</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" ref="D6:D50" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
-        <v>[The Unix Shell](http://swcarpentry.github.io/shell-novice/)</v>
+        <v>[Chapter 1: The Machine Learning Landscape](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E6" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[The Unix Shell](http://swcarpentry.github.io/shell-novice/)</v>
+        <v>[Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[Chapter 1: The Machine Learning Landscape](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F6" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[Chapter 1: The Machine Learning Landscape](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)</v>
+        <v>[The Unix Shell](http://swcarpentry.github.io/shell-novice/)</v>
       </c>
       <c r="E7" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)</v>
+        <v>[The Unix Shell](http://swcarpentry.github.io/shell-novice/)</v>
       </c>
       <c r="F7" s="52" t="str">
         <f t="shared" si="2"/>
-        <v>[Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>290</v>
+        <v>176</v>
       </c>
       <c r="D8" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)</v>
+        <v>[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)</v>
       </c>
       <c r="E8" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)</v>
+        <v>[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)</v>
       </c>
       <c r="F8" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32387,113 +32326,113 @@
     </row>
     <row r="9" spans="1:6" ht="34">
       <c r="A9" s="32">
-        <v>4</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>292</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>286</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )</v>
+        <v>[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)</v>
       </c>
       <c r="E9" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )</v>
+        <v>[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)</v>
       </c>
       <c r="F9" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17">
+    <row r="10" spans="1:6" ht="34">
       <c r="A10" s="32">
-        <v>4</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>312</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>286</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[Install Anaconda's Python (3.X)](https://www.anaconda.com/distribution/#download-section )</v>
+        <v>[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)</v>
       </c>
       <c r="E10" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )&lt;br&gt;[Install Anaconda's Python (3.X)](https://www.anaconda.com/distribution/#download-section )</v>
+        <v>[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)</v>
       </c>
       <c r="F10" s="52" t="str">
         <f t="shared" si="2"/>
-        <v>[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )&lt;br&gt;[Install Anaconda's Python (3.X)](https://www.anaconda.com/distribution/#download-section )</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34">
       <c r="A11" s="32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)</v>
+        <v>[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )</v>
       </c>
       <c r="E11" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)</v>
+        <v>[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )</v>
       </c>
       <c r="F11" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17">
+        <v>[The Unix Shell](http://swcarpentry.github.io/shell-novice/)&lt;br&gt;[Command Line Cheat Sheet](https://www.git-tower.com/blog/command-line-cheat-sheet/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[The Hitchhikers Guide to Python - Code Style](https://docs.python-guide.org/writing/style/)&lt;br&gt;[Getting Started with Python Environments](https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 )</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34">
       <c r="A12" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>328</v>
+        <v>457</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)</v>
+        <v>[Chapter 2: End to End Machine Learning Project](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E12" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)</v>
+        <v>[Chapter 2: End to End Machine Learning Project](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F12" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34">
+        <v>[Chapter 2: End to End Machine Learning Project](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)</v>
+        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)</v>
       </c>
       <c r="E13" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)</v>
+        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)</v>
       </c>
       <c r="F13" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32502,44 +32441,44 @@
     </row>
     <row r="14" spans="1:6" ht="17">
       <c r="A14" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)</v>
+        <v>[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)</v>
       </c>
       <c r="E14" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)</v>
+        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)</v>
       </c>
       <c r="F14" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17">
+    <row r="15" spans="1:6" ht="34">
       <c r="A15" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)</v>
+        <v>[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)</v>
       </c>
       <c r="E15" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)</v>
+        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)</v>
       </c>
       <c r="F15" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32548,136 +32487,134 @@
     </row>
     <row r="16" spans="1:6" ht="17">
       <c r="A16" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285)</v>
+        <v>[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)</v>
       </c>
       <c r="E16" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)&lt;br&gt;[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285)</v>
+        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)</v>
       </c>
       <c r="F16" s="52" t="str">
         <f t="shared" si="2"/>
-        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)&lt;br&gt;[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="34">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17">
       <c r="A17" s="32">
-        <v>8</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>275</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>326</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[Hands-On Machine Learning (Chapter 1. The Machine Learning Landscape)](https://ebookcentral-proquest-com.libproxy.rpi.edu/lib/rpi/detail.action?docID=4822582)</v>
+        <v>[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)</v>
       </c>
       <c r="E17" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[Hands-On Machine Learning (Chapter 1. The Machine Learning Landscape)](https://ebookcentral-proquest-com.libproxy.rpi.edu/lib/rpi/detail.action?docID=4822582)</v>
+        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)</v>
       </c>
       <c r="F17" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34">
+    <row r="18" spans="1:6" ht="17">
       <c r="A18" s="32">
-        <v>8</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>351</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>327</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[Under and Overfitting in Machine Learning](https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76)</v>
+        <v>[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285)</v>
       </c>
       <c r="E18" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[Hands-On Machine Learning (Chapter 1. The Machine Learning Landscape)](https://ebookcentral-proquest-com.libproxy.rpi.edu/lib/rpi/detail.action?docID=4822582)&lt;br&gt;[Under and Overfitting in Machine Learning](https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76)</v>
+        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)&lt;br&gt;[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285)</v>
       </c>
       <c r="F18" s="52" t="str">
         <f t="shared" si="2"/>
-        <v>[Hands-On Machine Learning (Chapter 1. The Machine Learning Landscape)](https://ebookcentral-proquest-com.libproxy.rpi.edu/lib/rpi/detail.action?docID=4822582)&lt;br&gt;[Under and Overfitting in Machine Learning](https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51">
+        <v>[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)&lt;br&gt;[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17">
       <c r="A19" s="32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>178</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C19" s="82"/>
       <c r="D19" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)</v>
+        <v>[Chapter 3: Classifiication]()</v>
       </c>
       <c r="E19" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)</v>
+        <v>[Chapter 3: Classifiication]()</v>
       </c>
       <c r="F19" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="34">
       <c r="A20" s="32">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>394</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>338</v>
       </c>
       <c r="D20" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[RStudio Cloud](https://rstudio.cloud/project/232375)</v>
+        <v>[Under and Overfitting in Machine Learning](https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76)</v>
       </c>
       <c r="E20" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud/project/232375)</v>
+        <v>[Chapter 3: Classifiication]()&lt;br&gt;[Under and Overfitting in Machine Learning](https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76)</v>
       </c>
       <c r="F20" s="52" t="str">
         <f t="shared" si="2"/>
-        <v>[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud/project/232375)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>[Chapter 3: Classifiication]()&lt;br&gt;[Under and Overfitting in Machine Learning](https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="32">
-        <v>14</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>398</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>368</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>399</v>
+        <v>177</v>
       </c>
       <c r="D21" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)</v>
+        <v>[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)</v>
       </c>
       <c r="E21" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)</v>
+        <v>[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)</v>
       </c>
       <c r="F21" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32686,124 +32623,186 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="32">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>401</v>
+        <v>178</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D22" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1)</v>
+        <v>[RStudio Cloud](https://rstudio.cloud/project/232375)</v>
       </c>
       <c r="E22" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)&lt;br&gt;[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1)</v>
+        <v>[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud/project/232375)</v>
       </c>
       <c r="F22" s="52" t="str">
         <f t="shared" si="2"/>
-        <v>[PCA - Visually](http://setosa.io/ev/principal-component-analysis/)&lt;br&gt;[t-SNE](https://towardsdatascience.com/an-introduction-to-t-sne-with-python-example-5a3a293108d1)</v>
+        <v>[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud/project/232375)</v>
       </c>
     </row>
     <row r="23" spans="1:6">
+      <c r="A23" s="32">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>466</v>
+      </c>
       <c r="D23" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[]()</v>
+        <v>[Chapter 4: Training Models](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E23" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()</v>
+        <v>[Chapter 4: Training Models](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F23" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[Chapter 4: Training Models](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
     </row>
     <row r="24" spans="1:6">
+      <c r="A24" s="32">
+        <v>14</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>466</v>
+      </c>
       <c r="D24" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[]()</v>
+        <v>[Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E24" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()</v>
+        <v>[Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F24" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="9"/>
+      <c r="A25" s="32">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>466</v>
+      </c>
       <c r="D25" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[]()</v>
+        <v>[Chapter 6: Decision Trees](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E25" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[Chapter 6: Decision Trees](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F25" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[Chapter 6: Decision Trees](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
     </row>
     <row r="26" spans="1:6">
+      <c r="A26" s="32">
+        <v>17</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>466</v>
+      </c>
       <c r="D26" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[]()</v>
+        <v>[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E26" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F26" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
     </row>
     <row r="27" spans="1:6">
+      <c r="A27" s="32">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>466</v>
+      </c>
       <c r="D27" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[]()</v>
+        <v>[Chapter 10: Introduction to Artifical Neural Networks with Keras](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E27" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[Chapter 10: Introduction to Artifical Neural Networks with Keras](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F27" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[Chapter 10: Introduction to Artifical Neural Networks with Keras](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
     </row>
     <row r="28" spans="1:6">
+      <c r="A28" s="32">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>466</v>
+      </c>
       <c r="D28" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[]()</v>
+        <v>[Chapter 11: Training Deep Neural Networks](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E28" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[Chapter 11: Training Deep Neural Networks](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F28" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[Chapter 11: Training Deep Neural Networks](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
     </row>
     <row r="29" spans="1:6">
+      <c r="A29" s="32">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>466</v>
+      </c>
       <c r="D29" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>[]()</v>
+        <v>[Chapter 12: Custom Models and Training with Tensorflow](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="E29" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[Chapter 12: Custom Models and Training with Tensorflow](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
       <c r="F29" s="52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>[Chapter 12: Custom Models and Training with Tensorflow](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -32813,7 +32812,7 @@
       </c>
       <c r="E30" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()</v>
       </c>
       <c r="F30" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32827,7 +32826,7 @@
       </c>
       <c r="E31" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F31" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32841,7 +32840,7 @@
       </c>
       <c r="E32" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F32" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32855,7 +32854,7 @@
       </c>
       <c r="E33" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F33" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32869,7 +32868,7 @@
       </c>
       <c r="E34" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F34" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32883,7 +32882,7 @@
       </c>
       <c r="E35" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F35" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32897,7 +32896,7 @@
       </c>
       <c r="E36" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F36" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32911,7 +32910,7 @@
       </c>
       <c r="E37" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F37" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32925,7 +32924,7 @@
       </c>
       <c r="E38" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F38" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32939,7 +32938,7 @@
       </c>
       <c r="E39" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F39" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32953,7 +32952,7 @@
       </c>
       <c r="E40" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F40" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32967,7 +32966,7 @@
       </c>
       <c r="E41" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F41" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32981,7 +32980,7 @@
       </c>
       <c r="E42" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F42" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32995,7 +32994,7 @@
       </c>
       <c r="E43" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F43" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33009,7 +33008,7 @@
       </c>
       <c r="E44" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F44" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33023,7 +33022,7 @@
       </c>
       <c r="E45" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F45" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33037,7 +33036,7 @@
       </c>
       <c r="E46" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F46" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33051,7 +33050,7 @@
       </c>
       <c r="E47" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F47" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33065,7 +33064,7 @@
       </c>
       <c r="E48" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F48" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33079,7 +33078,7 @@
       </c>
       <c r="E49" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F49" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33093,7 +33092,7 @@
       </c>
       <c r="E50" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
+        <v>[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()&lt;br&gt;[]()</v>
       </c>
       <c r="F50" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33102,14 +33101,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{B2420837-BA03-CF46-AEC5-3FA995E0241F}"/>
-    <hyperlink ref="C18" r:id="rId2" xr:uid="{73A6F7C1-C6B5-4948-8A64-E1CE83E8BE1B}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{828E3AFF-3A8A-A04A-8230-8888B9819904}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{3EE45B94-5746-074B-A64D-FB71E938B94D}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{0324CA14-F87A-0A4F-819C-46C98AA753F1}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{94E51639-CEB3-0549-A003-A1BBB295DE50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33140,36 +33135,36 @@
   <sheetData>
     <row r="1" spans="1:21" s="30" customFormat="1" ht="19">
       <c r="A1" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>164</v>
-      </c>
       <c r="C1" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>207</v>
-      </c>
       <c r="E1" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>215</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>216</v>
       </c>
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
       <c r="J1" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="L1" s="74" t="s">
         <v>233</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="34">
@@ -33177,10 +33172,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" s="87" t="str">
         <f>IF(ISBLANK(C2),"",CONCATENATE(Configuration!$B$31,Notebooks!C2,".ipynb"))</f>
@@ -33231,7 +33226,7 @@
       </c>
       <c r="N2" s="26"/>
       <c r="U2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="34">
@@ -33239,10 +33234,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D3" s="87" t="str">
         <f>IF(ISBLANK(C3),"",CONCATENATE(Configuration!$B$31,Notebooks!C3,".ipynb"))</f>
@@ -33301,10 +33296,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" s="87" t="str">
         <f>IF(ISBLANK(C4),"",CONCATENATE(Configuration!$B$31,Notebooks!C4,".ipynb"))</f>
@@ -33364,10 +33359,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="87" t="str">
         <f>IF(ISBLANK(C5),"",CONCATENATE(Configuration!$B$31,Notebooks!C5,".ipynb"))</f>
@@ -33435,10 +33430,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D6" s="87" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE(Configuration!$B$31,Notebooks!C6,".ipynb"))</f>
@@ -33503,10 +33498,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D7" s="87" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE(Configuration!$B$31,Notebooks!C7,".ipynb"))</f>
@@ -33574,10 +33569,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D8" s="87" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE(Configuration!$B$31,Notebooks!C8,".ipynb"))</f>
@@ -33649,10 +33644,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D9" s="87" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE(Configuration!$B$31,Notebooks!C9,".ipynb"))</f>
@@ -33728,10 +33723,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D10" s="87" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE(Configuration!$B$31,Notebooks!C10,".ipynb"))</f>
@@ -33816,10 +33811,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D11" s="87" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE(Configuration!$B$31,Notebooks!C11,".ipynb"))</f>
@@ -33898,10 +33893,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D12" s="87" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE(Configuration!$B$31,Notebooks!C12,".ipynb"))</f>
@@ -33984,10 +33979,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D13" s="87" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE(Configuration!$B$31,Notebooks!C13,".ipynb"))</f>
@@ -34074,10 +34069,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D14" s="87" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE(Configuration!$B$31,Notebooks!C14,".ipynb"))</f>
@@ -34168,10 +34163,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D15" s="87" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE(Configuration!$B$31,Notebooks!C15,".ipynb"))</f>
@@ -34266,10 +34261,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D16" s="87" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE(Configuration!$B$31,Notebooks!C16,".ipynb"))</f>
@@ -34374,10 +34369,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D17" s="87" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE(Configuration!$B$31,Notebooks!C17,".ipynb"))</f>
@@ -34474,10 +34469,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D18" s="87" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE(Configuration!$B$31,Notebooks!C18,".ipynb"))</f>
@@ -34578,10 +34573,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D19" s="87" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE(Configuration!$B$31,Notebooks!C19,".ipynb"))</f>
@@ -34686,10 +34681,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D20" s="87" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE(Configuration!$B$31,Notebooks!C20,".ipynb"))</f>
@@ -34802,10 +34797,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D21" s="87" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE(Configuration!$B$31,Notebooks!C21,".ipynb"))</f>
@@ -34915,13 +34910,13 @@
         <v>10</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E22" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35029,13 +35024,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E23" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35147,13 +35142,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E24" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35269,13 +35264,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E25" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35395,13 +35390,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E26" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35525,13 +35520,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E27" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35659,13 +35654,13 @@
         <v>10</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E28" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35797,13 +35792,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E29" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35939,13 +35934,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E30" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36094,10 +36089,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D31" s="87" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE(Configuration!$B$31,Notebooks!C31,".ipynb"))</f>
@@ -36257,10 +36252,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D32" s="87" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE(Configuration!$B$31,Notebooks!C32,".ipynb"))</f>
@@ -36421,10 +36416,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D33" s="87" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE(Configuration!$B$31,Notebooks!C33,".ipynb"))</f>
@@ -36589,10 +36584,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D34" s="87" t="str">
         <f>IF(ISBLANK(C34),"",CONCATENATE(Configuration!$B$31,Notebooks!C34,".ipynb"))</f>
@@ -36765,10 +36760,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D35" s="87" t="str">
         <f>IF(ISBLANK(C35),"",CONCATENATE(Configuration!$B$31,Notebooks!C35,".ipynb"))</f>
@@ -36937,10 +36932,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D36" s="87" t="str">
         <f>IF(ISBLANK(C36),"",CONCATENATE(Configuration!$B$31,Notebooks!C36,".ipynb"))</f>
@@ -37113,10 +37108,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="D37" s="87" t="str">
         <f>IF(ISBLANK(C37),"",CONCATENATE(Configuration!$B$31,Notebooks!C37,".ipynb"))</f>
@@ -37293,10 +37288,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D38" s="87" t="str">
         <f>IF(ISBLANK(C38),"",CONCATENATE(Configuration!$B$31,Notebooks!C38,".ipynb"))</f>
@@ -37481,10 +37476,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="D39" s="87" t="str">
         <f>IF(ISBLANK(C39),"",CONCATENATE(Configuration!$B$31,Notebooks!C39,".ipynb"))</f>
@@ -37665,10 +37660,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D40" s="87" t="str">
         <f>IF(ISBLANK(C40),"",CONCATENATE(Configuration!$B$31,Notebooks!C40,".ipynb"))</f>
@@ -37853,10 +37848,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="D41" s="87" t="str">
         <f>IF(ISBLANK(C41),"",CONCATENATE(Configuration!$B$31,Notebooks!C41,".ipynb"))</f>
@@ -38045,10 +38040,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D42" s="87" t="str">
         <f>IF(ISBLANK(C42),"",CONCATENATE(Configuration!$B$31,Notebooks!C42,".ipynb"))</f>
@@ -38241,10 +38236,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="D43" s="87" t="str">
         <f>IF(ISBLANK(C43),"",CONCATENATE(Configuration!$B$31,Notebooks!C43,".ipynb"))</f>
@@ -38441,10 +38436,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D44" s="87" t="str">
         <f>IF(ISBLANK(C44),"",CONCATENATE(Configuration!$B$31,Notebooks!C44,".ipynb"))</f>
@@ -38645,10 +38640,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(ISBLANK(C45),"",CONCATENATE(Configuration!$B$31,Notebooks!C45,".ipynb"))</f>
@@ -38853,10 +38848,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="D46" s="87" t="str">
         <f>IF(ISBLANK(C46),"",CONCATENATE(Configuration!$B$31,Notebooks!C46,".ipynb"))</f>
@@ -39073,10 +39068,10 @@
         <v>18</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="D47" s="87" t="str">
         <f>IF(ISBLANK(C47),"",CONCATENATE(Configuration!$B$31,Notebooks!C47,".ipynb"))</f>
@@ -39281,10 +39276,10 @@
         <v>18</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="D48" s="87" t="str">
         <f>IF(ISBLANK(C48),"",CONCATENATE(Configuration!$B$31,Notebooks!C48,".ipynb"))</f>
@@ -39493,10 +39488,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="D49" s="87" t="str">
         <f>IF(ISBLANK(C49),"",CONCATENATE(Configuration!$B$31,Notebooks!C49,".ipynb"))</f>
@@ -39709,10 +39704,10 @@
         <v>18</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="D50" s="87" t="str">
         <f>IF(ISBLANK(C50),"",CONCATENATE(Configuration!$B$31,Notebooks!C50,".ipynb"))</f>
@@ -39933,10 +39928,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="D51" s="87" t="str">
         <f>IF(ISBLANK(C51),"",CONCATENATE(Configuration!$B$31,Notebooks!C51,".ipynb"))</f>
@@ -40153,10 +40148,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="D52" s="87" t="str">
         <f>IF(ISBLANK(C52),"",CONCATENATE(Configuration!$B$31,Notebooks!C52,".ipynb"))</f>
@@ -40377,10 +40372,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="D53" s="87" t="str">
         <f>IF(ISBLANK(C53),"",CONCATENATE(Configuration!$B$31,Notebooks!C53,".ipynb"))</f>
@@ -40605,10 +40600,10 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D54" s="87" t="str">
         <f>IF(ISBLANK(C54),"",CONCATENATE(Configuration!$B$31,Notebooks!C54,".ipynb"))</f>
@@ -40837,10 +40832,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="D55" s="87" t="str">
         <f>IF(ISBLANK(C55),"",CONCATENATE(Configuration!$B$31,Notebooks!C55,".ipynb"))</f>
@@ -41073,10 +41068,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D56" s="87" t="str">
         <f>IF(ISBLANK(C56),"",CONCATENATE(Configuration!$B$31,Notebooks!C56,".ipynb"))</f>
@@ -41313,10 +41308,10 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="D57" s="87" t="str">
         <f>IF(ISBLANK(C57),"",CONCATENATE(Configuration!$B$31,Notebooks!C57,".ipynb"))</f>
@@ -41557,10 +41552,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="D58" s="87" t="str">
         <f>IF(ISBLANK(C58),"",CONCATENATE(Configuration!$B$31,Notebooks!C58,".ipynb"))</f>
@@ -41805,10 +41800,10 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="D59" s="87" t="str">
         <f>IF(ISBLANK(C59),"",CONCATENATE(Configuration!$B$31,Notebooks!C59,".ipynb"))</f>
@@ -42066,10 +42061,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="D60" s="87" t="str">
         <f>IF(ISBLANK(C60),"",CONCATENATE(Configuration!$B$31,Notebooks!C60,".ipynb"))</f>
@@ -42313,10 +42308,10 @@
         <v>22</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="D61" s="87" t="str">
         <f>IF(ISBLANK(C61),"",CONCATENATE(Configuration!$B$31,Notebooks!C61,".ipynb"))</f>
@@ -42564,10 +42559,10 @@
         <v>22</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C62" s="94" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="D62" s="87" t="str">
         <f>IF(ISBLANK(C62),"",CONCATENATE(Configuration!$B$31,Notebooks!C62,".ipynb"))</f>
@@ -42819,10 +42814,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="D63" s="87" t="str">
         <f>IF(ISBLANK(C63),"",CONCATENATE(Configuration!$B$31,Notebooks!C63,".ipynb"))</f>
@@ -43078,10 +43073,10 @@
         <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D64" s="87" t="str">
         <f>IF(ISBLANK(C64),"",CONCATENATE(Configuration!$B$31,Notebooks!C64,".ipynb"))</f>
@@ -43341,10 +43336,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="D65" s="87" t="str">
         <f>IF(ISBLANK(C65),"",CONCATENATE(Configuration!$B$31,Notebooks!C65,".ipynb"))</f>
@@ -43608,10 +43603,10 @@
         <v>22</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="D66" s="87" t="str">
         <f>IF(ISBLANK(C66),"",CONCATENATE(Configuration!$B$31,Notebooks!C66,".ipynb"))</f>
@@ -51916,7 +51911,7 @@
         <v>43703</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
@@ -51924,7 +51919,7 @@
         <v>43705</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
@@ -51932,7 +51927,7 @@
         <v>43706</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
@@ -51940,21 +51935,21 @@
         <v>43707</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="132">
+      <c r="A5" s="133">
         <v>43709</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="134"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6">
         <v>43710</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
@@ -51962,7 +51957,7 @@
         <v>43711</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
@@ -51970,7 +51965,7 @@
         <v>43721</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
@@ -51978,29 +51973,29 @@
         <v>43728</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="132">
+      <c r="A11" s="133">
         <v>43739</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="134"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6">
         <v>43752</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
@@ -52008,15 +52003,15 @@
         <v>43753</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
@@ -52024,15 +52019,15 @@
         <v>43757</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
@@ -52040,21 +52035,21 @@
         <v>43763</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="132">
+      <c r="A18" s="133">
         <v>43770</v>
       </c>
-      <c r="B18" s="133"/>
+      <c r="B18" s="134"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
@@ -52062,15 +52057,15 @@
         <v>43770</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
@@ -52078,7 +52073,7 @@
         <v>43777</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
@@ -52086,7 +52081,7 @@
         <v>43787</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -52094,7 +52089,7 @@
         <v>43791</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
@@ -52102,29 +52097,29 @@
         <v>43795</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="132">
+      <c r="A27" s="133">
         <v>43800</v>
       </c>
-      <c r="B27" s="133"/>
+      <c r="B27" s="134"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="6">
         <v>43800</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
@@ -52132,7 +52127,7 @@
         <v>43801</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
@@ -52140,7 +52135,7 @@
         <v>43801</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
@@ -52148,15 +52143,15 @@
         <v>43810</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
@@ -52164,15 +52159,15 @@
         <v>43815</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
@@ -52180,15 +52175,15 @@
         <v>43820</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
@@ -52196,21 +52191,21 @@
         <v>43830</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="132">
+      <c r="A38" s="133">
         <v>43831</v>
       </c>
-      <c r="B38" s="133"/>
+      <c r="B38" s="134"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
@@ -52218,7 +52213,7 @@
         <v>43833</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
@@ -52226,7 +52221,7 @@
         <v>43842</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
@@ -52234,7 +52229,7 @@
         <v>43843</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
@@ -52242,7 +52237,7 @@
         <v>43850</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
@@ -52250,21 +52245,21 @@
         <v>43854</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="132">
+      <c r="A45" s="133">
         <v>43862</v>
       </c>
-      <c r="B45" s="133"/>
+      <c r="B45" s="134"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="6">
         <v>43868</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
@@ -52272,7 +52267,7 @@
         <v>43878</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
@@ -52280,29 +52275,29 @@
         <v>43879</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="132">
+      <c r="A49" s="133">
         <v>43891</v>
       </c>
-      <c r="B49" s="133"/>
+      <c r="B49" s="134"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="6">
         <v>43892</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
@@ -52310,15 +52305,15 @@
         <v>43896</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
@@ -52326,7 +52321,7 @@
         <v>43905</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
@@ -52334,15 +52329,15 @@
         <v>43906</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
@@ -52350,7 +52345,7 @@
         <v>43915</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
@@ -52358,21 +52353,21 @@
         <v>43917</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="132">
+      <c r="A59" s="133">
         <v>43922</v>
       </c>
-      <c r="B59" s="133"/>
+      <c r="B59" s="134"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="6">
         <v>43931</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
@@ -52380,7 +52375,7 @@
         <v>43945</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
@@ -52388,15 +52383,15 @@
         <v>43950</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
@@ -52404,21 +52399,21 @@
         <v>43951</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="132">
+      <c r="A65" s="133">
         <v>43952</v>
       </c>
-      <c r="B65" s="133"/>
+      <c r="B65" s="134"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
@@ -52426,15 +52421,15 @@
         <v>43955</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1">
@@ -52442,7 +52437,7 @@
         <v>43955</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1">
@@ -52450,7 +52445,7 @@
         <v>43959</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1">
@@ -52458,7 +52453,7 @@
         <v>43960</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1">
@@ -52466,7 +52461,7 @@
         <v>43973</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
@@ -52474,7 +52469,7 @@
         <v>43974</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
@@ -52482,7 +52477,7 @@
         <v>43974</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1"/>
@@ -53510,17 +53505,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="120" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="120" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="27" customFormat="1" ht="120" customHeight="1">
@@ -53619,7 +53614,7 @@
     </row>
     <row r="5" spans="1:1" ht="120" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="27" customFormat="1" ht="120" customHeight="1">
@@ -53826,7 +53821,7 @@
     </row>
     <row r="7" spans="1:1" ht="120" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="27" customFormat="1" ht="120" customHeight="1">
@@ -53834,7 +53829,7 @@
     </row>
     <row r="9" spans="1:1" ht="120" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="102">
@@ -53953,7 +53948,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="22" t="str">
         <f>Configuration!B2</f>
@@ -53962,7 +53957,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>Configuration!B9</f>
@@ -53971,7 +53966,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="17" t="str">
         <f>Configuration!B10</f>
@@ -53980,7 +53975,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="17" t="str">
         <f>Configuration!B28</f>
@@ -53989,7 +53984,7 @@
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="65" t="str">
         <f>IF(ISBLANK(Configuration!B29),"",Configuration!B29)</f>
@@ -53998,7 +53993,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>Configuration!B30</f>
@@ -54007,7 +54002,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="17" t="str">
         <f>Configuration!B35</f>
@@ -54016,7 +54011,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>Configuration!B36</f>
@@ -54076,7 +54071,7 @@
 ### Jason Kuruzovich (Instructor)
 - Email: kuruzj@rpi.edu
 - Office location: Pittsburgh 4108
-- Office hours: Monday 1:00 PM – 3:00 PM 
+- Office hours: Monday 2:00 PM – 4:00 PM 
 - Phone: 518-698-9910
 </v>
       </c>
@@ -54116,10 +54111,10 @@
 ",CONCATENATE("- Office hours: ",IF(ISBLANK(Configuration!B18),"*N/A*",Configuration!B18)),"
 ",CONCATENATE("- Phone: ",IF(ISBLANK(Configuration!B19),"*N/A*",Configuration!B19),"
 ")))</f>
-        <v xml:space="preserve">### TBD (TA)
-- Email: TBD
-- Office Location: TBD
-- Office hours: TBD
+        <v xml:space="preserve">### Kofi Arhin  (TA)
+- Email: arhink@rpi.edu
+- Office Location: 2126 Pittsburgh
+- Office hours: Thursdays 10:00 AM – 12:00 PM
 - Phone: *N/A*
 </v>
       </c>
@@ -54165,7 +54160,8 @@
 The [LMS](https://lms.rpi.edu/) will be used for submissions of projects.
 Slack (see link on left tab) will be the primary method of communication. Please download the Slack App for your mobile and desktop.
 This Dropbox Share (see link on left tab) will include all presentations, syllabus, etc.   
-Previous version of the course are available in [here](http://archive.analyticsdojo.com).
+Fall 2019 version of the class available [here](http://rpifall2019.analyticsdojo.com).
+Earlier version of the course are available in [here](http://archive.analyticsdojo.com).
 ### Prerequisites
 *None*
 ### Textbook
@@ -54193,12 +54189,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -54206,14 +54202,14 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="4" t="str">
         <f>IF(ISBLANK(Schedule!A3),"",CONCATENATE("| ",Schedule!A3," | ",Schedule!B3," | ",Schedule!C3," | ",TEXT(Schedule!D3,"mm/dd")," | ",Schedule!T3," |"))</f>
-        <v>| 1 | 1 | M | 01/13 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session1.html) &lt;br&gt; *Assignment 1 due 01/20 11:59 PM* &lt;br&gt; |</v>
+        <v>| 1 | 1 | M | 01/13 | **Course Overview &amp; The Machine Learning Landscape** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session1.html) &lt;br&gt; *Assignment 1 due 01/20 11:59 PM* &lt;br&gt; |</v>
       </c>
       <c r="D4" s="2"/>
     </row>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9337DCF-5C9E-994D-A510-3C49F1EE0D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154763F8-7EA3-1F45-839D-A5D4778B76BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -883,9 +883,6 @@
     </r>
   </si>
   <si>
-    <t>https://rpibsan2020.slack.com/</t>
-  </si>
-  <si>
     <t>Lydia Manikonda</t>
   </si>
   <si>
@@ -1046,9 +1043,6 @@
   </si>
   <si>
     <t>Assignment Instructions</t>
-  </si>
-  <si>
-    <t>https://piazza.com/class/jzeez8noxxl7eh</t>
   </si>
   <si>
     <t>Piazza (Section 2 Communications)</t>
@@ -1600,6 +1594,12 @@
   </si>
   <si>
     <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/</t>
+  </si>
+  <si>
+    <t>https://spring2020int-x6w9992.slack.com/</t>
+  </si>
+  <si>
+    <t>http://piazza.com/rpi/spring2020/introductiontomachinelearningapplications</t>
   </si>
 </sst>
 </file>
@@ -2729,8 +2729,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2751,7 +2751,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
@@ -2773,7 +2773,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="104"/>
@@ -2793,7 +2793,7 @@
         <v>141</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" s="107"/>
       <c r="D6" s="107"/>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="108" t="s">
         <v>254</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>255</v>
       </c>
       <c r="C7" s="107"/>
       <c r="D7" s="107"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="C9" s="110"/>
       <c r="D9" s="109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="95"/>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="C10" s="101"/>
       <c r="D10" s="100" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E10" s="101"/>
       <c r="F10" s="95"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="103" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E11" s="99"/>
       <c r="F11" s="95"/>
@@ -2864,11 +2864,11 @@
         <v>204</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="103" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="95"/>
@@ -2896,7 +2896,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="98"/>
@@ -2909,7 +2909,7 @@
         <v>130</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C16" s="99"/>
       <c r="D16" s="100"/>
@@ -2922,7 +2922,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="98"/>
@@ -2935,7 +2935,7 @@
         <v>204</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="98"/>
@@ -2989,7 +2989,7 @@
         <v>201</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C23" s="102"/>
       <c r="D23" s="102"/>
@@ -3009,7 +3009,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C25" s="102"/>
       <c r="D25" s="102"/>
@@ -3030,7 +3030,7 @@
         <v>118</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C28" s="104"/>
       <c r="D28" s="104"/>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="31" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="111"/>
       <c r="D31" s="111"/>
       <c r="E31" s="111"/>
       <c r="F31" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
@@ -3159,7 +3159,7 @@
         <v>150</v>
       </c>
       <c r="B40" s="106" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40" s="106"/>
       <c r="D40" s="106"/>
@@ -3170,7 +3170,7 @@
         <v>161</v>
       </c>
       <c r="B41" s="111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C41" s="111"/>
       <c r="D41" s="111"/>
@@ -3181,7 +3181,7 @@
         <v>151</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C42" s="106"/>
       <c r="D42" s="106"/>
@@ -3192,7 +3192,7 @@
         <v>161</v>
       </c>
       <c r="B43" s="111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C43" s="111"/>
       <c r="D43" s="111"/>
@@ -3203,7 +3203,7 @@
         <v>152</v>
       </c>
       <c r="B44" s="106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C44" s="106"/>
       <c r="D44" s="106"/>
@@ -3214,7 +3214,7 @@
         <v>161</v>
       </c>
       <c r="B45" s="111" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C45" s="111"/>
       <c r="D45" s="111"/>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" s="106" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="106"/>
       <c r="D46" s="106"/>
@@ -3236,7 +3236,7 @@
         <v>161</v>
       </c>
       <c r="B47" s="111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C47" s="111"/>
       <c r="D47" s="111"/>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B48" s="106" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C48" s="106"/>
       <c r="D48" s="106"/>
@@ -3258,7 +3258,7 @@
         <v>161</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>292</v>
+        <v>466</v>
       </c>
       <c r="C49" s="111"/>
       <c r="D49" s="111"/>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B50" s="106" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C50" s="106"/>
       <c r="D50" s="106"/>
@@ -3280,7 +3280,7 @@
         <v>161</v>
       </c>
       <c r="B51" s="111" t="s">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="C51" s="111"/>
       <c r="D51" s="111"/>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="53" spans="1:5" s="27" customFormat="1" ht="19">
       <c r="A53" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B53" s="17"/>
     </row>
@@ -3307,15 +3307,15 @@
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" s="71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>156</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B57" s="75" t="s">
         <v>156</v>
@@ -3331,18 +3331,18 @@
     </row>
     <row r="58" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
@@ -3355,23 +3355,23 @@
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" s="71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" s="71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B63" s="67" t="s">
         <v>156</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" s="71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B64" s="75" t="s">
         <v>156</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1">
       <c r="A65" s="72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1">
@@ -3411,10 +3411,10 @@
     </row>
     <row r="71" spans="1:2" ht="128" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4436,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4452,17 +4452,17 @@
     </row>
     <row r="2" spans="1:1" ht="409.6">
       <c r="A2" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4522,7 +4522,7 @@
     <row r="14" spans="1:1">
       <c r="A14" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("| ",Schedule!H12," | [",Schedule!B12,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B12,".html) | ",TEXT(Schedule!D12+Configuration!$B$6, "mm/dd")," | ",Schedule!I12," | ",IF(ISBLANK(Schedule!U12),"*None*",Schedule!U12)," |"))</f>
-        <v>| 5 | [9](https://rpi.analyticsdojo.com/sessions/session9.html) | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github]() |</v>
+        <v>| 5 | [9](https://rpi.analyticsdojo.com/sessions/session9.html) | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  |  |</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4760,7 +4760,7 @@
 | 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  |  |</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G2" s="25"/>
     </row>
@@ -5299,7 +5299,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github]() |</v>
+| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  |  |</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="404">
@@ -7676,12 +7676,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3:M35"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7794,13 +7794,13 @@
         <v>205</v>
       </c>
       <c r="K2" s="85" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M2" s="86" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N2" s="132"/>
       <c r="O2" s="132"/>
@@ -7834,10 +7834,10 @@
         <v>43843</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>165</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L3" s="91"/>
       <c r="M3" s="62"/>
@@ -8095,14 +8095,14 @@
         <v>95</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="39">
         <v>2</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N6" s="36" t="b">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M8" s="62"/>
       <c r="N8" s="36" t="b">
@@ -8424,7 +8424,7 @@
         <v>99</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G9" s="43"/>
       <c r="N9" s="36" t="b">
@@ -8548,7 +8548,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K10" s="91"/>
       <c r="M10" s="62"/>
@@ -8828,10 +8828,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N12" s="36" t="b">
         <v>0</v>
@@ -8859,8 +8859,8 @@
         <v>**Overview of Modeling** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session9.html)</v>
       </c>
       <c r="U12" s="52" t="str">
-        <f>CONCATENATE(Notebooks!G21, " | [Submit to Github](",M12,")")</f>
-        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/RPI-DATA/course-intro-ml-app/blob/master/content/notebooks/assignments/05-starter.ipynb) | [Submit to Github]()</v>
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="V12" s="52" t="str">
         <f t="shared" si="21"/>
@@ -9134,7 +9134,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N14" s="36" t="b">
         <v>0</v>
@@ -9287,7 +9287,7 @@
         <v>43885</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>114</v>
@@ -9446,7 +9446,7 @@
         <v>43888</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>93</v>
@@ -9609,17 +9609,17 @@
         <v>43892</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="39">
         <v>7</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N17" s="36" t="b">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>43895</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F18" s="44" t="s">
         <v>93</v>
@@ -9794,7 +9794,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L18" s="93"/>
       <c r="N18" s="36" t="b">
@@ -9964,7 +9964,7 @@
         <v>43899</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="43"/>
@@ -10127,7 +10127,7 @@
         <v>43902</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="49"/>
@@ -10293,10 +10293,10 @@
         <v>43906</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G21" s="49"/>
       <c r="N21" s="36" t="b">
@@ -10471,7 +10471,7 @@
         <v>43909</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>93</v>
@@ -12827,10 +12827,10 @@
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -32168,10 +32168,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" s="52" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -32191,10 +32191,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>274</v>
       </c>
       <c r="D3" s="52" t="str">
         <f t="shared" si="0"/>
@@ -32214,10 +32214,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>275</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>276</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" si="0"/>
@@ -32237,10 +32237,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -32260,10 +32260,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" ref="D6:D50" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -32283,10 +32283,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>278</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32329,10 +32329,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>285</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>286</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32352,10 +32352,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>285</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>286</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32375,10 +32375,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32398,10 +32398,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32421,10 +32421,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32444,10 +32444,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32467,10 +32467,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32490,10 +32490,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32513,10 +32513,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32536,10 +32536,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32559,7 +32559,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="52" t="str">
@@ -32580,10 +32580,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D20" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32603,7 +32603,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>177</v>
@@ -32629,7 +32629,7 @@
         <v>178</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D22" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32649,10 +32649,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D23" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32672,10 +32672,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D24" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32695,10 +32695,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D25" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32718,10 +32718,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D26" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32741,10 +32741,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D27" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32764,10 +32764,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>464</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>466</v>
       </c>
       <c r="D28" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32787,10 +32787,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D29" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33175,7 +33175,7 @@
         <v>169</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="87" t="str">
         <f>IF(ISBLANK(C2),"",CONCATENATE(Configuration!$B$31,Notebooks!C2,".ipynb"))</f>
@@ -33226,7 +33226,7 @@
       </c>
       <c r="N2" s="26"/>
       <c r="U2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="34">
@@ -33237,7 +33237,7 @@
         <v>170</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="87" t="str">
         <f>IF(ISBLANK(C3),"",CONCATENATE(Configuration!$B$31,Notebooks!C3,".ipynb"))</f>
@@ -33299,7 +33299,7 @@
         <v>171</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="87" t="str">
         <f>IF(ISBLANK(C4),"",CONCATENATE(Configuration!$B$31,Notebooks!C4,".ipynb"))</f>
@@ -33362,7 +33362,7 @@
         <v>172</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="87" t="str">
         <f>IF(ISBLANK(C5),"",CONCATENATE(Configuration!$B$31,Notebooks!C5,".ipynb"))</f>
@@ -33433,7 +33433,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="87" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE(Configuration!$B$31,Notebooks!C6,".ipynb"))</f>
@@ -33501,7 +33501,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D7" s="87" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE(Configuration!$B$31,Notebooks!C7,".ipynb"))</f>
@@ -33572,7 +33572,7 @@
         <v>182</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" s="87" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE(Configuration!$B$31,Notebooks!C8,".ipynb"))</f>
@@ -33644,10 +33644,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" s="87" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE(Configuration!$B$31,Notebooks!C9,".ipynb"))</f>
@@ -33726,7 +33726,7 @@
         <v>183</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D10" s="87" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE(Configuration!$B$31,Notebooks!C10,".ipynb"))</f>
@@ -33814,7 +33814,7 @@
         <v>184</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D11" s="87" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE(Configuration!$B$31,Notebooks!C11,".ipynb"))</f>
@@ -33896,7 +33896,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D12" s="87" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE(Configuration!$B$31,Notebooks!C12,".ipynb"))</f>
@@ -33982,7 +33982,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D13" s="87" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE(Configuration!$B$31,Notebooks!C13,".ipynb"))</f>
@@ -34072,7 +34072,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D14" s="87" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE(Configuration!$B$31,Notebooks!C14,".ipynb"))</f>
@@ -34166,7 +34166,7 @@
         <v>188</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D15" s="87" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE(Configuration!$B$31,Notebooks!C15,".ipynb"))</f>
@@ -34261,10 +34261,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D16" s="87" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE(Configuration!$B$31,Notebooks!C16,".ipynb"))</f>
@@ -34372,7 +34372,7 @@
         <v>189</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D17" s="87" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE(Configuration!$B$31,Notebooks!C17,".ipynb"))</f>
@@ -34472,7 +34472,7 @@
         <v>190</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D18" s="87" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE(Configuration!$B$31,Notebooks!C18,".ipynb"))</f>
@@ -34576,7 +34576,7 @@
         <v>191</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D19" s="87" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE(Configuration!$B$31,Notebooks!C19,".ipynb"))</f>
@@ -34684,7 +34684,7 @@
         <v>192</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D20" s="87" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE(Configuration!$B$31,Notebooks!C20,".ipynb"))</f>
@@ -34797,10 +34797,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D21" s="87" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE(Configuration!$B$31,Notebooks!C21,".ipynb"))</f>
@@ -34913,10 +34913,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E22" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35024,13 +35024,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E23" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35142,13 +35142,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E24" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35264,13 +35264,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E25" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35393,10 +35393,10 @@
         <v>181</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E26" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35523,10 +35523,10 @@
         <v>180</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E27" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35654,13 +35654,13 @@
         <v>10</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E28" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35792,13 +35792,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E29" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35934,13 +35934,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E30" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36089,10 +36089,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D31" s="87" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE(Configuration!$B$31,Notebooks!C31,".ipynb"))</f>
@@ -36252,10 +36252,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D32" s="87" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE(Configuration!$B$31,Notebooks!C32,".ipynb"))</f>
@@ -36416,10 +36416,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D33" s="87" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE(Configuration!$B$31,Notebooks!C33,".ipynb"))</f>
@@ -36584,10 +36584,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D34" s="87" t="str">
         <f>IF(ISBLANK(C34),"",CONCATENATE(Configuration!$B$31,Notebooks!C34,".ipynb"))</f>
@@ -36763,7 +36763,7 @@
         <v>193</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D35" s="87" t="str">
         <f>IF(ISBLANK(C35),"",CONCATENATE(Configuration!$B$31,Notebooks!C35,".ipynb"))</f>
@@ -36932,10 +36932,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D36" s="87" t="str">
         <f>IF(ISBLANK(C36),"",CONCATENATE(Configuration!$B$31,Notebooks!C36,".ipynb"))</f>
@@ -37108,10 +37108,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D37" s="87" t="str">
         <f>IF(ISBLANK(C37),"",CONCATENATE(Configuration!$B$31,Notebooks!C37,".ipynb"))</f>
@@ -37288,10 +37288,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D38" s="87" t="str">
         <f>IF(ISBLANK(C38),"",CONCATENATE(Configuration!$B$31,Notebooks!C38,".ipynb"))</f>
@@ -37476,10 +37476,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D39" s="87" t="str">
         <f>IF(ISBLANK(C39),"",CONCATENATE(Configuration!$B$31,Notebooks!C39,".ipynb"))</f>
@@ -37660,10 +37660,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D40" s="87" t="str">
         <f>IF(ISBLANK(C40),"",CONCATENATE(Configuration!$B$31,Notebooks!C40,".ipynb"))</f>
@@ -37848,10 +37848,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D41" s="87" t="str">
         <f>IF(ISBLANK(C41),"",CONCATENATE(Configuration!$B$31,Notebooks!C41,".ipynb"))</f>
@@ -38040,10 +38040,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D42" s="87" t="str">
         <f>IF(ISBLANK(C42),"",CONCATENATE(Configuration!$B$31,Notebooks!C42,".ipynb"))</f>
@@ -38236,10 +38236,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D43" s="87" t="str">
         <f>IF(ISBLANK(C43),"",CONCATENATE(Configuration!$B$31,Notebooks!C43,".ipynb"))</f>
@@ -38436,10 +38436,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D44" s="87" t="str">
         <f>IF(ISBLANK(C44),"",CONCATENATE(Configuration!$B$31,Notebooks!C44,".ipynb"))</f>
@@ -38640,10 +38640,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(ISBLANK(C45),"",CONCATENATE(Configuration!$B$31,Notebooks!C45,".ipynb"))</f>
@@ -38848,10 +38848,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D46" s="87" t="str">
         <f>IF(ISBLANK(C46),"",CONCATENATE(Configuration!$B$31,Notebooks!C46,".ipynb"))</f>
@@ -39068,10 +39068,10 @@
         <v>18</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D47" s="87" t="str">
         <f>IF(ISBLANK(C47),"",CONCATENATE(Configuration!$B$31,Notebooks!C47,".ipynb"))</f>
@@ -39276,10 +39276,10 @@
         <v>18</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D48" s="87" t="str">
         <f>IF(ISBLANK(C48),"",CONCATENATE(Configuration!$B$31,Notebooks!C48,".ipynb"))</f>
@@ -39491,7 +39491,7 @@
         <v>179</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D49" s="87" t="str">
         <f>IF(ISBLANK(C49),"",CONCATENATE(Configuration!$B$31,Notebooks!C49,".ipynb"))</f>
@@ -39704,10 +39704,10 @@
         <v>18</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D50" s="87" t="str">
         <f>IF(ISBLANK(C50),"",CONCATENATE(Configuration!$B$31,Notebooks!C50,".ipynb"))</f>
@@ -39928,10 +39928,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D51" s="87" t="str">
         <f>IF(ISBLANK(C51),"",CONCATENATE(Configuration!$B$31,Notebooks!C51,".ipynb"))</f>
@@ -40148,10 +40148,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D52" s="87" t="str">
         <f>IF(ISBLANK(C52),"",CONCATENATE(Configuration!$B$31,Notebooks!C52,".ipynb"))</f>
@@ -40372,10 +40372,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D53" s="87" t="str">
         <f>IF(ISBLANK(C53),"",CONCATENATE(Configuration!$B$31,Notebooks!C53,".ipynb"))</f>
@@ -40600,10 +40600,10 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D54" s="87" t="str">
         <f>IF(ISBLANK(C54),"",CONCATENATE(Configuration!$B$31,Notebooks!C54,".ipynb"))</f>
@@ -40832,10 +40832,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D55" s="87" t="str">
         <f>IF(ISBLANK(C55),"",CONCATENATE(Configuration!$B$31,Notebooks!C55,".ipynb"))</f>
@@ -41068,10 +41068,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D56" s="87" t="str">
         <f>IF(ISBLANK(C56),"",CONCATENATE(Configuration!$B$31,Notebooks!C56,".ipynb"))</f>
@@ -41308,10 +41308,10 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D57" s="87" t="str">
         <f>IF(ISBLANK(C57),"",CONCATENATE(Configuration!$B$31,Notebooks!C57,".ipynb"))</f>
@@ -41552,10 +41552,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D58" s="87" t="str">
         <f>IF(ISBLANK(C58),"",CONCATENATE(Configuration!$B$31,Notebooks!C58,".ipynb"))</f>
@@ -41800,10 +41800,10 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D59" s="87" t="str">
         <f>IF(ISBLANK(C59),"",CONCATENATE(Configuration!$B$31,Notebooks!C59,".ipynb"))</f>
@@ -42061,10 +42061,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D60" s="87" t="str">
         <f>IF(ISBLANK(C60),"",CONCATENATE(Configuration!$B$31,Notebooks!C60,".ipynb"))</f>
@@ -42308,10 +42308,10 @@
         <v>22</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D61" s="87" t="str">
         <f>IF(ISBLANK(C61),"",CONCATENATE(Configuration!$B$31,Notebooks!C61,".ipynb"))</f>
@@ -42559,10 +42559,10 @@
         <v>22</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C62" s="94" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D62" s="87" t="str">
         <f>IF(ISBLANK(C62),"",CONCATENATE(Configuration!$B$31,Notebooks!C62,".ipynb"))</f>
@@ -42814,10 +42814,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D63" s="87" t="str">
         <f>IF(ISBLANK(C63),"",CONCATENATE(Configuration!$B$31,Notebooks!C63,".ipynb"))</f>
@@ -43073,10 +43073,10 @@
         <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D64" s="87" t="str">
         <f>IF(ISBLANK(C64),"",CONCATENATE(Configuration!$B$31,Notebooks!C64,".ipynb"))</f>
@@ -43336,10 +43336,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D65" s="87" t="str">
         <f>IF(ISBLANK(C65),"",CONCATENATE(Configuration!$B$31,Notebooks!C65,".ipynb"))</f>
@@ -43603,10 +43603,10 @@
         <v>22</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D66" s="87" t="str">
         <f>IF(ISBLANK(C66),"",CONCATENATE(Configuration!$B$31,Notebooks!C66,".ipynb"))</f>
@@ -53906,7 +53906,7 @@
 "))</f>
         <v xml:space="preserve"># External link
 - title: Piazza (Section 2 Communications)
-  url: https://piazza.com/class/jzeez8noxxl7eh
+  url: http://piazza.com/rpi/spring2020/introductiontomachinelearningapplications
   external: true
   not_numbered: true
 </v>
@@ -53922,7 +53922,7 @@
 "))</f>
         <v xml:space="preserve"># External link
 - title: Slack (Section 1 Communications)
-  url: https://rpibsan2020.slack.com/
+  url: https://spring2020int-x6w9992.slack.com/
   external: true
   not_numbered: true
 </v>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154763F8-7EA3-1F45-839D-A5D4778B76BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C768726C-7A73-7C4B-A0D1-69ABBF7362F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -2729,7 +2729,7 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B50" sqref="B50:E50"/>
     </sheetView>
   </sheetViews>
@@ -4675,8 +4675,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="88" defaultRowHeight="16"/>
@@ -4706,12 +4706,28 @@
         <f t="shared" ref="B2:B49" si="0">IF(A2="","",IF(C2,CONCATENATE(D2,E2),CONCATENATE(D2,$F$2)))</f>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Course Overview &amp; The Machine Learning Landscape&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+In this class we motivate the overall field of data science, machine learning, and the emerging area of AI.   
+### Learning Objectives
+--- 
+- Appreciate the broader impact of machine learning on the world.
+- Be able to use the colab computing environment.
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  |  |</v>
       </c>
       <c r="C2" s="12" t="b">
         <f>Schedule!P3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E3,"&lt;/h1&gt;
@@ -4771,14 +4787,27 @@
       </c>
       <c r="B3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Martin Luther King Jr. Day. Staff holiday. No classes.&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Martin Luther King Jr. Day. Staff holiday. No classes.&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+This class introduces some basic computational background the Python computational environment, packages, colab, linux command line, git.  Introduction to coding includes basic data structures (sets, dictionaries, lists) along with packages specific for analytics (Numpy and Pandas). 
+### Learning Objectives
+--- 
+- Be able to use jupyter notebooks and the the colab computing environment.
+- Be able to install python packages.
+- Be able to save notebooks as gists and as part of github repositories. 
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Signup for Github](https://www.github.com)&lt;br&gt;[Review Git ](http://swcarpentry.github.io/git-novice/)&lt;br&gt;[Git Cheatsheet ](https://www.atlassian.com/dam/jcr:8132028b-024f-4b6b-953e-e68fcce0c5fa/atlassian-git-cheatsheet.pdf)&lt;br&gt;[Download GitHub Desktop](https://desktop.github.com)&lt;br&gt;[Chapter 1: The Machine Learning Landscape](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>Schedule!P4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E5,"&lt;/h1&gt;
@@ -4836,7 +4865,7 @@
       </c>
       <c r="C4" s="12" t="b">
         <f>Schedule!P5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E6,"&lt;/h1&gt;
@@ -4889,12 +4918,27 @@
         <f t="shared" si="0"/>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python conditionals, loops, functions, aggregating. &lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/Homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 2 | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) |  |</v>
       </c>
       <c r="C5" s="12" t="b">
         <f>Schedule!P6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E7,"&lt;/h1&gt;
@@ -4949,14 +4993,25 @@
       </c>
       <c r="B6" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python conditionals, loops, functions, aggregating (continued) &lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python conditionals, loops, functions, aggregating (continued) &lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. 
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Chapter 2: End to End Machine Learning Project](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C6" s="12" t="b">
         <f>Schedule!P7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E8,"&lt;/h1&gt;
@@ -5009,12 +5064,27 @@
         <f t="shared" si="0"/>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python visualization, data manipulation , and feature creation.&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 3 | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. |  |</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>Schedule!P8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E9,"&lt;/h1&gt;
@@ -5069,14 +5139,25 @@
       </c>
       <c r="B8" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python visualization, data manipulation , and feature creation (continued)&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python visualization, data manipulation , and feature creation (continued)&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Introduction to visualiation,  APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[What is an API?](https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/)&lt;br&gt;[What is an API Economy?](https://www.mulesoft.com/resources/api/what-is-an-api-economy)&lt;br&gt;[Revew the documentation of Twitter API for the end point get User Timelines. ](https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html)&lt;br&gt;[Building a web scraper](https://www.dataquest.io/blog/web-scraping-tutorial-python/)&lt;br&gt;[10 Best Visualization Examples](https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples)&lt;br&gt;[Regex Cheatsheet](https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C8" s="12" t="b">
         <f>Schedule!P9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E10,"&lt;/h1&gt;
@@ -5129,12 +5210,27 @@
         <f t="shared" si="0"/>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Overview of Modeling&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 4 | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  |  |</v>
       </c>
       <c r="C9" s="12" t="b">
         <f>Schedule!P10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E11,"&lt;/h1&gt;
@@ -5189,14 +5285,25 @@
       </c>
       <c r="B10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Overview of Modeling&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Overview of Modeling&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. 
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>Schedule!P11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E12,"&lt;/h1&gt;
@@ -5249,12 +5356,27 @@
         <f t="shared" si="0"/>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to R&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  |  |</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>Schedule!P12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E13,"&lt;/h1&gt;
@@ -5309,14 +5431,25 @@
       </c>
       <c r="B12" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to R&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to R&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+The goal of this class is to get you familiar to using R. While we will be Jupyter notebooks, we will also examine using RStudio. Now that you have already started with Python, many of the concepts will map.
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[R for Data Science (Skim through book and understand it is available as a reference if needed.)](https://r4ds.had.co.nz)&lt;br&gt;[RStudio Cloud](https://rstudio.cloud/project/232375)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>Schedule!P13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E14,"&lt;/h1&gt;
@@ -5369,12 +5502,27 @@
         <f t="shared" si="0"/>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python and Regression&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 6 | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  |  |</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>Schedule!P14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E15,"&lt;/h1&gt;
@@ -5429,14 +5577,25 @@
       </c>
       <c r="B14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python and Regression &lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Python and Regression &lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Regression models similarly a a major type of machine learning application.  In this 
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Chapter 4: Training Models](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>Schedule!P15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E16,"&lt;/h1&gt;
@@ -5487,14 +5646,25 @@
       </c>
       <c r="B15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Unsupervised Models&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Unsupervised Models&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C15" s="12" t="b">
         <f>Schedule!P16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E17,"&lt;/h1&gt;
@@ -5547,12 +5717,27 @@
         <f t="shared" si="0"/>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Unsupervised Models&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Unsupervised models are frequently used to subset data into subpoluations or to generate features.  
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 7 | 03/09 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>Schedule!P17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E18,"&lt;/h1&gt;
@@ -5609,12 +5794,27 @@
         <f t="shared" si="0"/>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;No-class Spring Break&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 8 | 03/12 | This is an assignment on unsupervised models.  |  |</v>
       </c>
       <c r="C17" s="12" t="b">
         <f>Schedule!P18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E19,"&lt;/h1&gt;
@@ -5673,7 +5873,7 @@
       </c>
       <c r="C18" s="12" t="b">
         <f>Schedule!P19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E20,"&lt;/h1&gt;
@@ -5728,7 +5928,7 @@
       </c>
       <c r="C19" s="12" t="b">
         <f>Schedule!P20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E21,"&lt;/h1&gt;
@@ -5779,14 +5979,25 @@
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Advanced Supervised Models&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Advanced Supervised Models&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+This will examine some cases and further explore the modeling process. 
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Chapter 6: Decision Trees](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>Schedule!P21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E22,"&lt;/h1&gt;
@@ -5837,14 +6048,25 @@
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>Schedule!P22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E23,"&lt;/h1&gt;
@@ -5895,14 +6117,25 @@
       </c>
       <c r="B22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+The goal of this class is to investigate basic concepts surrounding text mining.
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>Schedule!P23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E24,"&lt;/h1&gt;
@@ -5953,14 +6186,25 @@
       </c>
       <c r="B23" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to Big Data &lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to Big Data &lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>Schedule!P24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E25,"&lt;/h1&gt;
@@ -6011,14 +6255,25 @@
       </c>
       <c r="B24" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Time Series Analysis&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Time Series Analysis&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+The goal here is to provide an overview of how data processes can be scaled with Spark.
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>Schedule!P25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E26,"&lt;/h1&gt;
@@ -6069,14 +6324,25 @@
       </c>
       <c r="B25" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Image Data and Deep Learning&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Image Data and Deep Learning&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. 
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C25" s="12" t="b">
         <f>Schedule!P26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E27,"&lt;/h1&gt;
@@ -6127,14 +6393,25 @@
       </c>
       <c r="B26" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Image Data and Deep Learning&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Image Data and Deep Learning&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Image data is different and deep learning has transformed the ability of machines to process image data. In this lecture we will get an overview of image processing and deep learning techniques. 
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>Schedule!P27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E28,"&lt;/h1&gt;
@@ -6185,14 +6462,25 @@
       </c>
       <c r="B27" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Automl and Modeling Packages&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Automl and Modeling Packages&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>Schedule!P28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E29,"&lt;/h1&gt;
@@ -6243,14 +6531,25 @@
       </c>
       <c r="B28" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Thanksgiving&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Thanksgiving&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Increasingly there are tools to automate the process of selecting models. 
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C28" s="12" t="b">
         <f>Schedule!P29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E30,"&lt;/h1&gt;
@@ -6301,14 +6600,25 @@
       </c>
       <c r="B29" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Automl and Model Search&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Automl and Model Search&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+*None*
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C29" s="12" t="b">
         <f>Schedule!P30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E31,"&lt;/h1&gt;
@@ -6359,14 +6669,25 @@
       </c>
       <c r="B30" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+Lab/homework
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C30" s="12" t="b">
         <f>Schedule!P31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E32,"&lt;/h1&gt;
@@ -6417,14 +6738,25 @@
       </c>
       <c r="B31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+*None*
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C31" s="12" t="b">
         <f>Schedule!P32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E33,"&lt;/h1&gt;
@@ -6475,14 +6807,25 @@
       </c>
       <c r="B32" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Exam  11:30-2:30  &lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Exam  11:30-2:30  &lt;/h1&gt;
 ---
-### Coming Soon
-Session content is being updated. Please check back.</v>
+### Description
+---
+*None*
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+*None*
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
       </c>
       <c r="C32" s="12" t="b">
         <f>Schedule!P33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E34,"&lt;/h1&gt;
@@ -6537,7 +6880,7 @@
       </c>
       <c r="C33" s="12" t="b">
         <f>Schedule!P34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E35,"&lt;/h1&gt;
@@ -7676,12 +8019,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG956"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="M29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7856,8 +8199,8 @@
       <c r="O3" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="35" t="b">
-        <v>0</v>
+      <c r="P3" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q3" s="57" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE("Assignment ",H3," due ", TEXT(D3+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -7945,8 +8288,8 @@
       <c r="O4" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="35" t="b">
-        <v>0</v>
+      <c r="P4" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q4" s="57" t="str">
         <f>IF(ISBLANK(H4),"",CONCATENATE("Assignment ",H4," due ", TEXT(D4+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8026,8 +8369,8 @@
       <c r="L5" s="44"/>
       <c r="N5" s="56"/>
       <c r="O5" s="60"/>
-      <c r="P5" s="35" t="b">
-        <v>0</v>
+      <c r="P5" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q5" s="57" t="str">
         <f>IF(ISBLANK(H5),"",CONCATENATE("Assignment ",H5," due ", TEXT(D5+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8110,8 +8453,8 @@
       <c r="O6" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="35" t="b">
-        <v>0</v>
+      <c r="P6" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q6" s="57" t="str">
         <f>IF(ISBLANK(H6),"",CONCATENATE("Assignment ",H6," due ", TEXT(D6+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8197,8 +8540,8 @@
       <c r="O7" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="35" t="b">
-        <v>0</v>
+      <c r="P7" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q7" s="57" t="str">
         <f>IF(ISBLANK(H7),"",CONCATENATE("Assignment ",H7," due ", TEXT(D7+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8318,8 +8661,8 @@
       <c r="O8" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="35" t="b">
-        <v>0</v>
+      <c r="P8" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q8" s="57" t="str">
         <f>IF(ISBLANK(H8),"",CONCATENATE("Assignment ",H8," due ", TEXT(D8+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8433,8 +8776,8 @@
       <c r="O9" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="35" t="b">
-        <v>0</v>
+      <c r="P9" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q9" s="57" t="str">
         <f>IF(ISBLANK(H9),"",CONCATENATE("Assignment ",H9," due ", TEXT(D9+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8558,8 +8901,8 @@
       <c r="O10" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="35" t="b">
-        <v>0</v>
+      <c r="P10" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q10" s="57" t="str">
         <f>IF(ISBLANK(H10),"",CONCATENATE("Assignment ",H10," due ", TEXT(D10+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8682,8 +9025,8 @@
       <c r="O11" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="35" t="b">
-        <v>0</v>
+      <c r="P11" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q11" s="57" t="str">
         <f>IF(ISBLANK(H11),"",CONCATENATE("Assignment ",H11," due ", TEXT(D11+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8839,8 +9182,8 @@
       <c r="O12" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="35" t="b">
-        <v>0</v>
+      <c r="P12" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q12" s="57" t="str">
         <f>IF(ISBLANK(H12),"",CONCATENATE("Assignment ",H12," due ", TEXT(D12+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -8986,8 +9329,8 @@
       <c r="O13" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="35" t="b">
-        <v>0</v>
+      <c r="P13" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q13" s="57" t="str">
         <f>IF(ISBLANK(H13),"",CONCATENATE("Assignment ",H13," due ", TEXT(D13+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -9142,8 +9485,8 @@
       <c r="O14" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P14" s="35" t="b">
-        <v>0</v>
+      <c r="P14" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q14" s="57" t="str">
         <f>IF(ISBLANK(H14),"",CONCATENATE("Assignment ",H14," due ", TEXT(D14+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -9299,8 +9642,8 @@
       <c r="O15" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="35" t="b">
-        <v>0</v>
+      <c r="P15" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q15" s="57" t="str">
         <f>IF(ISBLANK(H15),"",CONCATENATE("Assignment ",H15," due ", TEXT(D15+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -9458,8 +9801,8 @@
       <c r="O16" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="35" t="b">
-        <v>0</v>
+      <c r="P16" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q16" s="57" t="str">
         <f>IF(ISBLANK(H16),"",CONCATENATE("Assignment ",H16," due ", TEXT(D16+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -9627,8 +9970,8 @@
       <c r="O17" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P17" s="35" t="b">
-        <v>0</v>
+      <c r="P17" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q17" s="57" t="str">
         <f>IF(ISBLANK(H17),"",CONCATENATE("Assignment ",H17," due ", TEXT(D17+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -9803,8 +10146,8 @@
       <c r="O18" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P18" s="35" t="b">
-        <v>0</v>
+      <c r="P18" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q18" s="57" t="str">
         <f>IF(ISBLANK(H18),"",CONCATENATE("Assignment ",H18," due ", TEXT(D18+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -9968,8 +10311,8 @@
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="43"/>
-      <c r="P19" s="35" t="b">
-        <v>0</v>
+      <c r="P19" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q19" s="57" t="str">
         <f>IF(ISBLANK(H19),"",CONCATENATE("Assignment ",H19," due ", TEXT(D19+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -10132,8 +10475,8 @@
       <c r="F20" s="44"/>
       <c r="G20" s="49"/>
       <c r="L20" s="93"/>
-      <c r="P20" s="35" t="b">
-        <v>0</v>
+      <c r="P20" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q20" s="57" t="str">
         <f>IF(ISBLANK(H20),"",CONCATENATE("Assignment ",H20," due ", TEXT(D20+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -10305,8 +10648,8 @@
       <c r="O21" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P21" s="35" t="b">
-        <v>0</v>
+      <c r="P21" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q21" s="57" t="str">
         <f>IF(ISBLANK(H21),"",CONCATENATE("Assignment ",H21," due ", TEXT(D21+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -10483,8 +10826,8 @@
       <c r="O22" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="35" t="b">
-        <v>0</v>
+      <c r="P22" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q22" s="57" t="str">
         <f>IF(ISBLANK(H22),"",CONCATENATE("Assignment ",H22," due ", TEXT(D22+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -10664,8 +11007,8 @@
       <c r="O23" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P23" s="35" t="b">
-        <v>0</v>
+      <c r="P23" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q23" s="57" t="str">
         <f>IF(ISBLANK(H23),"",CONCATENATE("Assignment ",H23," due ", TEXT(D23+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -10848,8 +11191,8 @@
       <c r="O24" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="P24" s="35" t="b">
-        <v>0</v>
+      <c r="P24" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q24" s="57" t="str">
         <f>IF(ISBLANK(H24),"",CONCATENATE("Assignment ",H24," due ", TEXT(D24+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -11035,8 +11378,8 @@
       <c r="O25" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P25" s="35" t="b">
-        <v>0</v>
+      <c r="P25" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q25" s="57" t="str">
         <f>IF(ISBLANK(H25),"",CONCATENATE("Assignment ",H25," due ", TEXT(D25+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -11225,8 +11568,8 @@
       <c r="O26" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P26" s="35" t="b">
-        <v>0</v>
+      <c r="P26" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q26" s="57" t="str">
         <f>IF(ISBLANK(H26),"",CONCATENATE("Assignment ",H26," due ", TEXT(D26+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -11418,8 +11761,8 @@
       <c r="O27" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P27" s="35" t="b">
-        <v>0</v>
+      <c r="P27" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q27" s="57" t="str">
         <f>IF(ISBLANK(H27),"",CONCATENATE("Assignment ",H27," due ", TEXT(D27+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -11614,8 +11957,8 @@
       <c r="O28" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P28" s="35" t="b">
-        <v>0</v>
+      <c r="P28" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q28" s="57" t="str">
         <f>IF(ISBLANK(H28),"",CONCATENATE("Assignment ",H28," due ", TEXT(D28+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -11813,8 +12156,8 @@
       <c r="O29" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P29" s="35" t="b">
-        <v>0</v>
+      <c r="P29" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q29" s="57" t="str">
         <f>IF(ISBLANK(H29),"",CONCATENATE("Assignment ",H29," due ", TEXT(D29+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -12013,8 +12356,8 @@
       <c r="O30" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="35" t="b">
-        <v>0</v>
+      <c r="P30" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q30" s="57" t="str">
         <f>IF(ISBLANK(H30),"",CONCATENATE("Assignment ",H30," due ", TEXT(D30+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -12218,8 +12561,8 @@
       <c r="O31" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="35" t="b">
-        <v>0</v>
+      <c r="P31" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q31" s="57" t="str">
         <f>IF(ISBLANK(H31),"",CONCATENATE("Assignment ",H31," due ", TEXT(D31+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -12424,8 +12767,8 @@
       <c r="O32" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P32" s="35" t="b">
-        <v>0</v>
+      <c r="P32" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q32" s="57" t="str">
         <f>IF(ISBLANK(H32),"",CONCATENATE("Assignment ",H32," due ", TEXT(D32+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -12632,8 +12975,8 @@
       <c r="O33" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P33" s="35" t="b">
-        <v>0</v>
+      <c r="P33" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q33" s="57" t="str">
         <f>IF(ISBLANK(H33),"",CONCATENATE("Assignment ",H33," due ", TEXT(D33+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
@@ -12840,8 +13183,8 @@
       <c r="O34" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="P34" s="35" t="b">
-        <v>0</v>
+      <c r="P34" s="60" t="b">
+        <v>1</v>
       </c>
       <c r="Q34" s="57" t="str">
         <f>IF(ISBLANK(H34),"",CONCATENATE("Assignment ",H34," due ", TEXT(D34+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C768726C-7A73-7C4B-A0D1-69ABBF7362F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0FCBC4-2B85-FD4B-A261-62F7CF325E56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="470">
   <si>
     <t>Wk</t>
   </si>
@@ -1057,6 +1057,9 @@
     <t>https://desktop.github.com</t>
   </si>
   <si>
+    <t>hm.ipynb</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Github Classroom Link </t>
     </r>
@@ -1069,6 +1072,9 @@
       </rPr>
       <t>(if applicable)</t>
     </r>
+  </si>
+  <si>
+    <t>rpi-techfundamentals/hm-01-starter</t>
   </si>
   <si>
     <t>Starter Repository</t>
@@ -1600,6 +1606,9 @@
   </si>
   <si>
     <t>http://piazza.com/rpi/spring2020/introductiontomachinelearningapplications</t>
+  </si>
+  <si>
+    <t>https://classroom.github.com/a/veUj-ukg</t>
   </si>
 </sst>
 </file>
@@ -2751,7 +2760,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
@@ -2773,7 +2782,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="104"/>
@@ -2838,7 +2847,7 @@
       </c>
       <c r="C10" s="101"/>
       <c r="D10" s="100" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E10" s="101"/>
       <c r="F10" s="95"/>
@@ -2853,7 +2862,7 @@
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E11" s="99"/>
       <c r="F11" s="95"/>
@@ -2864,11 +2873,11 @@
         <v>204</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="103" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="95"/>
@@ -2896,7 +2905,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="98"/>
@@ -2909,7 +2918,7 @@
         <v>130</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C16" s="99"/>
       <c r="D16" s="100"/>
@@ -2922,7 +2931,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="98"/>
@@ -2935,7 +2944,7 @@
         <v>204</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="98"/>
@@ -2989,7 +2998,7 @@
         <v>201</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C23" s="102"/>
       <c r="D23" s="102"/>
@@ -3009,7 +3018,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C25" s="102"/>
       <c r="D25" s="102"/>
@@ -3030,7 +3039,7 @@
         <v>118</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C28" s="104"/>
       <c r="D28" s="104"/>
@@ -3225,7 +3234,7 @@
         <v>266</v>
       </c>
       <c r="B46" s="106" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C46" s="106"/>
       <c r="D46" s="106"/>
@@ -3258,7 +3267,7 @@
         <v>161</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C49" s="111"/>
       <c r="D49" s="111"/>
@@ -3280,7 +3289,7 @@
         <v>161</v>
       </c>
       <c r="B51" s="111" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C51" s="111"/>
       <c r="D51" s="111"/>
@@ -4452,23 +4461,23 @@
     </row>
     <row r="2" spans="1:1" ht="409.6">
       <c r="A2" s="25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H3),"",CONCATENATE("| ",Schedule!H3," | [",Schedule!B3,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B3,".html) | ",TEXT(Schedule!D3+Configuration!$B$6, "mm/dd")," | ",Schedule!I3," | ",IF(ISBLANK(Schedule!U3),"*None*",Schedule!U3)," |"))</f>
-        <v>| 1 | [1](https://rpi.analyticsdojo.com/sessions/session1.html) | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  |  |</v>
+        <v>| 1 | [1](https://rpi.analyticsdojo.com/sessions/session1.html) | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/veUj-ukg) |</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4723,7 +4732,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  |  |</v>
+| 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/veUj-ukg) |</v>
       </c>
       <c r="C2" s="12" t="b">
         <f>Schedule!P3</f>
@@ -4773,7 +4782,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  |  |</v>
+| 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/veUj-ukg) |</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>283</v>
@@ -8020,11 +8029,11 @@
   <dimension ref="A1:BG956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="M29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3:P34"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8137,13 +8146,13 @@
         <v>205</v>
       </c>
       <c r="K2" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" s="86" t="s">
         <v>296</v>
-      </c>
-      <c r="L2" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>295</v>
       </c>
       <c r="N2" s="132"/>
       <c r="O2" s="132"/>
@@ -8177,7 +8186,7 @@
         <v>43843</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>243</v>
@@ -8191,8 +8200,15 @@
       <c r="I3" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="62"/>
+      <c r="K3" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>469</v>
+      </c>
       <c r="N3" s="36" t="b">
         <v>0</v>
       </c>
@@ -8220,7 +8236,7 @@
       </c>
       <c r="U3" s="52" t="str">
         <f>IF(ISBLANK(M3),"",CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/",K3,"/blob/master/",L3,") | [Submit to Github](",M3,")"))</f>
-        <v/>
+        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/veUj-ukg)</v>
       </c>
       <c r="V3" s="52" t="str">
         <f>IF(ISBLANK(B3),"",CONCATENATE("  - title: Session ",B3,"
@@ -8652,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M8" s="62"/>
       <c r="N8" s="36" t="b">
@@ -8767,7 +8783,7 @@
         <v>99</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G9" s="43"/>
       <c r="N9" s="36" t="b">
@@ -8891,7 +8907,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K10" s="91"/>
       <c r="M10" s="62"/>
@@ -9171,10 +9187,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N12" s="36" t="b">
         <v>0</v>
@@ -9477,7 +9493,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N14" s="36" t="b">
         <v>0</v>
@@ -9630,7 +9646,7 @@
         <v>43885</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>114</v>
@@ -9789,7 +9805,7 @@
         <v>43888</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>93</v>
@@ -9952,17 +9968,17 @@
         <v>43892</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="39">
         <v>7</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N17" s="36" t="b">
         <v>0</v>
@@ -10127,7 +10143,7 @@
         <v>43895</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F18" s="44" t="s">
         <v>93</v>
@@ -10137,7 +10153,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L18" s="93"/>
       <c r="N18" s="36" t="b">
@@ -10307,7 +10323,7 @@
         <v>43899</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="43"/>
@@ -10470,7 +10486,7 @@
         <v>43902</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="49"/>
@@ -10636,10 +10652,10 @@
         <v>43906</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G21" s="49"/>
       <c r="N21" s="36" t="b">
@@ -10814,7 +10830,7 @@
         <v>43909</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>93</v>
@@ -13170,10 +13186,10 @@
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="42" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -32603,10 +32619,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" ref="D6:D50" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -32741,10 +32757,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32764,10 +32780,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32787,10 +32803,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32810,10 +32826,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32833,10 +32849,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32856,10 +32872,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32879,10 +32895,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32902,7 +32918,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="52" t="str">
@@ -32923,10 +32939,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D20" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32946,7 +32962,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>177</v>
@@ -32972,7 +32988,7 @@
         <v>178</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D22" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32992,10 +33008,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D23" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33015,10 +33031,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D24" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33038,10 +33054,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D25" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33061,10 +33077,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D26" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33084,10 +33100,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D27" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33107,10 +33123,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D28" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33130,10 +33146,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D29" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33776,7 +33792,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D6" s="87" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE(Configuration!$B$31,Notebooks!C6,".ipynb"))</f>
@@ -33844,7 +33860,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D7" s="87" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE(Configuration!$B$31,Notebooks!C7,".ipynb"))</f>
@@ -33915,7 +33931,7 @@
         <v>182</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D8" s="87" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE(Configuration!$B$31,Notebooks!C8,".ipynb"))</f>
@@ -33987,10 +34003,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D9" s="87" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE(Configuration!$B$31,Notebooks!C9,".ipynb"))</f>
@@ -34069,7 +34085,7 @@
         <v>183</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D10" s="87" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE(Configuration!$B$31,Notebooks!C10,".ipynb"))</f>
@@ -34157,7 +34173,7 @@
         <v>184</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D11" s="87" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE(Configuration!$B$31,Notebooks!C11,".ipynb"))</f>
@@ -34239,7 +34255,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D12" s="87" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE(Configuration!$B$31,Notebooks!C12,".ipynb"))</f>
@@ -34325,7 +34341,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D13" s="87" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE(Configuration!$B$31,Notebooks!C13,".ipynb"))</f>
@@ -34415,7 +34431,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D14" s="87" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE(Configuration!$B$31,Notebooks!C14,".ipynb"))</f>
@@ -34509,7 +34525,7 @@
         <v>188</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D15" s="87" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE(Configuration!$B$31,Notebooks!C15,".ipynb"))</f>
@@ -34604,10 +34620,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D16" s="87" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE(Configuration!$B$31,Notebooks!C16,".ipynb"))</f>
@@ -34715,7 +34731,7 @@
         <v>189</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D17" s="87" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE(Configuration!$B$31,Notebooks!C17,".ipynb"))</f>
@@ -34815,7 +34831,7 @@
         <v>190</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D18" s="87" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE(Configuration!$B$31,Notebooks!C18,".ipynb"))</f>
@@ -34919,7 +34935,7 @@
         <v>191</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D19" s="87" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE(Configuration!$B$31,Notebooks!C19,".ipynb"))</f>
@@ -35027,7 +35043,7 @@
         <v>192</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D20" s="87" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE(Configuration!$B$31,Notebooks!C20,".ipynb"))</f>
@@ -35140,10 +35156,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D21" s="87" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE(Configuration!$B$31,Notebooks!C21,".ipynb"))</f>
@@ -35256,10 +35272,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E22" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35367,13 +35383,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C23" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="87" t="s">
         <v>341</v>
-      </c>
-      <c r="D23" s="87" t="s">
-        <v>339</v>
       </c>
       <c r="E23" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35485,13 +35501,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E24" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35607,13 +35623,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E25" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35736,10 +35752,10 @@
         <v>181</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E26" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35866,10 +35882,10 @@
         <v>180</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E27" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35997,13 +36013,13 @@
         <v>10</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E28" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36135,13 +36151,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E29" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36277,13 +36293,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E30" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36432,10 +36448,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D31" s="87" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE(Configuration!$B$31,Notebooks!C31,".ipynb"))</f>
@@ -36595,10 +36611,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>363</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>361</v>
       </c>
       <c r="D32" s="87" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE(Configuration!$B$31,Notebooks!C32,".ipynb"))</f>
@@ -36759,10 +36775,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>364</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>362</v>
       </c>
       <c r="D33" s="87" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE(Configuration!$B$31,Notebooks!C33,".ipynb"))</f>
@@ -36927,10 +36943,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D34" s="87" t="str">
         <f>IF(ISBLANK(C34),"",CONCATENATE(Configuration!$B$31,Notebooks!C34,".ipynb"))</f>
@@ -37106,7 +37122,7 @@
         <v>193</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D35" s="87" t="str">
         <f>IF(ISBLANK(C35),"",CONCATENATE(Configuration!$B$31,Notebooks!C35,".ipynb"))</f>
@@ -37275,10 +37291,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D36" s="87" t="str">
         <f>IF(ISBLANK(C36),"",CONCATENATE(Configuration!$B$31,Notebooks!C36,".ipynb"))</f>
@@ -37451,10 +37467,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D37" s="87" t="str">
         <f>IF(ISBLANK(C37),"",CONCATENATE(Configuration!$B$31,Notebooks!C37,".ipynb"))</f>
@@ -37631,10 +37647,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D38" s="87" t="str">
         <f>IF(ISBLANK(C38),"",CONCATENATE(Configuration!$B$31,Notebooks!C38,".ipynb"))</f>
@@ -37819,10 +37835,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D39" s="87" t="str">
         <f>IF(ISBLANK(C39),"",CONCATENATE(Configuration!$B$31,Notebooks!C39,".ipynb"))</f>
@@ -38003,10 +38019,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D40" s="87" t="str">
         <f>IF(ISBLANK(C40),"",CONCATENATE(Configuration!$B$31,Notebooks!C40,".ipynb"))</f>
@@ -38191,10 +38207,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D41" s="87" t="str">
         <f>IF(ISBLANK(C41),"",CONCATENATE(Configuration!$B$31,Notebooks!C41,".ipynb"))</f>
@@ -38383,10 +38399,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D42" s="87" t="str">
         <f>IF(ISBLANK(C42),"",CONCATENATE(Configuration!$B$31,Notebooks!C42,".ipynb"))</f>
@@ -38579,10 +38595,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D43" s="87" t="str">
         <f>IF(ISBLANK(C43),"",CONCATENATE(Configuration!$B$31,Notebooks!C43,".ipynb"))</f>
@@ -38779,10 +38795,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D44" s="87" t="str">
         <f>IF(ISBLANK(C44),"",CONCATENATE(Configuration!$B$31,Notebooks!C44,".ipynb"))</f>
@@ -38983,10 +38999,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(ISBLANK(C45),"",CONCATENATE(Configuration!$B$31,Notebooks!C45,".ipynb"))</f>
@@ -39191,10 +39207,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D46" s="87" t="str">
         <f>IF(ISBLANK(C46),"",CONCATENATE(Configuration!$B$31,Notebooks!C46,".ipynb"))</f>
@@ -39411,10 +39427,10 @@
         <v>18</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D47" s="87" t="str">
         <f>IF(ISBLANK(C47),"",CONCATENATE(Configuration!$B$31,Notebooks!C47,".ipynb"))</f>
@@ -39619,10 +39635,10 @@
         <v>18</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D48" s="87" t="str">
         <f>IF(ISBLANK(C48),"",CONCATENATE(Configuration!$B$31,Notebooks!C48,".ipynb"))</f>
@@ -39834,7 +39850,7 @@
         <v>179</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D49" s="87" t="str">
         <f>IF(ISBLANK(C49),"",CONCATENATE(Configuration!$B$31,Notebooks!C49,".ipynb"))</f>
@@ -40047,10 +40063,10 @@
         <v>18</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D50" s="87" t="str">
         <f>IF(ISBLANK(C50),"",CONCATENATE(Configuration!$B$31,Notebooks!C50,".ipynb"))</f>
@@ -40271,10 +40287,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D51" s="87" t="str">
         <f>IF(ISBLANK(C51),"",CONCATENATE(Configuration!$B$31,Notebooks!C51,".ipynb"))</f>
@@ -40491,10 +40507,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D52" s="87" t="str">
         <f>IF(ISBLANK(C52),"",CONCATENATE(Configuration!$B$31,Notebooks!C52,".ipynb"))</f>
@@ -40715,10 +40731,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D53" s="87" t="str">
         <f>IF(ISBLANK(C53),"",CONCATENATE(Configuration!$B$31,Notebooks!C53,".ipynb"))</f>
@@ -40943,10 +40959,10 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D54" s="87" t="str">
         <f>IF(ISBLANK(C54),"",CONCATENATE(Configuration!$B$31,Notebooks!C54,".ipynb"))</f>
@@ -41175,10 +41191,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D55" s="87" t="str">
         <f>IF(ISBLANK(C55),"",CONCATENATE(Configuration!$B$31,Notebooks!C55,".ipynb"))</f>
@@ -41411,10 +41427,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D56" s="87" t="str">
         <f>IF(ISBLANK(C56),"",CONCATENATE(Configuration!$B$31,Notebooks!C56,".ipynb"))</f>
@@ -41651,10 +41667,10 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D57" s="87" t="str">
         <f>IF(ISBLANK(C57),"",CONCATENATE(Configuration!$B$31,Notebooks!C57,".ipynb"))</f>
@@ -41895,10 +41911,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D58" s="87" t="str">
         <f>IF(ISBLANK(C58),"",CONCATENATE(Configuration!$B$31,Notebooks!C58,".ipynb"))</f>
@@ -42143,10 +42159,10 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D59" s="87" t="str">
         <f>IF(ISBLANK(C59),"",CONCATENATE(Configuration!$B$31,Notebooks!C59,".ipynb"))</f>
@@ -42404,10 +42420,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D60" s="87" t="str">
         <f>IF(ISBLANK(C60),"",CONCATENATE(Configuration!$B$31,Notebooks!C60,".ipynb"))</f>
@@ -42651,10 +42667,10 @@
         <v>22</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D61" s="87" t="str">
         <f>IF(ISBLANK(C61),"",CONCATENATE(Configuration!$B$31,Notebooks!C61,".ipynb"))</f>
@@ -42902,10 +42918,10 @@
         <v>22</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C62" s="94" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D62" s="87" t="str">
         <f>IF(ISBLANK(C62),"",CONCATENATE(Configuration!$B$31,Notebooks!C62,".ipynb"))</f>
@@ -43157,10 +43173,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D63" s="87" t="str">
         <f>IF(ISBLANK(C63),"",CONCATENATE(Configuration!$B$31,Notebooks!C63,".ipynb"))</f>
@@ -43416,10 +43432,10 @@
         <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D64" s="87" t="str">
         <f>IF(ISBLANK(C64),"",CONCATENATE(Configuration!$B$31,Notebooks!C64,".ipynb"))</f>
@@ -43679,10 +43695,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D65" s="87" t="str">
         <f>IF(ISBLANK(C65),"",CONCATENATE(Configuration!$B$31,Notebooks!C65,".ipynb"))</f>
@@ -43946,10 +43962,10 @@
         <v>22</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D66" s="87" t="str">
         <f>IF(ISBLANK(C66),"",CONCATENATE(Configuration!$B$31,Notebooks!C66,".ipynb"))</f>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0FCBC4-2B85-FD4B-A261-62F7CF325E56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E6B368-13A9-CD4F-B510-B26C95395578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -1535,9 +1535,6 @@
     <t>MGMT6560 Spring 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Section 1: Monday/Thursday 12:00-1:30  Section 2: </t>
-  </si>
-  <si>
     <t>New for this semester! [Hands-On Machine Learning with Scikit-Learn, Keras, and TensorFlow: Concepts, Tools, and Techniques to Build Intelligent Systems 2nd Edition by Aurélien Géron](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/dp/1492032646/ref=sr_1_1?keywords=machine+learning&amp;qid=1578363365&amp;sr=8-1)</t>
   </si>
   <si>
@@ -1609,6 +1606,9 @@
   </si>
   <si>
     <t>https://classroom.github.com/a/veUj-ukg</t>
+  </si>
+  <si>
+    <t>Section 1: Monday/Thursday 12:00-1:30  Section 2:  Monday/Thursday 10:00-11:30</t>
   </si>
 </sst>
 </file>
@@ -2738,8 +2738,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:E50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2782,7 +2782,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="104"/>
@@ -2873,7 +2873,7 @@
         <v>204</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="103" t="s">
@@ -2905,7 +2905,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="98"/>
@@ -2918,7 +2918,7 @@
         <v>130</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C16" s="99"/>
       <c r="D16" s="100"/>
@@ -2931,7 +2931,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="98"/>
@@ -2944,7 +2944,7 @@
         <v>204</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="98"/>
@@ -2998,7 +2998,7 @@
         <v>201</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="102"/>
       <c r="D23" s="102"/>
@@ -3018,7 +3018,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C25" s="102"/>
       <c r="D25" s="102"/>
@@ -3267,7 +3267,7 @@
         <v>161</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C49" s="111"/>
       <c r="D49" s="111"/>
@@ -3289,7 +3289,7 @@
         <v>161</v>
       </c>
       <c r="B51" s="111" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C51" s="111"/>
       <c r="D51" s="111"/>
@@ -4445,7 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -8028,12 +8028,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8186,7 +8186,7 @@
         <v>43843</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>243</v>
@@ -8207,7 +8207,7 @@
         <v>295</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N3" s="36" t="b">
         <v>0</v>
@@ -32619,10 +32619,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" ref="D6:D50" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -32757,10 +32757,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32918,7 +32918,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="52" t="str">
@@ -33008,10 +33008,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D23" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33031,10 +33031,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D24" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33054,10 +33054,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D25" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33077,10 +33077,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D26" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33100,10 +33100,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D27" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33123,10 +33123,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D28" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33146,10 +33146,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" s="82" t="s">
         <v>465</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>466</v>
       </c>
       <c r="D29" s="52" t="str">
         <f t="shared" si="3"/>
@@ -54410,7 +54410,7 @@
 ")</f>
         <v xml:space="preserve">## General Info
 ---
-- When: Section 1: Monday/Thursday 12:00-1:30  Section 2: 
+- When: Section 1: Monday/Thursday 12:00-1:30  Section 2:  Monday/Thursday 10:00-11:30
 - Where: 
 </v>
       </c>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E6B368-13A9-CD4F-B510-B26C95395578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B852E-5DA0-1F49-8BAA-42AADA788735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,19 +1029,6 @@
     <t>Lab/Homework</t>
   </si>
   <si>
-    <t xml:space="preserve">### Instructions for Assignments
-1. Click on the assignment link to "accept the assignment."  This will create a private repository with starter code.  If you ever can't find this code, just click on the *Github - Assignments* link on the left tab of this website. 
-2. Go to colab to work on the assignment.  Make sure you see note below on saving assignment. 
-3. Save your assignment to Github.  You can make multiple submissions prior to the due date.
-4. *Verify* that your assignment is saved to Github by clicking on the notebook  using the *Github - Assignments* link to the left and navigating to the assignment on the github website.
-![](https://github.com/rpi-techfundamentals/hm-01-starter/raw/master/notsaved.png)
-**WARNING!!!  If you see this icon on the top of your COLAB sesssion, your work is not saved automatically.**
-**When you are working on homeworks, make sure that you save often. You may find it easier to save intermident copies in Google drive. If you save your working file in Google drive all changes will be saved as you work. MAKE SURE that your final version is saved to GitHub and has the same name as the origional file. Make sure you do not submit two notebooks.** 
-Before you turn this problem in, make sure everything runs as expected. First, restart the kernel (in the menubar, select Kernel → Restart) and then run all cells (in the menubar, select Cell → Run All).  You can speak with others regarding the assignment but all work must be your own.
----
-</t>
-  </si>
-  <si>
     <t>Assignment Instructions</t>
   </si>
   <si>
@@ -1609,6 +1596,19 @@
   </si>
   <si>
     <t>Section 1: Monday/Thursday 12:00-1:30  Section 2:  Monday/Thursday 10:00-11:30</t>
+  </si>
+  <si>
+    <t>###  Instructions  for  Assignments
+1.  Click  on  the  open  in  colab link  to  start  the  assignment.
+2.  Make  sure  you  see  note  below  on  saving  assignment.  The  recommended  procedure  is  to  save  in  Google  Drive  while  working  on  the  assignment.  This  will  ensure  that  all  of  your  work  is  saved  as  you  work  on  the  assignment.
+3.  To  submit  your  assignment,  click  the  *submit  to  GitHub*.  This  will  allow  you  to  *Accept  the  Assignment* and  create  a  private  repository  for  your  submission  associated  with  your  GitHub  id.  Save  your  assignment  to  this  GitHub  repository  either  through  colab  or  by  downloading  the  notebook  and  selecting *uploading an existing file* through the GUI.  You  can  make  multiple  submissions  prior  to  the  due  date, but please make sure that there is only 1 file in your repository at the time of submission.  
+4.  Verify that  your  assignment  is  saved  to  GitHub  by  clicking  on  the  notebook  using  the  GitHub  -  Assignments link  to  the  left  and  navigating  to  the  assignment  on  the  GitHub  website.
+![](https://github.com/rpi-techfundamentals/hm-01-starter/raw/master/notsaved.png)
+**WARNING!!!    If  you  see  this  icon  on  the  top  of  your  COLAB  sesssion,  your  work  is  not  saved  automatically.**
+**It  is  recommended  to  save  your  work  in  Google  Drive.    File  -&gt;  If  you  save  your  working  file  in  Google  drive  all  changes  will  be  saved  as  you  work.  MAKE  SURE  that  your  final  version  is  saved  to  GitHub  and  has  the  same  name  as  the  origional  file.  Make  sure  you  do  not  submit  two  notebooks.**
+Before  you  turn  this  problem  in,  make  sure  everything  runs  as  expected.  First,  restart  the  kernel  (in  the  menubar,  select  Kernel  →  Restart)  and  then  run  all  cells  (in  the  menubar,  select  Cell  →  Run  All).    You  can  speak  with  others  regarding  the  assignment  but  all  work  must  be  your  own.
+*Assignments  are  due  by  11:59  PM  on  the  date  indicated.*
+---</t>
   </si>
 </sst>
 </file>
@@ -2300,6 +2300,59 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2309,75 +2362,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2414,6 +2398,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2738,8 +2738,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2759,65 +2759,65 @@
       <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="105" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="107" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="104" t="s">
-        <v>469</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="B4" s="98" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
@@ -2827,74 +2827,74 @@
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="109" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="100" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="103" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>448</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="103" t="s">
-        <v>302</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="B12" s="101" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -2904,64 +2904,64 @@
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="103" t="s">
-        <v>449</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="B15" s="101" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="B16" s="108" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="103" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
+      <c r="B17" s="101" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="103" t="s">
-        <v>452</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
+      <c r="B18" s="101" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
@@ -2971,20 +2971,20 @@
       <c r="A21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="96" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="1" ht="14.75" customHeight="1">
       <c r="A22" s="21"/>
@@ -2997,32 +2997,32 @@
       <c r="A23" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="102" t="s">
-        <v>453</v>
-      </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
+      <c r="B23" s="100" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="113" t="s">
-        <v>447</v>
-      </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
+      <c r="B25" s="99" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1"/>
@@ -3038,23 +3038,23 @@
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="104" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
+      <c r="B28" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="13" t="s">
         <v>225</v>
       </c>
@@ -3063,12 +3063,12 @@
       <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="13" t="s">
         <v>226</v>
       </c>
@@ -3077,12 +3077,12 @@
       <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="13" t="s">
         <v>245</v>
       </c>
@@ -3101,12 +3101,12 @@
       <c r="A34" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="13" t="s">
         <v>227</v>
       </c>
@@ -3115,12 +3115,12 @@
       <c r="A35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="13" t="s">
         <v>228</v>
       </c>
@@ -3129,12 +3129,12 @@
       <c r="A36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="13" t="s">
         <v>229</v>
       </c>
@@ -3143,12 +3143,12 @@
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
       <c r="F37" s="13" t="s">
         <v>230</v>
       </c>
@@ -3167,133 +3167,133 @@
       <c r="A40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="106" t="s">
+      <c r="B44" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
+      <c r="B46" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
     </row>
     <row r="47" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="111" t="s">
+      <c r="B47" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B48" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
+      <c r="B48" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="111" t="s">
-        <v>467</v>
-      </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="96" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="106" t="s">
-        <v>292</v>
-      </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
+      <c r="B50" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="111" t="s">
-        <v>466</v>
-      </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="96" t="s">
+        <v>465</v>
+      </c>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="30" t="s">
@@ -3420,40 +3420,35 @@
     </row>
     <row r="71" spans="1:2" ht="128" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>289</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
@@ -3470,26 +3465,31 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4461,17 +4461,17 @@
     </row>
     <row r="2" spans="1:1" ht="409.6">
       <c r="A2" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5287,7 +5287,7 @@
 | 4 | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  |  |</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="388">
+    <row r="10" spans="1:7" ht="404">
       <c r="A10" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B11),"",CONCATENATE("session",Schedule!B11))</f>
         <v>session8</v>
@@ -5433,7 +5433,7 @@
 | 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  |  |</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="404">
+    <row r="12" spans="1:7" ht="409.6">
       <c r="A12" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B13),"",CONCATENATE("session",Schedule!B13))</f>
         <v>session10</v>
@@ -5579,7 +5579,7 @@
 | 6 | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  |  |</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="372">
+    <row r="14" spans="1:7" ht="388">
       <c r="A14" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B15),"",CONCATENATE("session",Schedule!B15))</f>
         <v>session12</v>
@@ -5648,7 +5648,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="356">
+    <row r="15" spans="1:7" ht="372">
       <c r="A15" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B16),"",CONCATENATE("session",Schedule!B16))</f>
         <v>session13</v>
@@ -5981,7 +5981,7 @@
 </v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="372">
+    <row r="20" spans="1:5" ht="404">
       <c r="A20" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B21),"",CONCATENATE("session",Schedule!B21))</f>
         <v>session16</v>
@@ -6050,7 +6050,7 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="372">
+    <row r="21" spans="1:5" ht="388">
       <c r="A21" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B22),"",CONCATENATE("session",Schedule!B22))</f>
         <v>session17</v>
@@ -6119,7 +6119,7 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="372">
+    <row r="22" spans="1:5" ht="388">
       <c r="A22" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B23),"",CONCATENATE("session",Schedule!B23))</f>
         <v>session18</v>
@@ -6188,7 +6188,7 @@
 </v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="372">
+    <row r="23" spans="1:5" ht="388">
       <c r="A23" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B24),"",CONCATENATE("session",Schedule!B24))</f>
         <v>session19</v>
@@ -6257,7 +6257,7 @@
 </v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="356">
+    <row r="24" spans="1:5" ht="372">
       <c r="A24" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B25),"",CONCATENATE("session",Schedule!B25))</f>
         <v>session20</v>
@@ -6326,7 +6326,7 @@
 </v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="372">
+    <row r="25" spans="1:5" ht="404">
       <c r="A25" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B26),"",CONCATENATE("session",Schedule!B26))</f>
         <v>session21</v>
@@ -6395,7 +6395,7 @@
 </v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="372">
+    <row r="26" spans="1:5" ht="404">
       <c r="A26" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B27),"",CONCATENATE("session",Schedule!B27))</f>
         <v>session22</v>
@@ -6464,7 +6464,7 @@
 </v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="356">
+    <row r="27" spans="1:5" ht="388">
       <c r="A27" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B28),"",CONCATENATE("session",Schedule!B28))</f>
         <v>session23</v>
@@ -6533,7 +6533,7 @@
 </v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="356">
+    <row r="28" spans="1:5" ht="372">
       <c r="A28" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B29),"",CONCATENATE("session",Schedule!B29))</f>
         <v>session24</v>
@@ -6602,7 +6602,7 @@
 </v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="356">
+    <row r="29" spans="1:5" ht="388">
       <c r="A29" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B30),"",CONCATENATE("session",Schedule!B30))</f>
         <v>session25</v>
@@ -6671,7 +6671,7 @@
 </v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="356">
+    <row r="30" spans="1:5" ht="372">
       <c r="A30" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B31),"",CONCATENATE("session",Schedule!B31))</f>
         <v>session26</v>
@@ -6740,7 +6740,7 @@
 </v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="356">
+    <row r="31" spans="1:5" ht="372">
       <c r="A31" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B32),"",CONCATENATE("session",Schedule!B32))</f>
         <v>session27</v>
@@ -6809,7 +6809,7 @@
 </v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="356">
+    <row r="32" spans="1:5" ht="372">
       <c r="A32" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B34),"",CONCATENATE("session",Schedule!B34))</f>
         <v>session29</v>
@@ -8064,72 +8064,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="30" customFormat="1" ht="18.25" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131" t="s">
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="131" t="s">
+      <c r="O1" s="125" t="s">
         <v>200</v>
       </c>
       <c r="P1" s="90"/>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="120" t="s">
+      <c r="R1" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="121" t="s">
+      <c r="S1" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="121" t="s">
+      <c r="T1" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="U1" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="121" t="s">
+      <c r="V1" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121" t="s">
+      <c r="W1" s="115"/>
+      <c r="X1" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="121" t="s">
+      <c r="Y1" s="115" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="30" customFormat="1" ht="21" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="123"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
@@ -8146,28 +8146,28 @@
         <v>205</v>
       </c>
       <c r="K2" s="85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M2" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
+        <v>295</v>
+      </c>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
       <c r="Z2" s="30" t="s">
         <v>12</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>43843</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>243</v>
@@ -8201,13 +8201,13 @@
         <v>255</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L3" s="91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N3" s="36" t="b">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M8" s="62"/>
       <c r="N8" s="36" t="b">
@@ -8783,7 +8783,7 @@
         <v>99</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G9" s="43"/>
       <c r="N9" s="36" t="b">
@@ -8907,7 +8907,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K10" s="91"/>
       <c r="M10" s="62"/>
@@ -9187,10 +9187,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J12" s="92" t="s">
         <v>358</v>
-      </c>
-      <c r="J12" s="92" t="s">
-        <v>359</v>
       </c>
       <c r="N12" s="36" t="b">
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N14" s="36" t="b">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>43885</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>114</v>
@@ -9805,7 +9805,7 @@
         <v>43888</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>93</v>
@@ -9968,17 +9968,17 @@
         <v>43892</v>
       </c>
       <c r="E17" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="48" t="s">
         <v>372</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>373</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="39">
         <v>7</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N17" s="36" t="b">
         <v>0</v>
@@ -10143,7 +10143,7 @@
         <v>43895</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F18" s="44" t="s">
         <v>93</v>
@@ -10153,7 +10153,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L18" s="93"/>
       <c r="N18" s="36" t="b">
@@ -10323,7 +10323,7 @@
         <v>43899</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="43"/>
@@ -10486,7 +10486,7 @@
         <v>43902</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="49"/>
@@ -10652,10 +10652,10 @@
         <v>43906</v>
       </c>
       <c r="E21" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" s="48" t="s">
         <v>374</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>375</v>
       </c>
       <c r="G21" s="49"/>
       <c r="N21" s="36" t="b">
@@ -10830,7 +10830,7 @@
         <v>43909</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>93</v>
@@ -13186,10 +13186,10 @@
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -32457,12 +32457,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -32470,11 +32469,12 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32596,10 +32596,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>293</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>294</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -32619,10 +32619,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" ref="D6:D50" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -32757,10 +32757,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32780,10 +32780,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>316</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>317</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32803,10 +32803,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>318</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>319</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32826,10 +32826,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>320</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>321</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32849,10 +32849,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>323</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>324</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32872,10 +32872,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>325</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>326</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32895,10 +32895,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32918,7 +32918,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="52" t="str">
@@ -32939,10 +32939,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D20" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32962,7 +32962,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>177</v>
@@ -32988,7 +32988,7 @@
         <v>178</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33008,10 +33008,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D23" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33031,10 +33031,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D24" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33054,10 +33054,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D25" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33077,10 +33077,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D26" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33100,10 +33100,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D27" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33123,10 +33123,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D28" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33146,10 +33146,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C29" s="82" t="s">
         <v>464</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>465</v>
       </c>
       <c r="D29" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33792,7 +33792,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D6" s="87" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE(Configuration!$B$31,Notebooks!C6,".ipynb"))</f>
@@ -33860,7 +33860,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="87" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE(Configuration!$B$31,Notebooks!C7,".ipynb"))</f>
@@ -33931,7 +33931,7 @@
         <v>182</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" s="87" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE(Configuration!$B$31,Notebooks!C8,".ipynb"))</f>
@@ -34003,10 +34003,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D9" s="87" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE(Configuration!$B$31,Notebooks!C9,".ipynb"))</f>
@@ -34085,7 +34085,7 @@
         <v>183</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D10" s="87" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE(Configuration!$B$31,Notebooks!C10,".ipynb"))</f>
@@ -34173,7 +34173,7 @@
         <v>184</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D11" s="87" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE(Configuration!$B$31,Notebooks!C11,".ipynb"))</f>
@@ -34255,7 +34255,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D12" s="87" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE(Configuration!$B$31,Notebooks!C12,".ipynb"))</f>
@@ -34341,7 +34341,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" s="87" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE(Configuration!$B$31,Notebooks!C13,".ipynb"))</f>
@@ -34431,7 +34431,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D14" s="87" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE(Configuration!$B$31,Notebooks!C14,".ipynb"))</f>
@@ -34525,7 +34525,7 @@
         <v>188</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15" s="87" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE(Configuration!$B$31,Notebooks!C15,".ipynb"))</f>
@@ -34620,10 +34620,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>315</v>
       </c>
       <c r="D16" s="87" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE(Configuration!$B$31,Notebooks!C16,".ipynb"))</f>
@@ -34731,7 +34731,7 @@
         <v>189</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" s="87" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE(Configuration!$B$31,Notebooks!C17,".ipynb"))</f>
@@ -34831,7 +34831,7 @@
         <v>190</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D18" s="87" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE(Configuration!$B$31,Notebooks!C18,".ipynb"))</f>
@@ -34935,7 +34935,7 @@
         <v>191</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D19" s="87" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE(Configuration!$B$31,Notebooks!C19,".ipynb"))</f>
@@ -35043,7 +35043,7 @@
         <v>192</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D20" s="87" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE(Configuration!$B$31,Notebooks!C20,".ipynb"))</f>
@@ -35156,10 +35156,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D21" s="87" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE(Configuration!$B$31,Notebooks!C21,".ipynb"))</f>
@@ -35272,10 +35272,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E22" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35383,13 +35383,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E23" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35501,13 +35501,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E24" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35623,13 +35623,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35752,10 +35752,10 @@
         <v>181</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E26" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35882,10 +35882,10 @@
         <v>180</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E27" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36013,13 +36013,13 @@
         <v>10</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E28" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36151,13 +36151,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E29" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36293,13 +36293,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E30" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36448,10 +36448,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D31" s="87" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE(Configuration!$B$31,Notebooks!C31,".ipynb"))</f>
@@ -36611,10 +36611,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D32" s="87" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE(Configuration!$B$31,Notebooks!C32,".ipynb"))</f>
@@ -36775,10 +36775,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D33" s="87" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE(Configuration!$B$31,Notebooks!C33,".ipynb"))</f>
@@ -36943,10 +36943,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>377</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>378</v>
       </c>
       <c r="D34" s="87" t="str">
         <f>IF(ISBLANK(C34),"",CONCATENATE(Configuration!$B$31,Notebooks!C34,".ipynb"))</f>
@@ -37122,7 +37122,7 @@
         <v>193</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D35" s="87" t="str">
         <f>IF(ISBLANK(C35),"",CONCATENATE(Configuration!$B$31,Notebooks!C35,".ipynb"))</f>
@@ -37291,10 +37291,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>382</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>383</v>
       </c>
       <c r="D36" s="87" t="str">
         <f>IF(ISBLANK(C36),"",CONCATENATE(Configuration!$B$31,Notebooks!C36,".ipynb"))</f>
@@ -37467,10 +37467,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D37" s="87" t="str">
         <f>IF(ISBLANK(C37),"",CONCATENATE(Configuration!$B$31,Notebooks!C37,".ipynb"))</f>
@@ -37647,10 +37647,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>398</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>399</v>
       </c>
       <c r="D38" s="87" t="str">
         <f>IF(ISBLANK(C38),"",CONCATENATE(Configuration!$B$31,Notebooks!C38,".ipynb"))</f>
@@ -37835,10 +37835,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="D39" s="87" t="str">
         <f>IF(ISBLANK(C39),"",CONCATENATE(Configuration!$B$31,Notebooks!C39,".ipynb"))</f>
@@ -38019,10 +38019,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="D40" s="87" t="str">
         <f>IF(ISBLANK(C40),"",CONCATENATE(Configuration!$B$31,Notebooks!C40,".ipynb"))</f>
@@ -38207,10 +38207,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="D41" s="87" t="str">
         <f>IF(ISBLANK(C41),"",CONCATENATE(Configuration!$B$31,Notebooks!C41,".ipynb"))</f>
@@ -38399,10 +38399,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>393</v>
       </c>
       <c r="D42" s="87" t="str">
         <f>IF(ISBLANK(C42),"",CONCATENATE(Configuration!$B$31,Notebooks!C42,".ipynb"))</f>
@@ -38595,10 +38595,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>394</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="D43" s="87" t="str">
         <f>IF(ISBLANK(C43),"",CONCATENATE(Configuration!$B$31,Notebooks!C43,".ipynb"))</f>
@@ -38795,10 +38795,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D44" s="87" t="str">
         <f>IF(ISBLANK(C44),"",CONCATENATE(Configuration!$B$31,Notebooks!C44,".ipynb"))</f>
@@ -38999,10 +38999,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(ISBLANK(C45),"",CONCATENATE(Configuration!$B$31,Notebooks!C45,".ipynb"))</f>
@@ -39207,10 +39207,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>402</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>403</v>
       </c>
       <c r="D46" s="87" t="str">
         <f>IF(ISBLANK(C46),"",CONCATENATE(Configuration!$B$31,Notebooks!C46,".ipynb"))</f>
@@ -39427,10 +39427,10 @@
         <v>18</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>405</v>
       </c>
       <c r="D47" s="87" t="str">
         <f>IF(ISBLANK(C47),"",CONCATENATE(Configuration!$B$31,Notebooks!C47,".ipynb"))</f>
@@ -39635,10 +39635,10 @@
         <v>18</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>407</v>
       </c>
       <c r="D48" s="87" t="str">
         <f>IF(ISBLANK(C48),"",CONCATENATE(Configuration!$B$31,Notebooks!C48,".ipynb"))</f>
@@ -39850,7 +39850,7 @@
         <v>179</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D49" s="87" t="str">
         <f>IF(ISBLANK(C49),"",CONCATENATE(Configuration!$B$31,Notebooks!C49,".ipynb"))</f>
@@ -40063,10 +40063,10 @@
         <v>18</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="D50" s="87" t="str">
         <f>IF(ISBLANK(C50),"",CONCATENATE(Configuration!$B$31,Notebooks!C50,".ipynb"))</f>
@@ -40287,10 +40287,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="D51" s="87" t="str">
         <f>IF(ISBLANK(C51),"",CONCATENATE(Configuration!$B$31,Notebooks!C51,".ipynb"))</f>
@@ -40507,10 +40507,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="D52" s="87" t="str">
         <f>IF(ISBLANK(C52),"",CONCATENATE(Configuration!$B$31,Notebooks!C52,".ipynb"))</f>
@@ -40731,10 +40731,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="D53" s="87" t="str">
         <f>IF(ISBLANK(C53),"",CONCATENATE(Configuration!$B$31,Notebooks!C53,".ipynb"))</f>
@@ -40959,10 +40959,10 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>417</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>418</v>
       </c>
       <c r="D54" s="87" t="str">
         <f>IF(ISBLANK(C54),"",CONCATENATE(Configuration!$B$31,Notebooks!C54,".ipynb"))</f>
@@ -41191,10 +41191,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="D55" s="87" t="str">
         <f>IF(ISBLANK(C55),"",CONCATENATE(Configuration!$B$31,Notebooks!C55,".ipynb"))</f>
@@ -41427,10 +41427,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>421</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>422</v>
       </c>
       <c r="D56" s="87" t="str">
         <f>IF(ISBLANK(C56),"",CONCATENATE(Configuration!$B$31,Notebooks!C56,".ipynb"))</f>
@@ -41667,10 +41667,10 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>423</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>424</v>
       </c>
       <c r="D57" s="87" t="str">
         <f>IF(ISBLANK(C57),"",CONCATENATE(Configuration!$B$31,Notebooks!C57,".ipynb"))</f>
@@ -41911,10 +41911,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="D58" s="87" t="str">
         <f>IF(ISBLANK(C58),"",CONCATENATE(Configuration!$B$31,Notebooks!C58,".ipynb"))</f>
@@ -42159,10 +42159,10 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D59" s="87" t="str">
         <f>IF(ISBLANK(C59),"",CONCATENATE(Configuration!$B$31,Notebooks!C59,".ipynb"))</f>
@@ -42420,10 +42420,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C60" s="94" t="s">
         <v>429</v>
-      </c>
-      <c r="C60" s="94" t="s">
-        <v>430</v>
       </c>
       <c r="D60" s="87" t="str">
         <f>IF(ISBLANK(C60),"",CONCATENATE(Configuration!$B$31,Notebooks!C60,".ipynb"))</f>
@@ -42667,10 +42667,10 @@
         <v>22</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C61" s="94" t="s">
         <v>431</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>432</v>
       </c>
       <c r="D61" s="87" t="str">
         <f>IF(ISBLANK(C61),"",CONCATENATE(Configuration!$B$31,Notebooks!C61,".ipynb"))</f>
@@ -42918,10 +42918,10 @@
         <v>22</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C62" s="94" t="s">
         <v>433</v>
-      </c>
-      <c r="C62" s="94" t="s">
-        <v>434</v>
       </c>
       <c r="D62" s="87" t="str">
         <f>IF(ISBLANK(C62),"",CONCATENATE(Configuration!$B$31,Notebooks!C62,".ipynb"))</f>
@@ -43173,10 +43173,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C63" s="94" t="s">
         <v>435</v>
-      </c>
-      <c r="C63" s="94" t="s">
-        <v>436</v>
       </c>
       <c r="D63" s="87" t="str">
         <f>IF(ISBLANK(C63),"",CONCATENATE(Configuration!$B$31,Notebooks!C63,".ipynb"))</f>
@@ -43432,10 +43432,10 @@
         <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C64" s="94" t="s">
         <v>437</v>
-      </c>
-      <c r="C64" s="94" t="s">
-        <v>438</v>
       </c>
       <c r="D64" s="87" t="str">
         <f>IF(ISBLANK(C64),"",CONCATENATE(Configuration!$B$31,Notebooks!C64,".ipynb"))</f>
@@ -43695,10 +43695,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C65" s="94" t="s">
         <v>439</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>440</v>
       </c>
       <c r="D65" s="87" t="str">
         <f>IF(ISBLANK(C65),"",CONCATENATE(Configuration!$B$31,Notebooks!C65,".ipynb"))</f>
@@ -43962,10 +43962,10 @@
         <v>22</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C66" s="94" t="s">
         <v>441</v>
-      </c>
-      <c r="C66" s="94" t="s">
-        <v>442</v>
       </c>
       <c r="D66" s="87" t="str">
         <f>IF(ISBLANK(C66),"",CONCATENATE(Configuration!$B$31,Notebooks!C66,".ipynb"))</f>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B852E-5DA0-1F49-8BAA-42AADA788735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B4246-80C6-EF41-BAFE-63A061C3EDCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="472">
   <si>
     <t>Wk</t>
   </si>
@@ -1610,6 +1610,12 @@
 *Assignments  are  due  by  11:59  PM  on  the  date  indicated.*
 ---</t>
   </si>
+  <si>
+    <t>https://classroom.github.com/a/XueM8J4Y</t>
+  </si>
+  <si>
+    <t>rpi-techfundamentals/hm-02-starter</t>
+  </si>
 </sst>
 </file>
 
@@ -2300,20 +2306,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2323,10 +2334,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2335,33 +2355,35 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2398,22 +2420,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2738,7 +2744,7 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -2759,65 +2765,65 @@
       <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="105" t="s">
         <v>445</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
@@ -2827,74 +2833,74 @@
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="104" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="108" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="103" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -2904,64 +2910,64 @@
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="103" t="s">
         <v>448</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="100" t="s">
         <v>449</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="103" t="s">
         <v>450</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="103" t="s">
         <v>451</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
@@ -2971,20 +2977,20 @@
       <c r="A21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="113" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="1" ht="14.75" customHeight="1">
       <c r="A22" s="21"/>
@@ -2997,32 +3003,32 @@
       <c r="A23" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="102" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
     </row>
     <row r="24" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="113" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1"/>
@@ -3038,23 +3044,23 @@
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="13" t="s">
         <v>225</v>
       </c>
@@ -3063,12 +3069,12 @@
       <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="13" t="s">
         <v>226</v>
       </c>
@@ -3077,12 +3083,12 @@
       <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="13" t="s">
         <v>245</v>
       </c>
@@ -3101,12 +3107,12 @@
       <c r="A34" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="13" t="s">
         <v>227</v>
       </c>
@@ -3115,12 +3121,12 @@
       <c r="A35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="13" t="s">
         <v>228</v>
       </c>
@@ -3129,12 +3135,12 @@
       <c r="A36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="13" t="s">
         <v>229</v>
       </c>
@@ -3143,12 +3149,12 @@
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="13" t="s">
         <v>230</v>
       </c>
@@ -3167,133 +3173,133 @@
       <c r="A40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="96" t="s">
+      <c r="B43" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="106" t="s">
         <v>330</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
     </row>
     <row r="47" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="111" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="111" t="s">
         <v>465</v>
       </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="30" t="s">
@@ -3429,26 +3435,31 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
@@ -3465,31 +3476,26 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4495,7 +4501,7 @@
     <row r="8" spans="1:1">
       <c r="A8" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H6),"",CONCATENATE("| ",Schedule!H6," | [",Schedule!B6,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B6,".html) | ",TEXT(Schedule!D6+Configuration!$B$6, "mm/dd")," | ",Schedule!I6," | ",IF(ISBLANK(Schedule!U6),"*None*",Schedule!U6)," |"))</f>
-        <v>| 2 | [3](https://rpi.analyticsdojo.com/sessions/session3.html) | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) |  |</v>
+        <v>| 2 | [3](https://rpi.analyticsdojo.com/sessions/session3.html) | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-02-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/XueM8J4Y) |</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4943,7 +4949,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 2 | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) |  |</v>
+| 2 | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-02-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/XueM8J4Y) |</v>
       </c>
       <c r="C5" s="12" t="b">
         <f>Schedule!P6</f>
@@ -4992,7 +4998,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 2 | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) |  |</v>
+| 2 | 01/30 | This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas) | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-02-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/XueM8J4Y) |</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.6">
@@ -8028,12 +8034,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG956"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8064,72 +8070,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="30" customFormat="1" ht="18.25" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122" t="s">
+      <c r="G1" s="127"/>
+      <c r="H1" s="128" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125" t="s">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="125" t="s">
+      <c r="O1" s="131" t="s">
         <v>200</v>
       </c>
       <c r="P1" s="90"/>
-      <c r="Q1" s="131" t="s">
+      <c r="Q1" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="132" t="s">
+      <c r="R1" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="115" t="s">
+      <c r="S1" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="115" t="s">
+      <c r="T1" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="115" t="s">
+      <c r="U1" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="115" t="s">
+      <c r="V1" s="121" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115" t="s">
+      <c r="W1" s="121"/>
+      <c r="X1" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="115" t="s">
+      <c r="Y1" s="121" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="30" customFormat="1" ht="21" thickBot="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="117"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
@@ -8154,20 +8160,20 @@
       <c r="M2" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
       <c r="Z2" s="30" t="s">
         <v>12</v>
       </c>
@@ -8463,6 +8469,15 @@
       <c r="I6" s="44" t="s">
         <v>257</v>
       </c>
+      <c r="K6" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>470</v>
+      </c>
       <c r="N6" s="36" t="b">
         <v>0</v>
       </c>
@@ -8490,7 +8505,7 @@
       </c>
       <c r="U6" s="52" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-02-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/XueM8J4Y)</v>
       </c>
       <c r="V6" s="52" t="str">
         <f t="shared" si="4"/>
@@ -32457,11 +32472,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -32469,12 +32485,11 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B4246-80C6-EF41-BAFE-63A061C3EDCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993D7A7-9F64-5145-B96E-D49F23C5A4BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="474">
   <si>
     <t>Wk</t>
   </si>
@@ -1616,6 +1616,12 @@
   <si>
     <t>rpi-techfundamentals/hm-02-starter</t>
   </si>
+  <si>
+    <t>https://classroom.github.com/a/gC7eBBUv</t>
+  </si>
+  <si>
+    <t>rpi-techfundamentals/hm-03-starter</t>
+  </si>
 </sst>
 </file>
 
@@ -2306,6 +2312,59 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2315,75 +2374,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2420,6 +2410,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2765,65 +2771,65 @@
       <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>445</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
@@ -2833,74 +2839,74 @@
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="109" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="100" t="s">
+      <c r="C10" s="109"/>
+      <c r="D10" s="108" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="103" t="s">
+      <c r="C11" s="102"/>
+      <c r="D11" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="101" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="103" t="s">
+      <c r="C12" s="102"/>
+      <c r="D12" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -2910,64 +2916,64 @@
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="101" t="s">
         <v>448</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="108" t="s">
         <v>449</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="101" t="s">
         <v>451</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
@@ -2977,20 +2983,20 @@
       <c r="A21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="96" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="1" ht="14.75" customHeight="1">
       <c r="A22" s="21"/>
@@ -3003,32 +3009,32 @@
       <c r="A23" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="100" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="99" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1"/>
@@ -3044,23 +3050,23 @@
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="13" t="s">
         <v>225</v>
       </c>
@@ -3069,12 +3075,12 @@
       <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="13" t="s">
         <v>226</v>
       </c>
@@ -3083,12 +3089,12 @@
       <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="13" t="s">
         <v>245</v>
       </c>
@@ -3107,12 +3113,12 @@
       <c r="A34" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="13" t="s">
         <v>227</v>
       </c>
@@ -3121,12 +3127,12 @@
       <c r="A35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="13" t="s">
         <v>228</v>
       </c>
@@ -3135,12 +3141,12 @@
       <c r="A36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="13" t="s">
         <v>229</v>
       </c>
@@ -3149,12 +3155,12 @@
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
       <c r="F37" s="13" t="s">
         <v>230</v>
       </c>
@@ -3173,133 +3179,133 @@
       <c r="A40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="106" t="s">
+      <c r="B44" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="106" t="s">
+      <c r="B46" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
     </row>
     <row r="47" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="111" t="s">
+      <c r="B47" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="111" t="s">
+      <c r="B49" s="96" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="111" t="s">
+      <c r="B51" s="96" t="s">
         <v>465</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="30" t="s">
@@ -3435,31 +3441,26 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
@@ -3476,26 +3477,31 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4513,7 +4519,7 @@
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H8),"",CONCATENATE("| ",Schedule!H8," | [",Schedule!B8,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B8,".html) | ",TEXT(Schedule!D8+Configuration!$B$6, "mm/dd")," | ",Schedule!I8," | ",IF(ISBLANK(Schedule!U8),"*None*",Schedule!U8)," |"))</f>
-        <v>| 3 | [5](https://rpi.analyticsdojo.com/sessions/session5.html) | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. |  |</v>
+        <v>| 3 | [5](https://rpi.analyticsdojo.com/sessions/session5.html) | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-03-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/gC7eBBUv) |</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -5095,7 +5101,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 3 | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. |  |</v>
+| 3 | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-03-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/gC7eBBUv) |</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>Schedule!P8</f>
@@ -5144,7 +5150,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 3 | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. |  |</v>
+| 3 | 02/06 | This assignment will give you some practice in creating functions, filtering and slicing dataframes, and applying if statements.  We wil also enter our first Kaggle competition. | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-03-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/gC7eBBUv) |</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.6">
@@ -8035,11 +8041,11 @@
   <dimension ref="A1:BG956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6:L6"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8070,72 +8076,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="30" customFormat="1" ht="18.25" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131" t="s">
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="131" t="s">
+      <c r="O1" s="125" t="s">
         <v>200</v>
       </c>
       <c r="P1" s="90"/>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="120" t="s">
+      <c r="R1" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="121" t="s">
+      <c r="S1" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="121" t="s">
+      <c r="T1" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="U1" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="121" t="s">
+      <c r="V1" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121" t="s">
+      <c r="W1" s="115"/>
+      <c r="X1" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="121" t="s">
+      <c r="Y1" s="115" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="30" customFormat="1" ht="21" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="123"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
@@ -8160,20 +8166,20 @@
       <c r="M2" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
       <c r="Z2" s="30" t="s">
         <v>12</v>
       </c>
@@ -8685,7 +8691,15 @@
       <c r="I8" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="M8" s="62"/>
+      <c r="K8" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>472</v>
+      </c>
       <c r="N8" s="36" t="b">
         <v>0</v>
       </c>
@@ -8713,7 +8727,7 @@
       </c>
       <c r="U8" s="52" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-03-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/gC7eBBUv)</v>
       </c>
       <c r="V8" s="52" t="str">
         <f t="shared" si="13"/>
@@ -32472,12 +32486,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -32485,11 +32498,12 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993D7A7-9F64-5145-B96E-D49F23C5A4BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52671E37-2752-9741-8638-C40FB8B0843C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="476">
   <si>
     <t>Wk</t>
   </si>
@@ -1622,6 +1622,12 @@
   <si>
     <t>rpi-techfundamentals/hm-03-starter</t>
   </si>
+  <si>
+    <t>rpi-techfundamentals/hm-04-starter</t>
+  </si>
+  <si>
+    <t>https://classroom.github.com/a/KeOUZIyH</t>
+  </si>
 </sst>
 </file>
 
@@ -2312,20 +2318,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2335,10 +2346,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2347,33 +2367,35 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2410,22 +2432,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2771,65 +2777,65 @@
       <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="105" t="s">
         <v>445</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
@@ -2839,74 +2845,74 @@
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="104" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="108" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="103" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -2916,64 +2922,64 @@
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="103" t="s">
         <v>448</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="100" t="s">
         <v>449</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="103" t="s">
         <v>450</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="103" t="s">
         <v>451</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
@@ -2983,20 +2989,20 @@
       <c r="A21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="113" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="1" ht="14.75" customHeight="1">
       <c r="A22" s="21"/>
@@ -3009,32 +3015,32 @@
       <c r="A23" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="102" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
     </row>
     <row r="24" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="113" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1"/>
@@ -3050,23 +3056,23 @@
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="13" t="s">
         <v>225</v>
       </c>
@@ -3075,12 +3081,12 @@
       <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="13" t="s">
         <v>226</v>
       </c>
@@ -3089,12 +3095,12 @@
       <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="13" t="s">
         <v>245</v>
       </c>
@@ -3113,12 +3119,12 @@
       <c r="A34" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="13" t="s">
         <v>227</v>
       </c>
@@ -3127,12 +3133,12 @@
       <c r="A35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="13" t="s">
         <v>228</v>
       </c>
@@ -3141,12 +3147,12 @@
       <c r="A36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="13" t="s">
         <v>229</v>
       </c>
@@ -3155,12 +3161,12 @@
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="13" t="s">
         <v>230</v>
       </c>
@@ -3179,133 +3185,133 @@
       <c r="A40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="96" t="s">
+      <c r="B43" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="106" t="s">
         <v>330</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
     </row>
     <row r="47" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="111" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="111" t="s">
         <v>465</v>
       </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="30" t="s">
@@ -3441,26 +3447,31 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
@@ -3477,31 +3488,26 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4531,7 +4537,7 @@
     <row r="12" spans="1:1">
       <c r="A12" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H10),"",CONCATENATE("| ",Schedule!H10," | [",Schedule!B10,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B10,".html) | ",TEXT(Schedule!D10+Configuration!$B$6, "mm/dd")," | ",Schedule!I10," | ",IF(ISBLANK(Schedule!U10),"*None*",Schedule!U10)," |"))</f>
-        <v>| 4 | [7](https://rpi.analyticsdojo.com/sessions/session7.html) | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  |  |</v>
+        <v>| 4 | [7](https://rpi.analyticsdojo.com/sessions/session7.html) | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-04-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/KeOUZIyH) |</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5247,7 +5253,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 4 | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  |  |</v>
+| 4 | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-04-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/KeOUZIyH) |</v>
       </c>
       <c r="C9" s="12" t="b">
         <f>Schedule!P10</f>
@@ -5296,7 +5302,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 4 | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  |  |</v>
+| 4 | 02/13 | This assignment gives exposure to processing Twitter data, creating visualizations with seaborn, processing websites with beautiful soup, and processing text with regular expressions.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-04-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/KeOUZIyH) |</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="404">
@@ -8041,11 +8047,11 @@
   <dimension ref="A1:BG956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8076,72 +8082,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="30" customFormat="1" ht="18.25" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122" t="s">
+      <c r="G1" s="127"/>
+      <c r="H1" s="128" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125" t="s">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="125" t="s">
+      <c r="O1" s="131" t="s">
         <v>200</v>
       </c>
       <c r="P1" s="90"/>
-      <c r="Q1" s="131" t="s">
+      <c r="Q1" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="132" t="s">
+      <c r="R1" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="115" t="s">
+      <c r="S1" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="115" t="s">
+      <c r="T1" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="115" t="s">
+      <c r="U1" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="115" t="s">
+      <c r="V1" s="121" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115" t="s">
+      <c r="W1" s="121"/>
+      <c r="X1" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="115" t="s">
+      <c r="Y1" s="121" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="30" customFormat="1" ht="21" thickBot="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="117"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
@@ -8166,20 +8172,20 @@
       <c r="M2" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
       <c r="Z2" s="30" t="s">
         <v>12</v>
       </c>
@@ -8938,8 +8944,15 @@
       <c r="I10" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="M10" s="62"/>
+      <c r="K10" s="91" t="s">
+        <v>474</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>475</v>
+      </c>
       <c r="N10" s="36" t="b">
         <v>0</v>
       </c>
@@ -8967,7 +8980,7 @@
       </c>
       <c r="U10" s="52" t="str">
         <f>IF(ISBLANK(M10),"",CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/",K10,"/blob/master/",L10,") | [Submit to Github](",M10,")"))</f>
-        <v/>
+        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-04-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/KeOUZIyH)</v>
       </c>
       <c r="V10" s="52" t="str">
         <f t="shared" si="13"/>
@@ -32486,11 +32499,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -32498,12 +32512,11 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52671E37-2752-9741-8638-C40FB8B0843C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE1866B-AE3E-A148-A7B9-C646785E6982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE1866B-AE3E-A148-A7B9-C646785E6982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1E3C4-997C-E34B-A4C1-ACFC098233EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="477">
   <si>
     <t>Wk</t>
   </si>
@@ -1000,9 +1000,6 @@
     <t xml:space="preserve">Github - Class Content </t>
   </si>
   <si>
-    <t>https://github.com/orgs/rpi-intro-ml-app-fall-2019/</t>
-  </si>
-  <si>
     <t>Dropbox - Presentations/Files</t>
   </si>
   <si>
@@ -1321,9 +1318,6 @@
     <t>Cluster Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">This is an assignment on unsupervised models. </t>
-  </si>
-  <si>
     <t>Starter Notebook</t>
   </si>
   <si>
@@ -1627,6 +1621,15 @@
   </si>
   <si>
     <t>https://classroom.github.com/a/KeOUZIyH</t>
+  </si>
+  <si>
+    <t>https://github.com/orgs/rpi-intro-ml-app-spring-2020/</t>
+  </si>
+  <si>
+    <t>rpi-techfundamentals/hm-05-starter</t>
+  </si>
+  <si>
+    <t>https://classroom.github.com/a/oTZodmBn</t>
   </si>
 </sst>
 </file>
@@ -2318,6 +2321,59 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2327,75 +2383,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2432,6 +2419,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2756,8 +2759,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2777,65 +2780,65 @@
       <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="105" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="104" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="B4" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
@@ -2845,74 +2848,74 @@
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="109" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="103" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="103" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="B12" s="101" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="101" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -2922,64 +2925,64 @@
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="103" t="s">
-        <v>448</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="B15" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>449</v>
-      </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="B16" s="108" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="103" t="s">
-        <v>450</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
+      <c r="B17" s="101" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="103" t="s">
-        <v>451</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
+      <c r="B18" s="101" t="s">
+        <v>449</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
@@ -2989,20 +2992,20 @@
       <c r="A21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="96" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="1" ht="14.75" customHeight="1">
       <c r="A22" s="21"/>
@@ -3015,32 +3018,32 @@
       <c r="A23" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="102" t="s">
-        <v>452</v>
-      </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
+      <c r="B23" s="100" t="s">
+        <v>450</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="113" t="s">
-        <v>446</v>
-      </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
+      <c r="B25" s="99" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1"/>
@@ -3056,23 +3059,23 @@
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="104" t="s">
-        <v>336</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
+      <c r="B28" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="13" t="s">
         <v>225</v>
       </c>
@@ -3081,12 +3084,12 @@
       <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="13" t="s">
         <v>226</v>
       </c>
@@ -3095,12 +3098,12 @@
       <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="13" t="s">
         <v>245</v>
       </c>
@@ -3119,12 +3122,12 @@
       <c r="A34" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="13" t="s">
         <v>227</v>
       </c>
@@ -3133,12 +3136,12 @@
       <c r="A35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="13" t="s">
         <v>228</v>
       </c>
@@ -3147,12 +3150,12 @@
       <c r="A36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="13" t="s">
         <v>229</v>
       </c>
@@ -3161,12 +3164,12 @@
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
       <c r="F37" s="13" t="s">
         <v>230</v>
       </c>
@@ -3185,133 +3188,133 @@
       <c r="A40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="106" t="s">
-        <v>281</v>
-      </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
+      <c r="B42" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="106" t="s">
+      <c r="B44" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="111" t="s">
-        <v>282</v>
-      </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="106" t="s">
-        <v>330</v>
-      </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
+      <c r="B46" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
     </row>
     <row r="47" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="111" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B48" s="106" t="s">
-        <v>290</v>
-      </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
+      <c r="B48" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="111" t="s">
-        <v>466</v>
-      </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="96" t="s">
+        <v>464</v>
+      </c>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
+      <c r="B50" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="111" t="s">
-        <v>465</v>
-      </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="30" t="s">
@@ -3438,40 +3441,35 @@
     </row>
     <row r="71" spans="1:2" ht="128" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
@@ -3488,26 +3486,31 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4479,17 +4482,17 @@
     </row>
     <row r="2" spans="1:1" ht="409.6">
       <c r="A2" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4549,7 +4552,7 @@
     <row r="14" spans="1:1">
       <c r="A14" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H12),"",CONCATENATE("| ",Schedule!H12," | [",Schedule!B12,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B12,".html) | ",TEXT(Schedule!D12+Configuration!$B$6, "mm/dd")," | ",Schedule!I12," | ",IF(ISBLANK(Schedule!U12),"*None*",Schedule!U12)," |"))</f>
-        <v>| 5 | [9](https://rpi.analyticsdojo.com/sessions/session9.html) | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  |  |</v>
+        <v>| 5 | [9](https://rpi.analyticsdojo.com/sessions/session9.html) | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-05-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/oTZodmBn) |</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4579,13 +4582,13 @@
     <row r="19" spans="1:1">
       <c r="A19" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H17),"",CONCATENATE("| ",Schedule!H17," | [",Schedule!B17,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B17,".html) | ",TEXT(Schedule!D17+Configuration!$B$6, "mm/dd")," | ",Schedule!I17," | ",IF(ISBLANK(Schedule!U17),"*None*",Schedule!U17)," |"))</f>
-        <v>| 7 | [14](https://rpi.analyticsdojo.com/sessions/session14.html) | 03/09 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("| ",Schedule!H18," | [",Schedule!B18,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B18,".html) | ",TEXT(Schedule!D18+Configuration!$B$6, "mm/dd")," | ",Schedule!I18," | ",IF(ISBLANK(Schedule!U18),"*None*",Schedule!U18)," |"))</f>
-        <v>| 8 | [15](https://rpi.analyticsdojo.com/sessions/session15.html) | 03/12 | This is an assignment on unsupervised models.  |  |</v>
+        <v>| 7 | [15](https://rpi.analyticsdojo.com/sessions/session15.html) | 03/12 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4803,7 +4806,7 @@
 | 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/veUj-ukg) |</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" s="25"/>
     </row>
@@ -5399,7 +5402,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  |  |</v>
+| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-05-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/oTZodmBn) |</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>Schedule!P12</f>
@@ -5448,7 +5451,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  |  |</v>
+| 5 | 02/20 | This assignment introduces modeling and gives students experience with both the train/test split, confusion matrix, and KNN.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-05-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/oTZodmBn) |</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="409.6">
@@ -5742,7 +5745,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Unsupervised Models&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Midterm&lt;/h1&gt;
 ---
 ### Description
 ---
@@ -5756,11 +5759,7 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-### Assignment
----
-| # | Due Date | Description | Starter | Submit |
-| :---: | :---: | :----- | :--- | :--- |
-| 7 | 03/09 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
+</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>Schedule!P17</f>
@@ -5769,7 +5768,7 @@
       <c r="D16" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E18,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Unsupervised Models&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Midterm&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E16" s="11" t="str">
@@ -5805,11 +5804,7 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-### Assignment
----
-| # | Due Date | Description | Starter | Submit |
-| :---: | :---: | :----- | :--- | :--- |
-| 7 | 03/09 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
+</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.6">
@@ -5823,7 +5818,7 @@
 ---
 ### Description
 ---
-Lab/homework
+Midterm
 ### Learning Objectives
 --- 
 *None*
@@ -5837,7 +5832,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 8 | 03/12 | This is an assignment on unsupervised models.  |  |</v>
+| 7 | 03/12 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
       </c>
       <c r="C17" s="12" t="b">
         <f>Schedule!P18</f>
@@ -5872,7 +5867,7 @@
         <v xml:space="preserve">
 ### Description
 ---
-Lab/homework
+Midterm
 ### Learning Objectives
 --- 
 *None*
@@ -5886,7 +5881,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 8 | 03/12 | This is an assignment on unsupervised models.  |  |</v>
+| 7 | 03/12 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="356">
@@ -8047,11 +8042,11 @@
   <dimension ref="A1:BG956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8082,72 +8077,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="30" customFormat="1" ht="18.25" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131" t="s">
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="131" t="s">
+      <c r="O1" s="125" t="s">
         <v>200</v>
       </c>
       <c r="P1" s="90"/>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="120" t="s">
+      <c r="R1" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="121" t="s">
+      <c r="S1" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="121" t="s">
+      <c r="T1" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="U1" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="121" t="s">
+      <c r="V1" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121" t="s">
+      <c r="W1" s="115"/>
+      <c r="X1" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="121" t="s">
+      <c r="Y1" s="115" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="30" customFormat="1" ht="21" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="123"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
@@ -8164,28 +8159,28 @@
         <v>205</v>
       </c>
       <c r="K2" s="85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M2" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
+        <v>294</v>
+      </c>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
       <c r="Z2" s="30" t="s">
         <v>12</v>
       </c>
@@ -8204,7 +8199,7 @@
         <v>43843</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>243</v>
@@ -8219,13 +8214,13 @@
         <v>255</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L3" s="91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N3" s="36" t="b">
         <v>0</v>
@@ -8472,7 +8467,7 @@
         <v>95</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="39">
@@ -8482,13 +8477,13 @@
         <v>257</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N6" s="36" t="b">
         <v>0</v>
@@ -8695,16 +8690,16 @@
         <v>3</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N8" s="36" t="b">
         <v>0</v>
@@ -8818,7 +8813,7 @@
         <v>99</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G9" s="43"/>
       <c r="N9" s="36" t="b">
@@ -8942,16 +8937,16 @@
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K10" s="91" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N10" s="36" t="b">
         <v>0</v>
@@ -9229,10 +9224,19 @@
         <v>5</v>
       </c>
       <c r="I12" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J12" s="92" t="s">
         <v>357</v>
       </c>
-      <c r="J12" s="92" t="s">
-        <v>358</v>
+      <c r="K12" s="91" t="s">
+        <v>475</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>476</v>
       </c>
       <c r="N12" s="36" t="b">
         <v>0</v>
@@ -9261,7 +9265,7 @@
       </c>
       <c r="U12" s="52" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-05-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/oTZodmBn)</v>
       </c>
       <c r="V12" s="52" t="str">
         <f t="shared" si="21"/>
@@ -9535,7 +9539,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N14" s="36" t="b">
         <v>0</v>
@@ -9688,7 +9692,7 @@
         <v>43885</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>114</v>
@@ -9847,7 +9851,7 @@
         <v>43888</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>93</v>
@@ -9872,11 +9876,11 @@
       </c>
       <c r="S16" s="52" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve"> &lt;br&gt; ** &lt;br&gt;</v>
+        <v/>
       </c>
       <c r="T16" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Python and Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session13.html) &lt;br&gt; ** &lt;br&gt;</v>
+        <v>**Python and Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session13.html)</v>
       </c>
       <c r="U16" s="52" t="str">
         <f t="shared" si="20"/>
@@ -10010,18 +10014,12 @@
         <v>43892</v>
       </c>
       <c r="E17" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="F17" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="F17" s="48" t="s">
-        <v>372</v>
-      </c>
       <c r="G17" s="43"/>
-      <c r="H17" s="39">
-        <v>7</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>384</v>
-      </c>
       <c r="N17" s="36" t="b">
         <v>0</v>
       </c>
@@ -10033,7 +10031,7 @@
       </c>
       <c r="Q17" s="57" t="str">
         <f>IF(ISBLANK(H17),"",CONCATENATE("Assignment ",H17," due ", TEXT(D17+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
-        <v>Assignment 7 due 03/09 11:59 PM</v>
+        <v/>
       </c>
       <c r="R17" s="52" t="str">
         <f>IF(B17&gt;0,CONCATENATE("[more](",Configuration!B$30,Configuration!B$29,"sessions/session",B17,".html)"),"")</f>
@@ -10041,11 +10039,11 @@
       </c>
       <c r="S17" s="52" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve"> &lt;br&gt; *Assignment 7 due 03/09 11:59 PM* &lt;br&gt;</v>
+        <v xml:space="preserve"> &lt;br&gt; ** &lt;br&gt;</v>
       </c>
       <c r="T17" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) &lt;br&gt; *Assignment 7 due 03/09 11:59 PM* &lt;br&gt;</v>
+        <v>**Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
       <c r="U17" s="52" t="str">
         <f t="shared" si="20"/>
@@ -10105,9 +10103,7 @@
       </c>
       <c r="X17" s="52" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">  - title: Assignment 7
-    url: /assignments/assign7
-    not_numbered: true</v>
+        <v/>
       </c>
       <c r="Y17" s="52" t="str">
         <f t="shared" si="24"/>
@@ -10130,9 +10126,7 @@
   - title: Assignment 6
     url: /assignments/assign6
     not_numbered: true
-  - title: Assignment 7
-    url: /assignments/assign7
-    not_numbered: true</v>
+</v>
       </c>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
@@ -10185,17 +10179,17 @@
         <v>43895</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L18" s="93"/>
       <c r="N18" s="36" t="b">
@@ -10209,7 +10203,7 @@
       </c>
       <c r="Q18" s="57" t="str">
         <f>IF(ISBLANK(H18),"",CONCATENATE("Assignment ",H18," due ", TEXT(D18+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
-        <v>Assignment 8 due 03/12 11:59 PM</v>
+        <v>Assignment 7 due 03/12 11:59 PM</v>
       </c>
       <c r="R18" s="52" t="str">
         <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$30,Configuration!B$29,"sessions/session",B18,".html)"),"")</f>
@@ -10221,7 +10215,7 @@
       </c>
       <c r="T18" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session15.html)</v>
+        <v>**Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session15.html)</v>
       </c>
       <c r="U18" s="52" t="str">
         <f t="shared" si="20"/>
@@ -10284,8 +10278,8 @@
       </c>
       <c r="X18" s="52" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">  - title: Assignment 8
-    url: /assignments/assign8
+        <v xml:space="preserve">  - title: Assignment 7
+    url: /assignments/assign7
     not_numbered: true</v>
       </c>
       <c r="Y18" s="52" t="str">
@@ -10311,9 +10305,6 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
-    not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
     not_numbered: true</v>
       </c>
       <c r="Z18" s="27"/>
@@ -10365,7 +10356,7 @@
         <v>43899</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="43"/>
@@ -10473,9 +10464,6 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
-    not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
     not_numbered: true
 </v>
       </c>
@@ -10528,7 +10516,7 @@
         <v>43902</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="49"/>
@@ -10637,9 +10625,6 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
-    not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
     not_numbered: true
 </v>
       </c>
@@ -10694,10 +10679,10 @@
         <v>43906</v>
       </c>
       <c r="E21" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" s="48" t="s">
         <v>373</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>374</v>
       </c>
       <c r="G21" s="49"/>
       <c r="N21" s="36" t="b">
@@ -10814,9 +10799,6 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
-    not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
     not_numbered: true
 </v>
       </c>
@@ -10872,7 +10854,7 @@
         <v>43909</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>93</v>
@@ -10995,9 +10977,6 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
-    not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
     not_numbered: true
 </v>
       </c>
@@ -11180,9 +11159,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z23" s="27"/>
@@ -11367,9 +11343,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z24" s="27"/>
@@ -11557,9 +11530,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z25" s="27"/>
@@ -11750,9 +11720,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z26" s="27"/>
@@ -11946,9 +11913,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z27" s="27"/>
@@ -12145,9 +12109,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z28" s="27"/>
@@ -12347,9 +12308,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z29" s="27"/>
@@ -12550,9 +12508,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z30" s="27"/>
@@ -12758,9 +12713,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z31" s="27"/>
@@ -12967,9 +12919,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z32" s="27"/>
@@ -13178,9 +13127,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
       <c r="Z33" s="27"/>
@@ -13228,10 +13174,10 @@
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -13388,9 +13334,6 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
-    not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
     not_numbered: true
 </v>
       </c>
@@ -13579,9 +13522,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -13743,9 +13683,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -13907,9 +13844,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -14071,9 +14005,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -14235,9 +14166,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -14399,9 +14327,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -14563,9 +14488,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -14727,9 +14649,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -14891,9 +14810,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -15055,9 +14971,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -15219,9 +15132,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -15383,9 +15293,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -15547,9 +15454,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -15711,9 +15615,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -15875,9 +15776,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -16039,9 +15937,6 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
-    not_numbered: true
 </v>
       </c>
     </row>
@@ -16202,9 +16097,6 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
-    not_numbered: true
-  - title: Assignment 8
-    url: /assignments/assign8
     not_numbered: true
 </v>
       </c>
@@ -32499,12 +32391,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -32512,11 +32403,12 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32638,10 +32530,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>292</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>293</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -32661,10 +32553,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" ref="D6:D50" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -32730,10 +32622,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>284</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>285</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32753,10 +32645,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>284</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>285</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32776,10 +32668,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>286</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>287</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32799,10 +32691,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32822,10 +32714,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>315</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>316</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32845,10 +32737,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>317</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>318</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32868,10 +32760,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>319</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>320</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32891,10 +32783,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>322</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>323</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32914,10 +32806,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>324</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>325</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32937,10 +32829,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32960,7 +32852,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="52" t="str">
@@ -32981,10 +32873,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D20" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33004,7 +32896,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>177</v>
@@ -33030,7 +32922,7 @@
         <v>178</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33050,10 +32942,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D23" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33073,10 +32965,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D24" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33096,10 +32988,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D25" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33119,10 +33011,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D26" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33142,10 +33034,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D27" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33165,10 +33057,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>462</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>464</v>
       </c>
       <c r="D28" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33188,10 +33080,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D29" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33834,7 +33726,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="87" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE(Configuration!$B$31,Notebooks!C6,".ipynb"))</f>
@@ -33902,7 +33794,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D7" s="87" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE(Configuration!$B$31,Notebooks!C7,".ipynb"))</f>
@@ -33973,7 +33865,7 @@
         <v>182</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" s="87" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE(Configuration!$B$31,Notebooks!C8,".ipynb"))</f>
@@ -34045,10 +33937,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D9" s="87" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE(Configuration!$B$31,Notebooks!C9,".ipynb"))</f>
@@ -34127,7 +34019,7 @@
         <v>183</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" s="87" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE(Configuration!$B$31,Notebooks!C10,".ipynb"))</f>
@@ -34215,7 +34107,7 @@
         <v>184</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D11" s="87" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE(Configuration!$B$31,Notebooks!C11,".ipynb"))</f>
@@ -34297,7 +34189,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D12" s="87" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE(Configuration!$B$31,Notebooks!C12,".ipynb"))</f>
@@ -34383,7 +34275,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D13" s="87" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE(Configuration!$B$31,Notebooks!C13,".ipynb"))</f>
@@ -34473,7 +34365,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D14" s="87" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE(Configuration!$B$31,Notebooks!C14,".ipynb"))</f>
@@ -34567,7 +34459,7 @@
         <v>188</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D15" s="87" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE(Configuration!$B$31,Notebooks!C15,".ipynb"))</f>
@@ -34662,10 +34554,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>313</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>314</v>
       </c>
       <c r="D16" s="87" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE(Configuration!$B$31,Notebooks!C16,".ipynb"))</f>
@@ -34773,7 +34665,7 @@
         <v>189</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D17" s="87" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE(Configuration!$B$31,Notebooks!C17,".ipynb"))</f>
@@ -34873,7 +34765,7 @@
         <v>190</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D18" s="87" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE(Configuration!$B$31,Notebooks!C18,".ipynb"))</f>
@@ -34977,7 +34869,7 @@
         <v>191</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D19" s="87" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE(Configuration!$B$31,Notebooks!C19,".ipynb"))</f>
@@ -35085,7 +34977,7 @@
         <v>192</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D20" s="87" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE(Configuration!$B$31,Notebooks!C20,".ipynb"))</f>
@@ -35198,10 +35090,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D21" s="87" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE(Configuration!$B$31,Notebooks!C21,".ipynb"))</f>
@@ -35314,10 +35206,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35425,13 +35317,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E23" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35543,13 +35435,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35665,13 +35557,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35794,10 +35686,10 @@
         <v>181</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E26" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35924,10 +35816,10 @@
         <v>180</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36055,13 +35947,13 @@
         <v>10</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36193,13 +36085,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36335,13 +36227,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E30" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36490,10 +36382,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D31" s="87" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE(Configuration!$B$31,Notebooks!C31,".ipynb"))</f>
@@ -36653,10 +36545,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D32" s="87" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE(Configuration!$B$31,Notebooks!C32,".ipynb"))</f>
@@ -36817,10 +36709,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D33" s="87" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE(Configuration!$B$31,Notebooks!C33,".ipynb"))</f>
@@ -36985,10 +36877,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>376</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>377</v>
       </c>
       <c r="D34" s="87" t="str">
         <f>IF(ISBLANK(C34),"",CONCATENATE(Configuration!$B$31,Notebooks!C34,".ipynb"))</f>
@@ -37164,7 +37056,7 @@
         <v>193</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D35" s="87" t="str">
         <f>IF(ISBLANK(C35),"",CONCATENATE(Configuration!$B$31,Notebooks!C35,".ipynb"))</f>
@@ -37333,10 +37225,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D36" s="87" t="str">
         <f>IF(ISBLANK(C36),"",CONCATENATE(Configuration!$B$31,Notebooks!C36,".ipynb"))</f>
@@ -37509,10 +37401,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D37" s="87" t="str">
         <f>IF(ISBLANK(C37),"",CONCATENATE(Configuration!$B$31,Notebooks!C37,".ipynb"))</f>
@@ -37689,10 +37581,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D38" s="87" t="str">
         <f>IF(ISBLANK(C38),"",CONCATENATE(Configuration!$B$31,Notebooks!C38,".ipynb"))</f>
@@ -37877,10 +37769,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D39" s="87" t="str">
         <f>IF(ISBLANK(C39),"",CONCATENATE(Configuration!$B$31,Notebooks!C39,".ipynb"))</f>
@@ -38061,10 +37953,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D40" s="87" t="str">
         <f>IF(ISBLANK(C40),"",CONCATENATE(Configuration!$B$31,Notebooks!C40,".ipynb"))</f>
@@ -38249,10 +38141,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D41" s="87" t="str">
         <f>IF(ISBLANK(C41),"",CONCATENATE(Configuration!$B$31,Notebooks!C41,".ipynb"))</f>
@@ -38441,10 +38333,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D42" s="87" t="str">
         <f>IF(ISBLANK(C42),"",CONCATENATE(Configuration!$B$31,Notebooks!C42,".ipynb"))</f>
@@ -38637,10 +38529,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D43" s="87" t="str">
         <f>IF(ISBLANK(C43),"",CONCATENATE(Configuration!$B$31,Notebooks!C43,".ipynb"))</f>
@@ -38837,10 +38729,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D44" s="87" t="str">
         <f>IF(ISBLANK(C44),"",CONCATENATE(Configuration!$B$31,Notebooks!C44,".ipynb"))</f>
@@ -39041,10 +38933,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(ISBLANK(C45),"",CONCATENATE(Configuration!$B$31,Notebooks!C45,".ipynb"))</f>
@@ -39249,10 +39141,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D46" s="87" t="str">
         <f>IF(ISBLANK(C46),"",CONCATENATE(Configuration!$B$31,Notebooks!C46,".ipynb"))</f>
@@ -39469,10 +39361,10 @@
         <v>18</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D47" s="87" t="str">
         <f>IF(ISBLANK(C47),"",CONCATENATE(Configuration!$B$31,Notebooks!C47,".ipynb"))</f>
@@ -39677,10 +39569,10 @@
         <v>18</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D48" s="87" t="str">
         <f>IF(ISBLANK(C48),"",CONCATENATE(Configuration!$B$31,Notebooks!C48,".ipynb"))</f>
@@ -39892,7 +39784,7 @@
         <v>179</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D49" s="87" t="str">
         <f>IF(ISBLANK(C49),"",CONCATENATE(Configuration!$B$31,Notebooks!C49,".ipynb"))</f>
@@ -40105,10 +39997,10 @@
         <v>18</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D50" s="87" t="str">
         <f>IF(ISBLANK(C50),"",CONCATENATE(Configuration!$B$31,Notebooks!C50,".ipynb"))</f>
@@ -40329,10 +40221,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D51" s="87" t="str">
         <f>IF(ISBLANK(C51),"",CONCATENATE(Configuration!$B$31,Notebooks!C51,".ipynb"))</f>
@@ -40549,10 +40441,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D52" s="87" t="str">
         <f>IF(ISBLANK(C52),"",CONCATENATE(Configuration!$B$31,Notebooks!C52,".ipynb"))</f>
@@ -40773,10 +40665,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D53" s="87" t="str">
         <f>IF(ISBLANK(C53),"",CONCATENATE(Configuration!$B$31,Notebooks!C53,".ipynb"))</f>
@@ -41001,10 +40893,10 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D54" s="87" t="str">
         <f>IF(ISBLANK(C54),"",CONCATENATE(Configuration!$B$31,Notebooks!C54,".ipynb"))</f>
@@ -41233,10 +41125,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D55" s="87" t="str">
         <f>IF(ISBLANK(C55),"",CONCATENATE(Configuration!$B$31,Notebooks!C55,".ipynb"))</f>
@@ -41469,10 +41361,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D56" s="87" t="str">
         <f>IF(ISBLANK(C56),"",CONCATENATE(Configuration!$B$31,Notebooks!C56,".ipynb"))</f>
@@ -41709,10 +41601,10 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D57" s="87" t="str">
         <f>IF(ISBLANK(C57),"",CONCATENATE(Configuration!$B$31,Notebooks!C57,".ipynb"))</f>
@@ -41953,10 +41845,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D58" s="87" t="str">
         <f>IF(ISBLANK(C58),"",CONCATENATE(Configuration!$B$31,Notebooks!C58,".ipynb"))</f>
@@ -42201,10 +42093,10 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D59" s="87" t="str">
         <f>IF(ISBLANK(C59),"",CONCATENATE(Configuration!$B$31,Notebooks!C59,".ipynb"))</f>
@@ -42462,10 +42354,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D60" s="87" t="str">
         <f>IF(ISBLANK(C60),"",CONCATENATE(Configuration!$B$31,Notebooks!C60,".ipynb"))</f>
@@ -42709,10 +42601,10 @@
         <v>22</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D61" s="87" t="str">
         <f>IF(ISBLANK(C61),"",CONCATENATE(Configuration!$B$31,Notebooks!C61,".ipynb"))</f>
@@ -42960,10 +42852,10 @@
         <v>22</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C62" s="94" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D62" s="87" t="str">
         <f>IF(ISBLANK(C62),"",CONCATENATE(Configuration!$B$31,Notebooks!C62,".ipynb"))</f>
@@ -43215,10 +43107,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D63" s="87" t="str">
         <f>IF(ISBLANK(C63),"",CONCATENATE(Configuration!$B$31,Notebooks!C63,".ipynb"))</f>
@@ -43474,10 +43366,10 @@
         <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D64" s="87" t="str">
         <f>IF(ISBLANK(C64),"",CONCATENATE(Configuration!$B$31,Notebooks!C64,".ipynb"))</f>
@@ -43737,10 +43629,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D65" s="87" t="str">
         <f>IF(ISBLANK(C65),"",CONCATENATE(Configuration!$B$31,Notebooks!C65,".ipynb"))</f>
@@ -44004,10 +43896,10 @@
         <v>22</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D66" s="87" t="str">
         <f>IF(ISBLANK(C66),"",CONCATENATE(Configuration!$B$31,Notebooks!C66,".ipynb"))</f>
@@ -54291,7 +54183,7 @@
 "))</f>
         <v xml:space="preserve"># External link
 - title: Github - Assignments
-  url: https://github.com/orgs/rpi-intro-ml-app-fall-2019/
+  url: https://github.com/orgs/rpi-intro-ml-app-spring-2020/
   external: true
   not_numbered: true
 </v>
@@ -54689,19 +54581,19 @@
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A16),"",CONCATENATE("| ",Schedule!A16," | ",Schedule!B16," | ",Schedule!C16," | ",TEXT(Schedule!D16,"mm/dd")," | ",Schedule!T16," |"))</f>
-        <v>| 7 | 13 | Th | 02/27 | **Python and Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session13.html) &lt;br&gt; ** &lt;br&gt; |</v>
+        <v>| 7 | 13 | Th | 02/27 | **Python and Regression** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session13.html) |</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A17),"",CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!T17," |"))</f>
-        <v>| 8 | 14 | M | 03/02 | **Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) &lt;br&gt; *Assignment 7 due 03/09 11:59 PM* &lt;br&gt; |</v>
+        <v>| 8 | 14 | M | 03/02 | **Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) &lt;br&gt; ** &lt;br&gt; |</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A18),"",CONCATENATE("| ",Schedule!A18," | ",Schedule!B18," | ",Schedule!C18," | ",TEXT(Schedule!D18,"mm/dd")," | ",Schedule!T18," |"))</f>
-        <v>| 8 | 15 | Th | 03/05 | **Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session15.html) |</v>
+        <v>| 8 | 15 | Th | 03/05 | **Midterm** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session15.html) |</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1E3C4-997C-E34B-A4C1-ACFC098233EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F935A-7D3E-504C-9B73-5D50E59FD92A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="478">
   <si>
     <t>Wk</t>
   </si>
@@ -1631,6 +1631,9 @@
   <si>
     <t>https://classroom.github.com/a/oTZodmBn</t>
   </si>
+  <si>
+    <t>https://classroom.github.com/a/rZbj5u7P</t>
+  </si>
 </sst>
 </file>
 
@@ -2321,20 +2324,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2344,10 +2352,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2356,33 +2373,35 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2419,22 +2438,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2780,65 +2783,65 @@
       <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="105" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="104" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
@@ -2848,74 +2851,74 @@
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="104" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="108" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="103" t="s">
         <v>445</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="103" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -2925,64 +2928,64 @@
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="103" t="s">
         <v>446</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="100" t="s">
         <v>447</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="103" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="103" t="s">
         <v>449</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
@@ -2992,20 +2995,20 @@
       <c r="A21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="113" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="1" ht="14.75" customHeight="1">
       <c r="A22" s="21"/>
@@ -3018,32 +3021,32 @@
       <c r="A23" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="102" t="s">
         <v>450</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
     </row>
     <row r="24" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="113" t="s">
         <v>444</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1"/>
@@ -3059,23 +3062,23 @@
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="13" t="s">
         <v>225</v>
       </c>
@@ -3084,12 +3087,12 @@
       <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="13" t="s">
         <v>226</v>
       </c>
@@ -3098,12 +3101,12 @@
       <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="13" t="s">
         <v>245</v>
       </c>
@@ -3122,12 +3125,12 @@
       <c r="A34" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="13" t="s">
         <v>227</v>
       </c>
@@ -3136,12 +3139,12 @@
       <c r="A35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="13" t="s">
         <v>228</v>
       </c>
@@ -3150,12 +3153,12 @@
       <c r="A36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="13" t="s">
         <v>229</v>
       </c>
@@ -3164,12 +3167,12 @@
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="13" t="s">
         <v>230</v>
       </c>
@@ -3188,133 +3191,133 @@
       <c r="A40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="96" t="s">
+      <c r="B43" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
     </row>
     <row r="47" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="111" t="s">
         <v>474</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="106" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="111" t="s">
         <v>464</v>
       </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="111" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="30" t="s">
@@ -3450,26 +3453,31 @@
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
@@ -3486,31 +3494,26 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4564,7 +4567,7 @@
     <row r="16" spans="1:1">
       <c r="A16" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H14),"",CONCATENATE("| ",Schedule!H14," | [",Schedule!B14,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B14,".html) | ",TEXT(Schedule!D14+Configuration!$B$6, "mm/dd")," | ",Schedule!I14," | ",IF(ISBLANK(Schedule!U14),"*None*",Schedule!U14)," |"))</f>
-        <v>| 6 | [11](https://rpi.analyticsdojo.com/sessions/session11.html) | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  |  |</v>
+        <v>| 6 | [11](https://rpi.analyticsdojo.com/sessions/session11.html) | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](https://classroom.github.com/a/rZbj5u7P) |</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5548,7 +5551,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 6 | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  |  |</v>
+| 6 | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](https://classroom.github.com/a/rZbj5u7P) |</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>Schedule!P14</f>
@@ -5597,7 +5600,7 @@
 ---
 | # | Due Date | Description | Starter | Submit |
 | :---: | :---: | :----- | :--- | :--- |
-| 6 | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  |  |</v>
+| 6 | 02/28 | This is a simple R assignment meant to bring you up to speed with the basics of R.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](https://classroom.github.com/a/rZbj5u7P) |</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="388">
@@ -5738,7 +5741,7 @@
 </v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="409.6">
+    <row r="16" spans="1:7" ht="372">
       <c r="A16" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B17),"",CONCATENATE("session",Schedule!B17))</f>
         <v>session14</v>
@@ -8042,11 +8045,11 @@
   <dimension ref="A1:BG956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8077,72 +8080,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="30" customFormat="1" ht="18.25" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122" t="s">
+      <c r="G1" s="127"/>
+      <c r="H1" s="128" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125" t="s">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="125" t="s">
+      <c r="O1" s="131" t="s">
         <v>200</v>
       </c>
       <c r="P1" s="90"/>
-      <c r="Q1" s="131" t="s">
+      <c r="Q1" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="132" t="s">
+      <c r="R1" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="115" t="s">
+      <c r="S1" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="115" t="s">
+      <c r="T1" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="115" t="s">
+      <c r="U1" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="115" t="s">
+      <c r="V1" s="121" t="s">
         <v>216</v>
       </c>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115" t="s">
+      <c r="W1" s="121"/>
+      <c r="X1" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="115" t="s">
+      <c r="Y1" s="121" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="30" customFormat="1" ht="21" thickBot="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="117"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
@@ -8167,20 +8170,20 @@
       <c r="M2" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
       <c r="Z2" s="30" t="s">
         <v>12</v>
       </c>
@@ -9541,6 +9544,9 @@
       <c r="I14" s="43" t="s">
         <v>369</v>
       </c>
+      <c r="M14" s="36" t="s">
+        <v>477</v>
+      </c>
       <c r="N14" s="36" t="b">
         <v>0</v>
       </c>
@@ -9568,7 +9574,7 @@
       </c>
       <c r="U14" s="52" t="str">
         <f>IF(ISBLANK(M14),"",CONCATENATE("[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](",M14,")"))</f>
-        <v/>
+        <v>[![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://notebooks.azure.com/anon-jhavvq/projects/assignment06) | [Submit to Github](https://classroom.github.com/a/rZbj5u7P)</v>
       </c>
       <c r="V14" s="52" t="str">
         <f t="shared" si="21"/>
@@ -32391,11 +32397,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -32403,12 +32410,11 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_f_s/IntroMLShared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F935A-7D3E-504C-9B73-5D50E59FD92A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA15122-3301-174C-8328-1F92984F8FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="482">
   <si>
     <t>Wk</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Fall Classes Begin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Big Data </t>
   </si>
   <si>
     <t>Official date of August graduation; diplomas mailed to students after final clearance is completed in September. Degree recipients may take part in the May 2020 Commencement ceremony.</t>
@@ -366,9 +363,6 @@
   </si>
   <si>
     <t>The goal of this class is to investigate basic concepts surrounding text mining.</t>
-  </si>
-  <si>
-    <t>The goal here is to provide an overview of how data processes can be scaled with Spark.</t>
   </si>
   <si>
     <t xml:space="preserve">Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. </t>
@@ -1300,12 +1294,6 @@
     <t xml:space="preserve">Unsupervised models are frequently used to subset data into subpoluations or to generate features.  </t>
   </si>
   <si>
-    <t>Advanced Supervised Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will examine some cases and further explore the modeling process. </t>
-  </si>
-  <si>
     <t>https://rstudio.cloud/project/232375</t>
   </si>
   <si>
@@ -1328,9 +1316,6 @@
   </si>
   <si>
     <t>14-unsupervised/03-kmeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please correct your midterm as homework. Resubmit to same repository. </t>
   </si>
   <si>
     <t>Titanic Feature Creation</t>
@@ -1633,6 +1618,33 @@
   </si>
   <si>
     <t>https://classroom.github.com/a/rZbj5u7P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please correct your midterm as homework. Resubmit to same repository as the midterm. You will receive partial credit on midterm (50%) for corrected answers.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an assignment on unsupervised models. </t>
+  </si>
+  <si>
+    <t>Extended Spring Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no class, but will be available for meeting about project during class time and office hours. </t>
+  </si>
+  <si>
+    <t>Time Series Analysis, Unsupervised models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project sections 1-3. Submit via LMS. </t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal is to get you familiar with Spark and the general big data infrastructure. </t>
+  </si>
+  <si>
+    <t>Final project submissions. Please include all sections. Sumbit to LMS.</t>
   </si>
 </sst>
 </file>
@@ -2324,6 +2336,59 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2333,75 +2398,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2438,6 +2434,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2775,73 +2787,73 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="19">
       <c r="A1" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="105" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+        <v>113</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+        <v>136</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>466</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+        <v>138</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+        <v>137</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="106" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+        <v>139</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+        <v>251</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
@@ -2849,76 +2861,76 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
+        <v>127</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="105"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+        <v>128</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="103" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
+        <v>129</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="103" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+        <v>202</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+        <v>130</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -2926,66 +2938,66 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="103" t="s">
-        <v>446</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+        <v>131</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="100" t="s">
-        <v>447</v>
-      </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+        <v>128</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="103" t="s">
-        <v>448</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
+        <v>129</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="103" t="s">
-        <v>449</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
+        <v>202</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
+        <v>130</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
@@ -2993,22 +3005,22 @@
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+        <v>134</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="1" ht="14.75" customHeight="1">
       <c r="A22" s="21"/>
@@ -3019,34 +3031,34 @@
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="99" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="102" t="s">
-        <v>450</v>
-      </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
+        <v>199</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
+        <v>200</v>
+      </c>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="38" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="113" t="s">
-        <v>444</v>
-      </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
+        <v>201</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>439</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1"/>
@@ -3054,61 +3066,61 @@
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="19">
       <c r="A27" s="55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="104" t="s">
-        <v>335</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
+        <v>116</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
+        <v>119</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
+        <v>118</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
+        <v>242</v>
+      </c>
+      <c r="B31" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
@@ -3117,64 +3129,64 @@
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="19">
       <c r="A33" s="55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
+        <v>120</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+        <v>122</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
+        <v>206</v>
+      </c>
+      <c r="B37" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
       <c r="F37" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -3184,246 +3196,246 @@
     </row>
     <row r="39" spans="1:6" ht="19">
       <c r="A39" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="106" t="s">
-        <v>267</v>
-      </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
+        <v>148</v>
+      </c>
+      <c r="B40" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="111" t="s">
-        <v>268</v>
-      </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
+        <v>159</v>
+      </c>
+      <c r="B41" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="106" t="s">
-        <v>280</v>
-      </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
+        <v>149</v>
+      </c>
+      <c r="B42" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
+        <v>159</v>
+      </c>
+      <c r="B43" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="106" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
+        <v>150</v>
+      </c>
+      <c r="B44" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="111" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
+        <v>159</v>
+      </c>
+      <c r="B45" s="96" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
     </row>
     <row r="46" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B46" s="106" t="s">
-        <v>329</v>
-      </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
+        <v>264</v>
+      </c>
+      <c r="B46" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
     </row>
     <row r="47" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="111" t="s">
-        <v>474</v>
-      </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
+        <v>159</v>
+      </c>
+      <c r="B47" s="96" t="s">
+        <v>469</v>
+      </c>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
     </row>
     <row r="48" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B48" s="106" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
+        <v>276</v>
+      </c>
+      <c r="B48" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B49" s="111" t="s">
-        <v>464</v>
-      </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
+        <v>159</v>
+      </c>
+      <c r="B49" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" s="106" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
+        <v>276</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
     </row>
     <row r="51" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="111" t="s">
-        <v>463</v>
-      </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
+        <v>159</v>
+      </c>
+      <c r="B51" s="96" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="27" customFormat="1" ht="19">
       <c r="A53" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" s="70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" s="71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="72" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" s="71" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" s="71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1">
       <c r="A65" s="72" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1">
@@ -3444,40 +3456,35 @@
     </row>
     <row r="71" spans="1:2" ht="128" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:E28"/>
@@ -3494,26 +3501,31 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3551,17 +3563,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3939,17 +3951,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="51">
       <c r="A1" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4480,22 +4492,22 @@
   <sheetData>
     <row r="1" spans="1:1" s="27" customFormat="1" ht="51">
       <c r="A1" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.6">
       <c r="A2" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4591,7 +4603,7 @@
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H18),"",CONCATENATE("| ",Schedule!H18," | [",Schedule!B18,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B18,".html) | ",TEXT(Schedule!D18+Configuration!$B$6, "mm/dd")," | ",Schedule!I18," | ",IF(ISBLANK(Schedule!U18),"*None*",Schedule!U18)," |"))</f>
-        <v>| 7 | [15](https://rpi.analyticsdojo.com/sessions/session15.html) | 03/12 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4615,7 +4627,7 @@
     <row r="24" spans="1:1">
       <c r="A24" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H22),"",CONCATENATE("| ",Schedule!H22," | [",Schedule!B22,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B22,".html) | ",TEXT(Schedule!D22+Configuration!$B$6, "mm/dd")," | ",Schedule!I22," | ",IF(ISBLANK(Schedule!U22),"*None*",Schedule!U22)," |"))</f>
-        <v/>
+        <v>| 7 | [17](https://rpi.analyticsdojo.com/sessions/session17.html) | 03/26 | Please correct your midterm as homework. Resubmit to same repository as the midterm. You will receive partial credit on midterm (50%) for corrected answers.   |  |</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -4627,13 +4639,13 @@
     <row r="26" spans="1:1">
       <c r="A26" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H24),"",CONCATENATE("| ",Schedule!H24," | [",Schedule!B24,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B24,".html) | ",TEXT(Schedule!D24+Configuration!$B$6, "mm/dd")," | ",Schedule!I24," | ",IF(ISBLANK(Schedule!U24),"*None*",Schedule!U24)," |"))</f>
-        <v/>
+        <v>| 8 | [19](https://rpi.analyticsdojo.com/sessions/session19.html) | 04/02 | This is an assignment on unsupervised models.  |  |</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H25),"",CONCATENATE("| ",Schedule!H25," | [",Schedule!B25,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B25,".html) | ",TEXT(Schedule!D25+Configuration!$B$6, "mm/dd")," | ",Schedule!I25," | ",IF(ISBLANK(Schedule!#REF!),"*None*",Schedule!U25)," |"))</f>
-        <v/>
+        <v>| 9 | [20](https://rpi.analyticsdojo.com/sessions/session20.html) | 04/06 | Project sections 1-3. Submit via LMS.  |  |</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4681,7 +4693,7 @@
     <row r="35" spans="1:1">
       <c r="A35" s="27" t="str">
         <f>IF(ISBLANK(Schedule!H33),"",CONCATENATE("| ",Schedule!H33," | [",Schedule!B33,"](",Configuration!B$30,Configuration!B$29,"sessions/session",Schedule!B33,".html) | ",TEXT(Schedule!D33+Configuration!$B$6, "mm/dd")," | ",Schedule!I33," | ",IF(ISBLANK(Schedule!#REF!),"*None*",Schedule!U33)," |"))</f>
-        <v/>
+        <v>| 10 | [28](https://rpi.analyticsdojo.com/sessions/session28.html) | 05/04 | Final project submissions. Please include all sections. Sumbit to LMS. |  |</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -4809,7 +4821,7 @@
 | 1 | 01/20 | This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages.  | [![Open In Colab](https://colab.research.google.com/assets/colab-badge.svg)](https://colab.research.google.com/github/rpi-techfundamentals/hm-01-starter/blob/master/hm.ipynb) | [Submit to Github](https://classroom.github.com/a/veUj-ukg) |</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G2" s="25"/>
     </row>
@@ -5810,14 +5822,14 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.6">
+    <row r="17" spans="1:5" ht="388">
       <c r="A17" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B18),"",CONCATENATE("session",Schedule!B18))</f>
         <v>session15</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;No-class Spring Break&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;No-class Spring Break&lt;/h1&gt;
 ---
 ### Description
 ---
@@ -5831,11 +5843,7 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-### Assignment
----
-| # | Due Date | Description | Starter | Submit |
-| :---: | :---: | :----- | :--- | :--- |
-| 7 | 03/12 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
+</v>
       </c>
       <c r="C17" s="12" t="b">
         <f>Schedule!P18</f>
@@ -5880,11 +5888,7 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-### Assignment
----
-| # | Due Date | Description | Starter | Submit |
-| :---: | :---: | :----- | :--- | :--- |
-| 7 | 03/12 | Please correct your midterm as homework. Resubmit to same repository.  |  |</v>
+</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="356">
@@ -5958,7 +5962,7 @@
       <c r="D19" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E21,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Advanced Supervised Models&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Extended Spring Break&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E19" s="11" t="str">
@@ -5997,18 +6001,18 @@
 </v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="404">
+    <row r="20" spans="1:5" ht="388">
       <c r="A20" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B21),"",CONCATENATE("session",Schedule!B21))</f>
         <v>session16</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Advanced Supervised Models&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Extended Spring Break&lt;/h1&gt;
 ---
 ### Description
 ---
-This will examine some cases and further explore the modeling process. 
+There is no class, but will be available for meeting about project during class time and office hours. 
 ### Learning Objectives
 --- 
 *None*
@@ -6027,7 +6031,7 @@
       <c r="D20" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E22,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Advanced Supervised Models&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Extended Spring Break&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E20" s="11" t="str">
@@ -6053,7 +6057,7 @@
         <v xml:space="preserve">
 ### Description
 ---
-This will examine some cases and further explore the modeling process. 
+There is no class, but will be available for meeting about project during class time and office hours. 
 ### Learning Objectives
 --- 
 *None*
@@ -6066,18 +6070,18 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="388">
+    <row r="21" spans="1:5" ht="409.6">
       <c r="A21" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B22),"",CONCATENATE("session",Schedule!B22))</f>
         <v>session17</v>
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Time Series Analysis, Unsupervised models.&lt;/h1&gt;
 ---
 ### Description
 ---
-Lab/homework
+There is no class, but will be available for meeting about project during class time and office hours. 
 ### Learning Objectives
 --- 
 *None*
@@ -6087,7 +6091,11 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 7 | 03/26 | Please correct your midterm as homework. Resubmit to same repository as the midterm. You will receive partial credit on midterm (50%) for corrected answers.   |  |</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>Schedule!P22</f>
@@ -6096,7 +6104,7 @@
       <c r="D21" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E23,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Time Series Analysis, Unsupervised models.&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E21" s="11" t="str">
@@ -6122,7 +6130,7 @@
         <v xml:space="preserve">
 ### Description
 ---
-Lab/homework
+There is no class, but will be available for meeting about project during class time and office hours. 
 ### Learning Objectives
 --- 
 *None*
@@ -6132,10 +6140,14 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="388">
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 7 | 03/26 | Please correct your midterm as homework. Resubmit to same repository as the midterm. You will receive partial credit on midterm (50%) for corrected answers.   |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="404">
       <c r="A22" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B23),"",CONCATENATE("session",Schedule!B23))</f>
         <v>session18</v>
@@ -6146,7 +6158,7 @@
 ---
 ### Description
 ---
-The goal of this class is to investigate basic concepts surrounding text mining.
+Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. 
 ### Learning Objectives
 --- 
 *None*
@@ -6191,6 +6203,30 @@
         <v xml:space="preserve">
 ### Description
 ---
+Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. 
+### Learning Objectives
+--- 
+*None*
+### Readings (and Tasks to Be Completed Before Class)
+---
+[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
+### Notebooks
+---
+[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.6">
+      <c r="A23" s="29" t="str">
+        <f>IF(ISBLANK(Schedule!B24),"",CONCATENATE("session",Schedule!B24))</f>
+        <v>session19</v>
+      </c>
+      <c r="B23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
+---
+### Description
+---
 The goal of this class is to investigate basic concepts surrounding text mining.
 ### Learning Objectives
 --- 
@@ -6201,31 +6237,11 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="388">
-      <c r="A23" s="29" t="str">
-        <f>IF(ISBLANK(Schedule!B24),"",CONCATENATE("session",Schedule!B24))</f>
-        <v>session19</v>
-      </c>
-      <c r="B23" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to Big Data &lt;/h1&gt;
+### Assignment
 ---
-### Description
----
-Lab/homework
-### Learning Objectives
---- 
-*None*
-### Readings (and Tasks to Be Completed Before Class)
----
-[Chapter 7: Ensembe Learning and Random Forrests](https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/)
-### Notebooks
----
-[See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 8 | 04/02 | This is an assignment on unsupervised models.  |  |</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>Schedule!P24</f>
@@ -6234,7 +6250,7 @@
       <c r="D23" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E25,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Introduction to Big Data &lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Text and NLP&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E23" s="11" t="str">
@@ -6260,7 +6276,7 @@
         <v xml:space="preserve">
 ### Description
 ---
-Lab/homework
+The goal of this class is to investigate basic concepts surrounding text mining.
 ### Learning Objectives
 --- 
 *None*
@@ -6270,7 +6286,11 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 8 | 04/02 | This is an assignment on unsupervised models.  |  |</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="372">
@@ -6280,11 +6300,11 @@
       </c>
       <c r="B24" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Time Series Analysis&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Time Series Analysis&lt;/h1&gt;
 ---
 ### Description
 ---
-The goal here is to provide an overview of how data processes can be scaled with Spark.
+Lab/Homework
 ### Learning Objectives
 --- 
 *None*
@@ -6294,7 +6314,11 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 9 | 04/06 | Project sections 1-3. Submit via LMS.  |  |</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>Schedule!P25</f>
@@ -6329,7 +6353,7 @@
         <v xml:space="preserve">
 ### Description
 ---
-The goal here is to provide an overview of how data processes can be scaled with Spark.
+Lab/Homework
 ### Learning Objectives
 --- 
 *None*
@@ -6339,7 +6363,11 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 9 | 04/06 | Project sections 1-3. Submit via LMS.  |  |</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="404">
@@ -6694,7 +6722,7 @@
       </c>
       <c r="B30" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
+        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Big Data&lt;/h1&gt;
 ---
 ### Description
 ---
@@ -6717,7 +6745,7 @@
       <c r="D30" s="29" t="str">
         <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center"&amp;CHAR(34)&amp;"&gt;",Schedule!E32,"&lt;/h1&gt;
 ---")</f>
-        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Presentations&lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Big Data&lt;/h1&gt;
 ---</v>
       </c>
       <c r="E30" s="11" t="str">
@@ -6767,7 +6795,7 @@
 ---
 ### Description
 ---
-*None*
+The goal is to get you familiar with Spark and the general big data infrastructure. 
 ### Learning Objectives
 --- 
 *None*
@@ -6812,7 +6840,7 @@
         <v xml:space="preserve">
 ### Description
 ---
-*None*
+The goal is to get you familiar with Spark and the general big data infrastructure. 
 ### Learning Objectives
 --- 
 *None*
@@ -6832,7 +6860,7 @@
       </c>
       <c r="B32" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Exam  11:30-2:30  &lt;/h1&gt;
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center"&gt;Final Exam  11:30-2:30  &lt;/h1&gt;
 ---
 ### Description
 ---
@@ -6846,7 +6874,11 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 10 | 05/04 | Final project submissions. Please include all sections. Sumbit to LMS. |  |</v>
       </c>
       <c r="C32" s="12" t="b">
         <f>Schedule!P33</f>
@@ -6891,7 +6923,11 @@
 ### Notebooks
 ---
 [See all notebooks link.](https://rpi.analyticsdojo.com/notebooks/index.html)
-</v>
+### Assignment
+---
+| # | Due Date | Description | Starter | Submit |
+| :---: | :---: | :----- | :--- | :--- |
+| 10 | 05/04 | Final project submissions. Please include all sections. Sumbit to LMS. |  |</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="356">
@@ -7923,7 +7959,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="27" customFormat="1">
@@ -7931,12 +7967,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -8045,11 +8081,11 @@
   <dimension ref="A1:BG956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8080,72 +8116,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="30" customFormat="1" ht="18.25" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="115" t="s">
+      <c r="B1" s="127" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128" t="s">
-        <v>240</v>
-      </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131" t="s">
-        <v>199</v>
-      </c>
-      <c r="O1" s="131" t="s">
-        <v>200</v>
+      <c r="F1" s="120" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="121"/>
+      <c r="H1" s="122" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" s="125" t="s">
+        <v>198</v>
       </c>
       <c r="P1" s="90"/>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="131" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="132" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="120" t="s">
+      <c r="T1" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="121" t="s">
+      <c r="U1" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="121" t="s">
+      <c r="V1" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="Y1" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="121" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y1" s="121" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="2" spans="1:59" s="30" customFormat="1" ht="21" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="123"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="77" t="s">
         <v>4</v>
       </c>
@@ -8159,31 +8195,31 @@
         <v>7</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K2" s="85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M2" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
+        <v>292</v>
+      </c>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
       <c r="Z2" s="30" t="s">
         <v>12</v>
       </c>
@@ -8202,28 +8238,28 @@
         <v>43843</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H3" s="39">
         <v>1</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L3" s="91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N3" s="36" t="b">
         <v>0</v>
@@ -8302,13 +8338,13 @@
         <v>43846</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
@@ -8391,7 +8427,7 @@
         <v>43850</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="47"/>
@@ -8467,26 +8503,26 @@
         <v>43853</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="39">
         <v>2</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="N6" s="36" t="b">
         <v>0</v>
@@ -8569,10 +8605,10 @@
         <v>43857</v>
       </c>
       <c r="E7" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>96</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>97</v>
       </c>
       <c r="G7" s="49"/>
       <c r="N7" s="56" t="b">
@@ -8683,26 +8719,26 @@
         <v>43860</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="39">
         <v>3</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N8" s="36" t="b">
         <v>0</v>
@@ -8813,10 +8849,10 @@
         <v>43864</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G9" s="43"/>
       <c r="N9" s="36" t="b">
@@ -8930,26 +8966,26 @@
         <v>43867</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="39">
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K10" s="91" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N10" s="36" t="b">
         <v>0</v>
@@ -9069,10 +9105,10 @@
         <v>43871</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="43"/>
       <c r="N11" s="36" t="b">
@@ -9217,29 +9253,29 @@
         <v>43874</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="39">
         <v>5</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K12" s="91" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="N12" s="36" t="b">
         <v>0</v>
@@ -9385,7 +9421,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="43"/>
       <c r="N13" s="36" t="b">
@@ -9535,17 +9571,17 @@
         <v>17</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="39">
         <v>6</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N14" s="36" t="b">
         <v>0</v>
@@ -9698,10 +9734,10 @@
         <v>43885</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G15" s="49"/>
       <c r="N15" s="36" t="b">
@@ -9857,10 +9893,10 @@
         <v>43888</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="43"/>
       <c r="N16" s="36" t="b">
@@ -10020,10 +10056,10 @@
         <v>43892</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G17" s="43"/>
       <c r="N17" s="36" t="b">
@@ -10045,11 +10081,11 @@
       </c>
       <c r="S17" s="52" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve"> &lt;br&gt; ** &lt;br&gt;</v>
+        <v/>
       </c>
       <c r="T17" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) &lt;br&gt; ** &lt;br&gt;</v>
+        <v>**Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html)</v>
       </c>
       <c r="U17" s="52" t="str">
         <f t="shared" si="20"/>
@@ -10169,7 +10205,7 @@
       <c r="BF17" s="27"/>
       <c r="BG17" s="27"/>
     </row>
-    <row r="18" spans="1:59" ht="34">
+    <row r="18" spans="1:59" ht="17">
       <c r="A18" s="46">
         <v>8</v>
       </c>
@@ -10185,18 +10221,12 @@
         <v>43895</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G18" s="49"/>
-      <c r="H18" s="39">
-        <v>7</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>382</v>
-      </c>
       <c r="L18" s="93"/>
       <c r="N18" s="36" t="b">
         <v>1</v>
@@ -10209,7 +10239,7 @@
       </c>
       <c r="Q18" s="57" t="str">
         <f>IF(ISBLANK(H18),"",CONCATENATE("Assignment ",H18," due ", TEXT(D18+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
-        <v>Assignment 7 due 03/12 11:59 PM</v>
+        <v/>
       </c>
       <c r="R18" s="52" t="str">
         <f>IF(B18&gt;0,CONCATENATE("[more](",Configuration!B$30,Configuration!B$29,"sessions/session",B18,".html)"),"")</f>
@@ -10284,9 +10314,7 @@
       </c>
       <c r="X18" s="52" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">  - title: Assignment 7
-    url: /assignments/assign7
-    not_numbered: true</v>
+        <v/>
       </c>
       <c r="Y18" s="52" t="str">
         <f t="shared" si="24"/>
@@ -10309,9 +10337,7 @@
   - title: Assignment 6
     url: /assignments/assign6
     not_numbered: true
-  - title: Assignment 7
-    url: /assignments/assign7
-    not_numbered: true</v>
+</v>
       </c>
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
@@ -10362,7 +10388,7 @@
         <v>43899</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="43"/>
@@ -10467,9 +10493,6 @@
     not_numbered: true
   - title: Assignment 6
     url: /assignments/assign6
-    not_numbered: true
-  - title: Assignment 7
-    url: /assignments/assign7
     not_numbered: true
 </v>
       </c>
@@ -10522,7 +10545,7 @@
         <v>43902</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="49"/>
@@ -10628,9 +10651,6 @@
     not_numbered: true
   - title: Assignment 6
     url: /assignments/assign6
-    not_numbered: true
-  - title: Assignment 7
-    url: /assignments/assign7
     not_numbered: true
 </v>
       </c>
@@ -10669,7 +10689,7 @@
       <c r="BF20" s="27"/>
       <c r="BG20" s="27"/>
     </row>
-    <row r="21" spans="1:59" ht="34">
+    <row r="21" spans="1:59" ht="51">
       <c r="A21" s="39">
         <f t="shared" si="26"/>
         <v>10</v>
@@ -10685,10 +10705,10 @@
         <v>43906</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>372</v>
+        <v>475</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>373</v>
+        <v>476</v>
       </c>
       <c r="G21" s="49"/>
       <c r="N21" s="36" t="b">
@@ -10710,11 +10730,11 @@
       </c>
       <c r="S21" s="52" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v xml:space="preserve"> &lt;br&gt; ** &lt;br&gt;</v>
       </c>
       <c r="T21" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Advanced Supervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session16.html)</v>
+        <v>**Extended Spring Break** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session16.html) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
       <c r="U21" s="52" t="str">
         <f t="shared" si="20"/>
@@ -10802,9 +10822,6 @@
     not_numbered: true
   - title: Assignment 6
     url: /assignments/assign6
-    not_numbered: true
-  - title: Assignment 7
-    url: /assignments/assign7
     not_numbered: true
 </v>
       </c>
@@ -10843,7 +10860,7 @@
       <c r="BF21" s="27"/>
       <c r="BG21" s="27"/>
     </row>
-    <row r="22" spans="1:59" ht="17">
+    <row r="22" spans="1:59" ht="85">
       <c r="A22" s="39">
         <f t="shared" si="26"/>
         <v>10</v>
@@ -10860,12 +10877,18 @@
         <v>43909</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>93</v>
+        <v>475</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>476</v>
       </c>
       <c r="G22" s="43"/>
+      <c r="H22" s="39">
+        <v>7</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>473</v>
+      </c>
       <c r="N22" s="36" t="b">
         <v>1</v>
       </c>
@@ -10877,7 +10900,7 @@
       </c>
       <c r="Q22" s="57" t="str">
         <f>IF(ISBLANK(H22),"",CONCATENATE("Assignment ",H22," due ", TEXT(D22+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
-        <v/>
+        <v>Assignment 7 due 03/26 11:59 PM</v>
       </c>
       <c r="R22" s="52" t="str">
         <f>IF(B22&gt;0,CONCATENATE("[more](",Configuration!B$30,Configuration!B$29,"sessions/session",B22,".html)"),"")</f>
@@ -10889,7 +10912,7 @@
       </c>
       <c r="T22" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Advanced Supervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session17.html)</v>
+        <v>**Extended Spring Break** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session17.html)</v>
       </c>
       <c r="U22" s="52" t="str">
         <f t="shared" si="20"/>
@@ -10958,7 +10981,9 @@
       </c>
       <c r="X22" s="52" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v xml:space="preserve">  - title: Assignment 7
+    url: /assignments/assign7
+    not_numbered: true</v>
       </c>
       <c r="Y22" s="52" t="str">
         <f t="shared" si="24"/>
@@ -10983,8 +11008,7 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
-    not_numbered: true
-</v>
+    not_numbered: true</v>
       </c>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
@@ -11021,7 +11045,7 @@
       <c r="BF22" s="27"/>
       <c r="BG22" s="27"/>
     </row>
-    <row r="23" spans="1:59" ht="34">
+    <row r="23" spans="1:59" ht="68">
       <c r="A23" s="39">
         <f t="shared" si="26"/>
         <v>11</v>
@@ -11037,10 +11061,10 @@
         <f t="shared" si="25"/>
         <v>43913</v>
       </c>
-      <c r="E23" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="44" t="s">
+      <c r="E23" s="56" t="s">
+        <v>477</v>
+      </c>
+      <c r="F23" s="48" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="43"/>
@@ -11063,11 +11087,11 @@
       </c>
       <c r="S23" s="52" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v xml:space="preserve"> &lt;br&gt; ** &lt;br&gt;</v>
       </c>
       <c r="T23" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session18.html)</v>
+        <v>**Time Series Analysis, Unsupervised models.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session18.html) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
       <c r="U23" s="52" t="str">
         <f t="shared" si="20"/>
@@ -11202,7 +11226,7 @@
       <c r="BF23" s="27"/>
       <c r="BG23" s="27"/>
     </row>
-    <row r="24" spans="1:59" ht="17">
+    <row r="24" spans="1:59" ht="34">
       <c r="A24" s="39">
         <f t="shared" si="26"/>
         <v>11</v>
@@ -11219,12 +11243,18 @@
         <v>43916</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G24" s="43"/>
+      <c r="H24" s="39">
+        <v>8</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>474</v>
+      </c>
       <c r="N24" s="36" t="b">
         <v>1</v>
       </c>
@@ -11236,7 +11266,7 @@
       </c>
       <c r="Q24" s="57" t="str">
         <f>IF(ISBLANK(H24),"",CONCATENATE("Assignment ",H24," due ", TEXT(D24+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
-        <v/>
+        <v>Assignment 8 due 04/02 11:59 PM</v>
       </c>
       <c r="R24" s="52" t="str">
         <f>IF(B24&gt;0,CONCATENATE("[more](",Configuration!B$30,Configuration!B$29,"sessions/session",B24,".html)"),"")</f>
@@ -11244,11 +11274,11 @@
       </c>
       <c r="S24" s="52" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v xml:space="preserve"> &lt;br&gt; *Assignment 8 due 04/02 11:59 PM* &lt;br&gt;</v>
       </c>
       <c r="T24" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session19.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session19.html) &lt;br&gt; *Assignment 8 due 04/02 11:59 PM* &lt;br&gt;</v>
       </c>
       <c r="U24" s="52" t="str">
         <f t="shared" si="20"/>
@@ -11323,7 +11353,9 @@
       </c>
       <c r="X24" s="52" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v xml:space="preserve">  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true</v>
       </c>
       <c r="Y24" s="52" t="str">
         <f t="shared" si="24"/>
@@ -11349,7 +11381,9 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-</v>
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true</v>
       </c>
       <c r="Z24" s="27"/>
       <c r="AA24" s="27"/>
@@ -11386,7 +11420,7 @@
       <c r="BF24" s="27"/>
       <c r="BG24" s="27"/>
     </row>
-    <row r="25" spans="1:59" ht="51">
+    <row r="25" spans="1:59" ht="17">
       <c r="A25" s="39">
         <f t="shared" si="26"/>
         <v>12</v>
@@ -11403,12 +11437,18 @@
         <v>43920</v>
       </c>
       <c r="E25" s="78" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="G25" s="49"/>
+      <c r="H25" s="39">
+        <v>9</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>478</v>
+      </c>
       <c r="N25" s="36" t="b">
         <v>0</v>
       </c>
@@ -11420,7 +11460,7 @@
       </c>
       <c r="Q25" s="57" t="str">
         <f>IF(ISBLANK(H25),"",CONCATENATE("Assignment ",H25," due ", TEXT(D25+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
-        <v/>
+        <v>Assignment 9 due 04/06 11:59 PM</v>
       </c>
       <c r="R25" s="52" t="str">
         <f>IF(B25&gt;0,CONCATENATE("[more](",Configuration!B$30,Configuration!B$29,"sessions/session",B25,".html)"),"")</f>
@@ -11432,7 +11472,7 @@
       </c>
       <c r="T25" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session20.html)</v>
+        <v>**Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session20.html)</v>
       </c>
       <c r="U25" s="52" t="str">
         <f t="shared" si="20"/>
@@ -11510,7 +11550,9 @@
       </c>
       <c r="X25" s="52" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v xml:space="preserve">  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true</v>
       </c>
       <c r="Y25" s="52" t="str">
         <f t="shared" si="24"/>
@@ -11536,7 +11578,12 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-</v>
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true</v>
       </c>
       <c r="Z25" s="27"/>
       <c r="AA25" s="27"/>
@@ -11590,10 +11637,10 @@
         <v>43923</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G26" s="50"/>
       <c r="N26" s="36" t="b">
@@ -11725,6 +11772,12 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
     not_numbered: true
 </v>
       </c>
@@ -11780,10 +11833,10 @@
         <v>43927</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G27" s="49"/>
       <c r="N27" s="36" t="b">
@@ -11918,6 +11971,12 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
     not_numbered: true
 </v>
       </c>
@@ -11973,10 +12032,10 @@
         <v>43930</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="43"/>
       <c r="N28" s="36" t="b">
@@ -12114,6 +12173,12 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
     not_numbered: true
 </v>
       </c>
@@ -12169,10 +12234,10 @@
         <v>43934</v>
       </c>
       <c r="E29" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="44" t="s">
         <v>107</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>108</v>
       </c>
       <c r="G29" s="43"/>
       <c r="N29" s="36" t="b">
@@ -12313,6 +12378,12 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
     not_numbered: true
 </v>
       </c>
@@ -12368,7 +12439,7 @@
         <v>43937</v>
       </c>
       <c r="E30" s="79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -12513,6 +12584,12 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
     not_numbered: true
 </v>
       </c>
@@ -12568,10 +12645,10 @@
         <v>43941</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="43"/>
       <c r="N31" s="36" t="b">
@@ -12718,6 +12795,12 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
     not_numbered: true
 </v>
       </c>
@@ -12756,7 +12839,7 @@
       <c r="BF31" s="27"/>
       <c r="BG31" s="27"/>
     </row>
-    <row r="32" spans="1:59" ht="17">
+    <row r="32" spans="1:59" ht="34">
       <c r="A32" s="39">
         <f t="shared" si="26"/>
         <v>15</v>
@@ -12773,9 +12856,11 @@
         <v>43944</v>
       </c>
       <c r="E32" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="43"/>
+        <v>479</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>480</v>
+      </c>
       <c r="G32" s="43"/>
       <c r="N32" s="36" t="b">
         <v>0</v>
@@ -12796,11 +12881,11 @@
       </c>
       <c r="S32" s="52" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v xml:space="preserve"> &lt;br&gt; ** &lt;br&gt;</v>
       </c>
       <c r="T32" s="52" t="str">
         <f t="shared" si="19"/>
-        <v>**Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session27.html)</v>
+        <v>**Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session27.html) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
       <c r="U32" s="52" t="str">
         <f t="shared" si="20"/>
@@ -12924,6 +13009,12 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
     not_numbered: true
 </v>
       </c>
@@ -12962,7 +13053,7 @@
       <c r="BF32" s="27"/>
       <c r="BG32" s="27"/>
     </row>
-    <row r="33" spans="1:59" ht="17">
+    <row r="33" spans="1:59" ht="34">
       <c r="A33" s="46">
         <v>16</v>
       </c>
@@ -12978,10 +13069,16 @@
         <v>43948</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
+      <c r="H33" s="39">
+        <v>10</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>481</v>
+      </c>
       <c r="N33" s="36" t="b">
         <v>0</v>
       </c>
@@ -12993,7 +13090,7 @@
       </c>
       <c r="Q33" s="57" t="str">
         <f>IF(ISBLANK(H33),"",CONCATENATE("Assignment ",H33," due ", TEXT(D33+Configuration!$B$6, "mm/dd"), " ", Configuration!$B$7))</f>
-        <v/>
+        <v>Assignment 10 due 05/04 11:59 PM</v>
       </c>
       <c r="R33" s="52" t="str">
         <f>IF(B33&gt;0,CONCATENATE("[more](",Configuration!B$30,Configuration!B$29,"sessions/session",B33,".html)"),"")</f>
@@ -13107,7 +13204,9 @@
       </c>
       <c r="X33" s="52" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v xml:space="preserve">  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true</v>
       </c>
       <c r="Y33" s="52" t="str">
         <f t="shared" si="24"/>
@@ -13133,7 +13232,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
-</v>
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true</v>
       </c>
       <c r="Z33" s="27"/>
       <c r="AA33" s="27"/>
@@ -13180,10 +13287,10 @@
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="42" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -13340,6 +13447,15 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
     not_numbered: true
 </v>
       </c>
@@ -13528,6 +13644,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -13689,6 +13814,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -13850,6 +13984,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -14011,6 +14154,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -14172,6 +14324,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -14333,6 +14494,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -14494,6 +14664,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -14655,6 +14834,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -14816,6 +15004,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -14977,6 +15174,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -15138,6 +15344,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -15299,6 +15514,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -15460,6 +15684,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -15621,6 +15854,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -15782,6 +16024,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -15943,6 +16194,15 @@
   - title: Assignment 7
     url: /assignments/assign7
     not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
+    not_numbered: true
 </v>
       </c>
     </row>
@@ -16103,6 +16363,15 @@
     not_numbered: true
   - title: Assignment 7
     url: /assignments/assign7
+    not_numbered: true
+  - title: Assignment 8
+    url: /assignments/assign8
+    not_numbered: true
+  - title: Assignment 9
+    url: /assignments/assign9
+    not_numbered: true
+  - title: Assignment 10
+    url: /assignments/assign10
     not_numbered: true
 </v>
       </c>
@@ -32397,12 +32666,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -32410,11 +32678,12 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32444,7 +32713,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="19">
       <c r="A1" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>6</v>
@@ -32453,13 +32722,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="88" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="88" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
@@ -32467,10 +32736,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D2" s="52" t="str">
         <f t="shared" ref="D2:D4" si="0">CONCATENATE("[",B2,"](",C2,")")</f>
@@ -32490,10 +32759,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" s="52" t="str">
         <f t="shared" si="0"/>
@@ -32513,10 +32782,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" si="0"/>
@@ -32536,10 +32805,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>CONCATENATE("[",B5,"](",C5,")")</f>
@@ -32559,10 +32828,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" ref="D6:D50" si="3">CONCATENATE("[",B6,"](",C6,")")</f>
@@ -32582,10 +32851,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32605,10 +32874,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32628,10 +32897,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32651,10 +32920,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32674,10 +32943,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32697,10 +32966,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32720,10 +32989,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32743,10 +33012,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32766,10 +33035,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32789,10 +33058,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32812,10 +33081,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32835,10 +33104,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32858,7 +33127,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="52" t="str">
@@ -32879,10 +33148,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D20" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32902,10 +33171,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32925,10 +33194,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D22" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32948,10 +33217,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D23" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32971,10 +33240,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D24" s="52" t="str">
         <f t="shared" si="3"/>
@@ -32994,10 +33263,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25" s="82" t="s">
         <v>457</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>462</v>
       </c>
       <c r="D25" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33017,10 +33286,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D26" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33040,10 +33309,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D27" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33063,10 +33332,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D28" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33086,10 +33355,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D29" s="52" t="str">
         <f t="shared" si="3"/>
@@ -33434,36 +33703,36 @@
   <sheetData>
     <row r="1" spans="1:21" s="30" customFormat="1" ht="19">
       <c r="A1" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E1" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>213</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>215</v>
       </c>
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
       <c r="J1" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="74" t="s">
         <v>231</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="34">
@@ -33471,10 +33740,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D2" s="87" t="str">
         <f>IF(ISBLANK(C2),"",CONCATENATE(Configuration!$B$31,Notebooks!C2,".ipynb"))</f>
@@ -33525,7 +33794,7 @@
       </c>
       <c r="N2" s="26"/>
       <c r="U2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="34">
@@ -33533,10 +33802,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D3" s="87" t="str">
         <f>IF(ISBLANK(C3),"",CONCATENATE(Configuration!$B$31,Notebooks!C3,".ipynb"))</f>
@@ -33595,10 +33864,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D4" s="87" t="str">
         <f>IF(ISBLANK(C4),"",CONCATENATE(Configuration!$B$31,Notebooks!C4,".ipynb"))</f>
@@ -33658,10 +33927,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="87" t="str">
         <f>IF(ISBLANK(C5),"",CONCATENATE(Configuration!$B$31,Notebooks!C5,".ipynb"))</f>
@@ -33729,10 +33998,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D6" s="87" t="str">
         <f>IF(ISBLANK(C6),"",CONCATENATE(Configuration!$B$31,Notebooks!C6,".ipynb"))</f>
@@ -33797,10 +34066,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D7" s="87" t="str">
         <f>IF(ISBLANK(C7),"",CONCATENATE(Configuration!$B$31,Notebooks!C7,".ipynb"))</f>
@@ -33868,10 +34137,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D8" s="87" t="str">
         <f>IF(ISBLANK(C8),"",CONCATENATE(Configuration!$B$31,Notebooks!C8,".ipynb"))</f>
@@ -33943,10 +34212,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D9" s="87" t="str">
         <f>IF(ISBLANK(C9),"",CONCATENATE(Configuration!$B$31,Notebooks!C9,".ipynb"))</f>
@@ -34022,10 +34291,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D10" s="87" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE(Configuration!$B$31,Notebooks!C10,".ipynb"))</f>
@@ -34110,10 +34379,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D11" s="87" t="str">
         <f>IF(ISBLANK(C11),"",CONCATENATE(Configuration!$B$31,Notebooks!C11,".ipynb"))</f>
@@ -34192,10 +34461,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D12" s="87" t="str">
         <f>IF(ISBLANK(C12),"",CONCATENATE(Configuration!$B$31,Notebooks!C12,".ipynb"))</f>
@@ -34278,10 +34547,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D13" s="87" t="str">
         <f>IF(ISBLANK(C13),"",CONCATENATE(Configuration!$B$31,Notebooks!C13,".ipynb"))</f>
@@ -34368,10 +34637,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="87" t="str">
         <f>IF(ISBLANK(C14),"",CONCATENATE(Configuration!$B$31,Notebooks!C14,".ipynb"))</f>
@@ -34462,10 +34731,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D15" s="87" t="str">
         <f>IF(ISBLANK(C15),"",CONCATENATE(Configuration!$B$31,Notebooks!C15,".ipynb"))</f>
@@ -34560,10 +34829,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D16" s="87" t="str">
         <f>IF(ISBLANK(C16),"",CONCATENATE(Configuration!$B$31,Notebooks!C16,".ipynb"))</f>
@@ -34668,10 +34937,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D17" s="87" t="str">
         <f>IF(ISBLANK(C17),"",CONCATENATE(Configuration!$B$31,Notebooks!C17,".ipynb"))</f>
@@ -34768,10 +35037,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D18" s="87" t="str">
         <f>IF(ISBLANK(C18),"",CONCATENATE(Configuration!$B$31,Notebooks!C18,".ipynb"))</f>
@@ -34872,10 +35141,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D19" s="87" t="str">
         <f>IF(ISBLANK(C19),"",CONCATENATE(Configuration!$B$31,Notebooks!C19,".ipynb"))</f>
@@ -34980,10 +35249,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D20" s="87" t="str">
         <f>IF(ISBLANK(C20),"",CONCATENATE(Configuration!$B$31,Notebooks!C20,".ipynb"))</f>
@@ -35096,10 +35365,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D21" s="87" t="str">
         <f>IF(ISBLANK(C21),"",CONCATENATE(Configuration!$B$31,Notebooks!C21,".ipynb"))</f>
@@ -35212,10 +35481,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E22" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35323,13 +35592,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E23" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35441,13 +35710,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E24" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35563,13 +35832,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E25" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35689,13 +35958,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E26" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35819,13 +36088,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E27" s="52" t="str">
         <f t="shared" si="8"/>
@@ -35953,13 +36222,13 @@
         <v>10</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E28" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36091,13 +36360,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E29" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36233,13 +36502,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E30" s="52" t="str">
         <f t="shared" si="8"/>
@@ -36388,10 +36657,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D31" s="87" t="str">
         <f>IF(ISBLANK(C31),"",CONCATENATE(Configuration!$B$31,Notebooks!C31,".ipynb"))</f>
@@ -36551,10 +36820,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D32" s="87" t="str">
         <f>IF(ISBLANK(C32),"",CONCATENATE(Configuration!$B$31,Notebooks!C32,".ipynb"))</f>
@@ -36715,10 +36984,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D33" s="87" t="str">
         <f>IF(ISBLANK(C33),"",CONCATENATE(Configuration!$B$31,Notebooks!C33,".ipynb"))</f>
@@ -36883,10 +37152,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D34" s="87" t="str">
         <f>IF(ISBLANK(C34),"",CONCATENATE(Configuration!$B$31,Notebooks!C34,".ipynb"))</f>
@@ -37059,10 +37328,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D35" s="87" t="str">
         <f>IF(ISBLANK(C35),"",CONCATENATE(Configuration!$B$31,Notebooks!C35,".ipynb"))</f>
@@ -37231,10 +37500,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D36" s="87" t="str">
         <f>IF(ISBLANK(C36),"",CONCATENATE(Configuration!$B$31,Notebooks!C36,".ipynb"))</f>
@@ -37407,10 +37676,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>377</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>381</v>
       </c>
       <c r="D37" s="87" t="str">
         <f>IF(ISBLANK(C37),"",CONCATENATE(Configuration!$B$31,Notebooks!C37,".ipynb"))</f>
@@ -37587,10 +37856,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D38" s="87" t="str">
         <f>IF(ISBLANK(C38),"",CONCATENATE(Configuration!$B$31,Notebooks!C38,".ipynb"))</f>
@@ -37775,10 +38044,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D39" s="87" t="str">
         <f>IF(ISBLANK(C39),"",CONCATENATE(Configuration!$B$31,Notebooks!C39,".ipynb"))</f>
@@ -37959,10 +38228,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D40" s="87" t="str">
         <f>IF(ISBLANK(C40),"",CONCATENATE(Configuration!$B$31,Notebooks!C40,".ipynb"))</f>
@@ -38147,10 +38416,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D41" s="87" t="str">
         <f>IF(ISBLANK(C41),"",CONCATENATE(Configuration!$B$31,Notebooks!C41,".ipynb"))</f>
@@ -38339,10 +38608,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D42" s="87" t="str">
         <f>IF(ISBLANK(C42),"",CONCATENATE(Configuration!$B$31,Notebooks!C42,".ipynb"))</f>
@@ -38535,10 +38804,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D43" s="87" t="str">
         <f>IF(ISBLANK(C43),"",CONCATENATE(Configuration!$B$31,Notebooks!C43,".ipynb"))</f>
@@ -38735,10 +39004,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D44" s="87" t="str">
         <f>IF(ISBLANK(C44),"",CONCATENATE(Configuration!$B$31,Notebooks!C44,".ipynb"))</f>
@@ -38939,10 +39208,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(ISBLANK(C45),"",CONCATENATE(Configuration!$B$31,Notebooks!C45,".ipynb"))</f>
@@ -39147,10 +39416,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D46" s="87" t="str">
         <f>IF(ISBLANK(C46),"",CONCATENATE(Configuration!$B$31,Notebooks!C46,".ipynb"))</f>
@@ -39367,10 +39636,10 @@
         <v>18</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D47" s="87" t="str">
         <f>IF(ISBLANK(C47),"",CONCATENATE(Configuration!$B$31,Notebooks!C47,".ipynb"))</f>
@@ -39575,10 +39844,10 @@
         <v>18</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D48" s="87" t="str">
         <f>IF(ISBLANK(C48),"",CONCATENATE(Configuration!$B$31,Notebooks!C48,".ipynb"))</f>
@@ -39787,10 +40056,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D49" s="87" t="str">
         <f>IF(ISBLANK(C49),"",CONCATENATE(Configuration!$B$31,Notebooks!C49,".ipynb"))</f>
@@ -40003,10 +40272,10 @@
         <v>18</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D50" s="87" t="str">
         <f>IF(ISBLANK(C50),"",CONCATENATE(Configuration!$B$31,Notebooks!C50,".ipynb"))</f>
@@ -40227,10 +40496,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D51" s="87" t="str">
         <f>IF(ISBLANK(C51),"",CONCATENATE(Configuration!$B$31,Notebooks!C51,".ipynb"))</f>
@@ -40447,10 +40716,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D52" s="87" t="str">
         <f>IF(ISBLANK(C52),"",CONCATENATE(Configuration!$B$31,Notebooks!C52,".ipynb"))</f>
@@ -40671,10 +40940,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D53" s="87" t="str">
         <f>IF(ISBLANK(C53),"",CONCATENATE(Configuration!$B$31,Notebooks!C53,".ipynb"))</f>
@@ -40899,10 +41168,10 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D54" s="87" t="str">
         <f>IF(ISBLANK(C54),"",CONCATENATE(Configuration!$B$31,Notebooks!C54,".ipynb"))</f>
@@ -41131,10 +41400,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D55" s="87" t="str">
         <f>IF(ISBLANK(C55),"",CONCATENATE(Configuration!$B$31,Notebooks!C55,".ipynb"))</f>
@@ -41367,10 +41636,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D56" s="87" t="str">
         <f>IF(ISBLANK(C56),"",CONCATENATE(Configuration!$B$31,Notebooks!C56,".ipynb"))</f>
@@ -41607,10 +41876,10 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D57" s="87" t="str">
         <f>IF(ISBLANK(C57),"",CONCATENATE(Configuration!$B$31,Notebooks!C57,".ipynb"))</f>
@@ -41851,10 +42120,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D58" s="87" t="str">
         <f>IF(ISBLANK(C58),"",CONCATENATE(Configuration!$B$31,Notebooks!C58,".ipynb"))</f>
@@ -42099,10 +42368,10 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D59" s="87" t="str">
         <f>IF(ISBLANK(C59),"",CONCATENATE(Configuration!$B$31,Notebooks!C59,".ipynb"))</f>
@@ -42360,10 +42629,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D60" s="87" t="str">
         <f>IF(ISBLANK(C60),"",CONCATENATE(Configuration!$B$31,Notebooks!C60,".ipynb"))</f>
@@ -42607,10 +42876,10 @@
         <v>22</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D61" s="87" t="str">
         <f>IF(ISBLANK(C61),"",CONCATENATE(Configuration!$B$31,Notebooks!C61,".ipynb"))</f>
@@ -42858,10 +43127,10 @@
         <v>22</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C62" s="94" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D62" s="87" t="str">
         <f>IF(ISBLANK(C62),"",CONCATENATE(Configuration!$B$31,Notebooks!C62,".ipynb"))</f>
@@ -43113,10 +43382,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D63" s="87" t="str">
         <f>IF(ISBLANK(C63),"",CONCATENATE(Configuration!$B$31,Notebooks!C63,".ipynb"))</f>
@@ -43372,10 +43641,10 @@
         <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D64" s="87" t="str">
         <f>IF(ISBLANK(C64),"",CONCATENATE(Configuration!$B$31,Notebooks!C64,".ipynb"))</f>
@@ -43635,10 +43904,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D65" s="87" t="str">
         <f>IF(ISBLANK(C65),"",CONCATENATE(Configuration!$B$31,Notebooks!C65,".ipynb"))</f>
@@ -43902,10 +44171,10 @@
         <v>22</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D66" s="87" t="str">
         <f>IF(ISBLANK(C66),"",CONCATENATE(Configuration!$B$31,Notebooks!C66,".ipynb"))</f>
@@ -52234,7 +52503,7 @@
         <v>43707</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -52248,7 +52517,7 @@
         <v>43710</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
@@ -52256,7 +52525,7 @@
         <v>43711</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
@@ -52264,7 +52533,7 @@
         <v>43721</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
@@ -52272,15 +52541,15 @@
         <v>43728</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
@@ -52294,7 +52563,7 @@
         <v>43752</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
@@ -52302,15 +52571,15 @@
         <v>43753</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
@@ -52318,15 +52587,15 @@
         <v>43757</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
@@ -52334,7 +52603,7 @@
         <v>43763</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
@@ -52345,10 +52614,10 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
@@ -52356,15 +52625,15 @@
         <v>43770</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
@@ -52372,7 +52641,7 @@
         <v>43777</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
@@ -52380,7 +52649,7 @@
         <v>43787</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -52388,7 +52657,7 @@
         <v>43791</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
@@ -52396,15 +52665,15 @@
         <v>43795</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
@@ -52418,7 +52687,7 @@
         <v>43800</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
@@ -52426,7 +52695,7 @@
         <v>43801</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
@@ -52434,7 +52703,7 @@
         <v>43801</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
@@ -52442,15 +52711,15 @@
         <v>43810</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
@@ -52458,15 +52727,15 @@
         <v>43815</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
@@ -52474,15 +52743,15 @@
         <v>43820</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
@@ -52490,7 +52759,7 @@
         <v>43830</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
@@ -52501,10 +52770,10 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
@@ -52512,7 +52781,7 @@
         <v>43833</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
@@ -52520,7 +52789,7 @@
         <v>43842</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
@@ -52528,7 +52797,7 @@
         <v>43843</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
@@ -52536,7 +52805,7 @@
         <v>43850</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
@@ -52544,7 +52813,7 @@
         <v>43854</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
@@ -52558,7 +52827,7 @@
         <v>43868</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
@@ -52566,7 +52835,7 @@
         <v>43878</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
@@ -52574,7 +52843,7 @@
         <v>43879</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
@@ -52588,15 +52857,15 @@
         <v>43892</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
@@ -52604,15 +52873,15 @@
         <v>43896</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
@@ -52620,7 +52889,7 @@
         <v>43905</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
@@ -52628,15 +52897,15 @@
         <v>43906</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
@@ -52644,7 +52913,7 @@
         <v>43915</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
@@ -52652,7 +52921,7 @@
         <v>43917</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
@@ -52666,7 +52935,7 @@
         <v>43931</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
@@ -52674,7 +52943,7 @@
         <v>43945</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
@@ -52682,15 +52951,15 @@
         <v>43950</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
@@ -52698,7 +52967,7 @@
         <v>43951</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
@@ -52709,10 +52978,10 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
@@ -52720,15 +52989,15 @@
         <v>43955</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1">
@@ -52736,7 +53005,7 @@
         <v>43955</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1">
@@ -52744,7 +53013,7 @@
         <v>43959</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1">
@@ -52752,7 +53021,7 @@
         <v>43960</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1">
@@ -52760,7 +53029,7 @@
         <v>43973</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
@@ -52768,7 +53037,7 @@
         <v>43974</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
@@ -52776,7 +53045,7 @@
         <v>43974</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1"/>
@@ -53804,17 +54073,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="120" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="120" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="27" customFormat="1" ht="120" customHeight="1">
@@ -53913,7 +54182,7 @@
     </row>
     <row r="5" spans="1:1" ht="120" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="27" customFormat="1" ht="120" customHeight="1">
@@ -54120,7 +54389,7 @@
     </row>
     <row r="7" spans="1:1" ht="120" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="27" customFormat="1" ht="120" customHeight="1">
@@ -54128,7 +54397,7 @@
     </row>
     <row r="9" spans="1:1" ht="120" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="102">
@@ -54247,7 +54516,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="22" t="str">
         <f>Configuration!B2</f>
@@ -54256,7 +54525,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>Configuration!B9</f>
@@ -54265,7 +54534,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17" t="str">
         <f>Configuration!B10</f>
@@ -54274,7 +54543,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="17" t="str">
         <f>Configuration!B28</f>
@@ -54283,7 +54552,7 @@
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="65" t="str">
         <f>IF(ISBLANK(Configuration!B29),"",Configuration!B29)</f>
@@ -54292,7 +54561,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="22" t="str">
         <f>Configuration!B30</f>
@@ -54301,7 +54570,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="82" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" s="17" t="str">
         <f>Configuration!B35</f>
@@ -54310,7 +54579,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="82" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>Configuration!B36</f>
@@ -54488,12 +54757,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="51">
       <c r="A1" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -54501,7 +54770,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -54593,7 +54862,7 @@
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A17),"",CONCATENATE("| ",Schedule!A17," | ",Schedule!B17," | ",Schedule!C17," | ",TEXT(Schedule!D17,"mm/dd")," | ",Schedule!T17," |"))</f>
-        <v>| 8 | 14 | M | 03/02 | **Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) &lt;br&gt; ** &lt;br&gt; |</v>
+        <v>| 8 | 14 | M | 03/02 | **Unsupervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session14.html) |</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
@@ -54617,31 +54886,31 @@
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A21),"",CONCATENATE("| ",Schedule!A21," | ",Schedule!B21," | ",Schedule!C21," | ",TEXT(Schedule!D21,"mm/dd")," | ",Schedule!T21," |"))</f>
-        <v>| 10 | 16 | M | 03/16 | **Advanced Supervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session16.html) |</v>
+        <v>| 10 | 16 | M | 03/16 | **Extended Spring Break** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session16.html) &lt;br&gt; ** &lt;br&gt; |</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A22),"",CONCATENATE("| ",Schedule!A22," | ",Schedule!B22," | ",Schedule!C22," | ",TEXT(Schedule!D22,"mm/dd")," | ",Schedule!T22," |"))</f>
-        <v>| 10 | 17 | Th | 03/19 | **Advanced Supervised Models** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session17.html) |</v>
+        <v>| 10 | 17 | Th | 03/19 | **Extended Spring Break** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session17.html) |</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A23),"",CONCATENATE("| ",Schedule!A23," | ",Schedule!B23," | ",Schedule!C23," | ",TEXT(Schedule!D23,"mm/dd")," | ",Schedule!T23," |"))</f>
-        <v>| 11 | 18 | M | 03/23 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session18.html) |</v>
+        <v>| 11 | 18 | M | 03/23 | **Time Series Analysis, Unsupervised models.** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session18.html) &lt;br&gt; ** &lt;br&gt; |</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A24),"",CONCATENATE("| ",Schedule!A24," | ",Schedule!B24," | ",Schedule!C24," | ",TEXT(Schedule!D24,"mm/dd")," | ",Schedule!T24," |"))</f>
-        <v>| 11 | 19 | Th | 03/26 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session19.html) |</v>
+        <v>| 11 | 19 | Th | 03/26 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session19.html) &lt;br&gt; *Assignment 8 due 04/02 11:59 PM* &lt;br&gt; |</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A25),"",CONCATENATE("| ",Schedule!A25," | ",Schedule!B25," | ",Schedule!C25," | ",TEXT(Schedule!D25,"mm/dd")," | ",Schedule!T25," |"))</f>
-        <v>| 12 | 20 | M | 03/30 | **Introduction to Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session20.html) |</v>
+        <v>| 12 | 20 | M | 03/30 | **Text and NLP** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session20.html) |</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
@@ -54683,7 +54952,7 @@
     <row r="33" spans="1:1" ht="16">
       <c r="A33" s="27" t="str">
         <f>IF(ISBLANK(Schedule!A32),"",CONCATENATE("| ",Schedule!A32," | ",Schedule!B32," | ",Schedule!C32," | ",TEXT(Schedule!D32,"mm/dd")," | ",Schedule!T32," |"))</f>
-        <v>| 15 | 27 | Th | 04/23 | **Final Presentations** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session27.html) |</v>
+        <v>| 15 | 27 | Th | 04/23 | **Big Data** &lt;br&gt; [more](https://rpi.analyticsdojo.com/sessions/session27.html) &lt;br&gt; ** &lt;br&gt; |</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16">
